--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20805832-8DA2-704C-BD6E-CB5E89CF4452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0189EFF0-DCEC-E642-8C63-2EAF1C2CEA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF7030A0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -639,27 +639,27 @@
         <v>72</v>
       </c>
       <c r="G2" s="1">
-        <f xml:space="preserve"> ROUND((B2 * 0.1 + C2 * 0.1 + D2 * 0.1 + E2 * 0.35 + F2 * 0.35), 2)</f>
+        <f t="shared" ref="G2:G25" si="0" xml:space="preserve"> ROUND((B2 * 0.1 + C2 * 0.1 + D2 * 0.1 + E2 * 0.35 + F2 * 0.35), 2)</f>
         <v>82.5</v>
       </c>
       <c r="H2" s="1">
-        <f>G2 + (76.49 - $G$26)</f>
+        <f t="shared" ref="H2:H18" si="1">G2 + (76.49 - $G$26)</f>
         <v>99.08</v>
       </c>
       <c r="I2" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H2 + (99 - MAX($H$2:$H$25)), H2)</f>
-        <v>99.08</v>
+        <f>IF(MAX($H$2:$H$25) &lt; 99.4, H2 + (99.4 - MAX($H$2:$H$25)), H2)</f>
+        <v>99.4</v>
       </c>
       <c r="J2" s="1">
-        <f>IF(AND(OR(E2=100,F2=100),I2&gt;99),100,IF(AND(E2&lt;99,F2&lt;99,I2&gt;99),99,IF(AND(I2&gt;=57.5,I2&lt;=59.4),60,IF(OR(E2=0,F2=0),0,I2))))</f>
+        <f>IF(AND(OR(E2=100,F2=100),I2&gt;99.4),100,IF(AND(E2&lt;100,F2&lt;100,I2&gt;99.4),99.4,IF(AND(I2&gt;=56.5,I2&lt;=59.4),60,IF(OR(E2=0,F2=0),0,I2))))</f>
+        <v>99.4</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:K25" si="2">ROUND(J2,0)</f>
         <v>99</v>
       </c>
-      <c r="K2" s="1">
-        <f>ROUND(J2,0)</f>
-        <v>99</v>
-      </c>
       <c r="L2" s="1" t="str">
-        <f>IF(K2&gt;=90, "A+", IF(K2&gt;=86, "A", IF(K2&gt;=80, "A-", IF(K2&gt;=77, "B+", IF(K2&gt;=73, "B", IF(K2&gt;=70, "B-", IF(K2&gt;=67, "C+", IF(K2&gt;=63, "C", IF(K2&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" ref="L2:L25" si="3">IF(K2&gt;=90, "A+", IF(K2&gt;=86, "A", IF(K2&gt;=80, "A-", IF(K2&gt;=77, "B+", IF(K2&gt;=73, "B", IF(K2&gt;=70, "B-", IF(K2&gt;=67, "C+", IF(K2&gt;=63, "C", IF(K2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O2" s="2"/>
@@ -684,27 +684,27 @@
         <v>72</v>
       </c>
       <c r="G3" s="1">
-        <f xml:space="preserve"> ROUND((B3 * 0.1 + C3 * 0.1 + D3 * 0.1 + E3 * 0.35 + F3 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>81.099999999999994</v>
       </c>
       <c r="H3" s="1">
-        <f>G3 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>97.679999999999993</v>
       </c>
       <c r="I3" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H3 + (99 - MAX($H$2:$H$25)), H3)</f>
-        <v>97.679999999999993</v>
+        <f t="shared" ref="I3:I25" si="4">IF(MAX($H$2:$H$25) &lt; 99.4, H3 + (99.4 - MAX($H$2:$H$25)), H3)</f>
+        <v>98</v>
       </c>
       <c r="J3" s="1">
-        <f>IF(AND(OR(E3=100,F3=100),I3&gt;99),100,IF(AND(E3&lt;99,F3&lt;99,I3&gt;99),99,IF(AND(I3&gt;=57.5,I3&lt;=59.4),60,IF(OR(E3=0,F3=0),0,I3))))</f>
-        <v>97.679999999999993</v>
+        <f t="shared" ref="J3:J25" si="5">IF(AND(OR(E3=100,F3=100),I3&gt;99.4),100,IF(AND(E3&lt;100,F3&lt;100,I3&gt;99.4),99.4,IF(AND(I3&gt;=56.5,I3&lt;=59.4),60,IF(OR(E3=0,F3=0),0,I3))))</f>
+        <v>98</v>
       </c>
       <c r="K3" s="1">
-        <f>ROUND(J3,0)</f>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="L3" s="1" t="str">
-        <f>IF(K3&gt;=90, "A+", IF(K3&gt;=86, "A", IF(K3&gt;=80, "A-", IF(K3&gt;=77, "B+", IF(K3&gt;=73, "B", IF(K3&gt;=70, "B-", IF(K3&gt;=67, "C+", IF(K3&gt;=63, "C", IF(K3&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>A+</v>
       </c>
       <c r="O3" s="2"/>
@@ -729,27 +729,27 @@
         <v>87</v>
       </c>
       <c r="G4" s="1">
-        <f xml:space="preserve"> ROUND((B4 * 0.1 + C4 * 0.1 + D4 * 0.1 + E4 * 0.35 + F4 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>79.349999999999994</v>
       </c>
       <c r="H4" s="1">
-        <f>G4 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>95.929999999999993</v>
       </c>
       <c r="I4" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H4 + (99 - MAX($H$2:$H$25)), H4)</f>
-        <v>95.929999999999993</v>
+        <f t="shared" si="4"/>
+        <v>96.25</v>
       </c>
       <c r="J4" s="1">
-        <f>IF(AND(OR(E4=100,F4=100),I4&gt;99),100,IF(AND(E4&lt;99,F4&lt;99,I4&gt;99),99,IF(AND(I4&gt;=57.5,I4&lt;=59.4),60,IF(OR(E4=0,F4=0),0,I4))))</f>
-        <v>95.929999999999993</v>
+        <f t="shared" si="5"/>
+        <v>96.25</v>
       </c>
       <c r="K4" s="1">
-        <f>ROUND(J4,0)</f>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f>IF(K4&gt;=90, "A+", IF(K4&gt;=86, "A", IF(K4&gt;=80, "A-", IF(K4&gt;=77, "B+", IF(K4&gt;=73, "B", IF(K4&gt;=70, "B-", IF(K4&gt;=67, "C+", IF(K4&gt;=63, "C", IF(K4&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>A+</v>
       </c>
       <c r="O4" s="2"/>
@@ -774,27 +774,27 @@
         <v>72</v>
       </c>
       <c r="G5" s="1">
-        <f xml:space="preserve"> ROUND((B5 * 0.1 + C5 * 0.1 + D5 * 0.1 + E5 * 0.35 + F5 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>77.95</v>
       </c>
       <c r="H5" s="1">
-        <f>G5 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>94.53</v>
       </c>
       <c r="I5" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H5 + (99 - MAX($H$2:$H$25)), H5)</f>
-        <v>94.53</v>
+        <f t="shared" si="4"/>
+        <v>94.850000000000009</v>
       </c>
       <c r="J5" s="1">
-        <f>IF(AND(OR(E5=100,F5=100),I5&gt;99),100,IF(AND(E5&lt;99,F5&lt;99,I5&gt;99),99,IF(AND(I5&gt;=57.5,I5&lt;=59.4),60,IF(OR(E5=0,F5=0),0,I5))))</f>
-        <v>94.53</v>
+        <f t="shared" si="5"/>
+        <v>94.850000000000009</v>
       </c>
       <c r="K5" s="1">
-        <f>ROUND(J5,0)</f>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f>IF(K5&gt;=90, "A+", IF(K5&gt;=86, "A", IF(K5&gt;=80, "A-", IF(K5&gt;=77, "B+", IF(K5&gt;=73, "B", IF(K5&gt;=70, "B-", IF(K5&gt;=67, "C+", IF(K5&gt;=63, "C", IF(K5&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>A+</v>
       </c>
       <c r="O5" s="2"/>
@@ -819,27 +819,27 @@
         <v>67</v>
       </c>
       <c r="G6" s="1">
-        <f xml:space="preserve"> ROUND((B6 * 0.1 + C6 * 0.1 + D6 * 0.1 + E6 * 0.35 + F6 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>75.150000000000006</v>
       </c>
       <c r="H6" s="1">
-        <f>G6 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>91.73</v>
       </c>
       <c r="I6" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H6 + (99 - MAX($H$2:$H$25)), H6)</f>
-        <v>91.73</v>
+        <f t="shared" si="4"/>
+        <v>92.050000000000011</v>
       </c>
       <c r="J6" s="1">
-        <f>IF(AND(OR(E6=100,F6=100),I6&gt;99),100,IF(AND(E6&lt;99,F6&lt;99,I6&gt;99),99,IF(AND(I6&gt;=57.5,I6&lt;=59.4),60,IF(OR(E6=0,F6=0),0,I6))))</f>
-        <v>91.73</v>
+        <f t="shared" si="5"/>
+        <v>92.050000000000011</v>
       </c>
       <c r="K6" s="1">
-        <f>ROUND(J6,0)</f>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f>IF(K6&gt;=90, "A+", IF(K6&gt;=86, "A", IF(K6&gt;=80, "A-", IF(K6&gt;=77, "B+", IF(K6&gt;=73, "B", IF(K6&gt;=70, "B-", IF(K6&gt;=67, "C+", IF(K6&gt;=63, "C", IF(K6&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>A+</v>
       </c>
       <c r="O6" s="2"/>
@@ -864,27 +864,27 @@
         <v>72</v>
       </c>
       <c r="G7" s="1">
-        <f xml:space="preserve"> ROUND((B7 * 0.1 + C7 * 0.1 + D7 * 0.1 + E7 * 0.35 + F7 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>73.75</v>
       </c>
       <c r="H7" s="1">
-        <f>G7 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>90.33</v>
       </c>
       <c r="I7" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H7 + (99 - MAX($H$2:$H$25)), H7)</f>
-        <v>90.33</v>
+        <f t="shared" si="4"/>
+        <v>90.65</v>
       </c>
       <c r="J7" s="1">
-        <f>IF(AND(OR(E7=100,F7=100),I7&gt;99),100,IF(AND(E7&lt;99,F7&lt;99,I7&gt;99),99,IF(AND(I7&gt;=57.5,I7&lt;=59.4),60,IF(OR(E7=0,F7=0),0,I7))))</f>
-        <v>90.33</v>
+        <f t="shared" si="5"/>
+        <v>90.65</v>
       </c>
       <c r="K7" s="1">
-        <f>ROUND(J7,0)</f>
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>91</v>
       </c>
       <c r="L7" s="1" t="str">
-        <f>IF(K7&gt;=90, "A+", IF(K7&gt;=86, "A", IF(K7&gt;=80, "A-", IF(K7&gt;=77, "B+", IF(K7&gt;=73, "B", IF(K7&gt;=70, "B-", IF(K7&gt;=67, "C+", IF(K7&gt;=63, "C", IF(K7&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>A+</v>
       </c>
       <c r="O7" s="2"/>
@@ -909,27 +909,27 @@
         <v>67</v>
       </c>
       <c r="G8" s="1">
-        <f xml:space="preserve"> ROUND((B8 * 0.1 + C8 * 0.1 + D8 * 0.1 + E8 * 0.35 + F8 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>65.849999999999994</v>
       </c>
       <c r="H8" s="1">
-        <f>G8 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>82.429999999999993</v>
       </c>
       <c r="I8" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H8 + (99 - MAX($H$2:$H$25)), H8)</f>
-        <v>82.429999999999993</v>
+        <f t="shared" si="4"/>
+        <v>82.75</v>
       </c>
       <c r="J8" s="1">
-        <f>IF(AND(OR(E8=100,F8=100),I8&gt;99),100,IF(AND(E8&lt;99,F8&lt;99,I8&gt;99),99,IF(AND(I8&gt;=57.5,I8&lt;=59.4),60,IF(OR(E8=0,F8=0),0,I8))))</f>
-        <v>82.429999999999993</v>
+        <f t="shared" si="5"/>
+        <v>82.75</v>
       </c>
       <c r="K8" s="1">
-        <f>ROUND(J8,0)</f>
-        <v>82</v>
+        <f t="shared" si="2"/>
+        <v>83</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f>IF(K8&gt;=90, "A+", IF(K8&gt;=86, "A", IF(K8&gt;=80, "A-", IF(K8&gt;=77, "B+", IF(K8&gt;=73, "B", IF(K8&gt;=70, "B-", IF(K8&gt;=67, "C+", IF(K8&gt;=63, "C", IF(K8&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>A-</v>
       </c>
     </row>
@@ -953,27 +953,27 @@
         <v>56</v>
       </c>
       <c r="G9" s="1">
-        <f xml:space="preserve"> ROUND((B9 * 0.1 + C9 * 0.1 + D9 * 0.1 + E9 * 0.35 + F9 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>64.650000000000006</v>
       </c>
       <c r="H9" s="1">
-        <f>G9 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>81.23</v>
       </c>
       <c r="I9" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H9 + (99 - MAX($H$2:$H$25)), H9)</f>
-        <v>81.23</v>
+        <f t="shared" si="4"/>
+        <v>81.550000000000011</v>
       </c>
       <c r="J9" s="1">
-        <f>IF(AND(OR(E9=100,F9=100),I9&gt;99),100,IF(AND(E9&lt;99,F9&lt;99,I9&gt;99),99,IF(AND(I9&gt;=57.5,I9&lt;=59.4),60,IF(OR(E9=0,F9=0),0,I9))))</f>
-        <v>81.23</v>
+        <f t="shared" si="5"/>
+        <v>81.550000000000011</v>
       </c>
       <c r="K9" s="1">
-        <f>ROUND(J9,0)</f>
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>82</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f>IF(K9&gt;=90, "A+", IF(K9&gt;=86, "A", IF(K9&gt;=80, "A-", IF(K9&gt;=77, "B+", IF(K9&gt;=73, "B", IF(K9&gt;=70, "B-", IF(K9&gt;=67, "C+", IF(K9&gt;=63, "C", IF(K9&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>A-</v>
       </c>
       <c r="M9" s="3"/>
@@ -1000,27 +1000,27 @@
         <v>56</v>
       </c>
       <c r="G10" s="1">
-        <f xml:space="preserve"> ROUND((B10 * 0.1 + C10 * 0.1 + D10 * 0.1 + E10 * 0.35 + F10 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>64.3</v>
       </c>
       <c r="H10" s="1">
-        <f>G10 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>80.88</v>
       </c>
       <c r="I10" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H10 + (99 - MAX($H$2:$H$25)), H10)</f>
-        <v>80.88</v>
+        <f t="shared" si="4"/>
+        <v>81.2</v>
       </c>
       <c r="J10" s="1">
-        <f>IF(AND(OR(E10=100,F10=100),I10&gt;99),100,IF(AND(E10&lt;99,F10&lt;99,I10&gt;99),99,IF(AND(I10&gt;=57.5,I10&lt;=59.4),60,IF(OR(E10=0,F10=0),0,I10))))</f>
-        <v>80.88</v>
+        <f t="shared" si="5"/>
+        <v>81.2</v>
       </c>
       <c r="K10" s="1">
-        <f>ROUND(J10,0)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f>IF(K10&gt;=90, "A+", IF(K10&gt;=86, "A", IF(K10&gt;=80, "A-", IF(K10&gt;=77, "B+", IF(K10&gt;=73, "B", IF(K10&gt;=70, "B-", IF(K10&gt;=67, "C+", IF(K10&gt;=63, "C", IF(K10&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>A-</v>
       </c>
       <c r="O10" s="2"/>
@@ -1045,27 +1045,27 @@
         <v>52</v>
       </c>
       <c r="G11" s="1">
-        <f xml:space="preserve"> ROUND((B11 * 0.1 + C11 * 0.1 + D11 * 0.1 + E11 * 0.35 + F11 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>64.3</v>
       </c>
       <c r="H11" s="1">
-        <f>G11 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>80.88</v>
       </c>
       <c r="I11" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H11 + (99 - MAX($H$2:$H$25)), H11)</f>
-        <v>80.88</v>
+        <f t="shared" si="4"/>
+        <v>81.2</v>
       </c>
       <c r="J11" s="1">
-        <f>IF(AND(OR(E11=100,F11=100),I11&gt;99),100,IF(AND(E11&lt;99,F11&lt;99,I11&gt;99),99,IF(AND(I11&gt;=57.5,I11&lt;=59.4),60,IF(OR(E11=0,F11=0),0,I11))))</f>
-        <v>80.88</v>
+        <f t="shared" si="5"/>
+        <v>81.2</v>
       </c>
       <c r="K11" s="1">
-        <f>ROUND(J11,0)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f>IF(K11&gt;=90, "A+", IF(K11&gt;=86, "A", IF(K11&gt;=80, "A-", IF(K11&gt;=77, "B+", IF(K11&gt;=73, "B", IF(K11&gt;=70, "B-", IF(K11&gt;=67, "C+", IF(K11&gt;=63, "C", IF(K11&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>A-</v>
       </c>
       <c r="O11" s="2"/>
@@ -1090,27 +1090,27 @@
         <v>47</v>
       </c>
       <c r="G12" s="1">
-        <f xml:space="preserve"> ROUND((B12 * 0.1 + C12 * 0.1 + D12 * 0.1 + E12 * 0.35 + F12 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
       <c r="H12" s="1">
-        <f>G12 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>78.08</v>
       </c>
       <c r="I12" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H12 + (99 - MAX($H$2:$H$25)), H12)</f>
-        <v>78.08</v>
+        <f t="shared" si="4"/>
+        <v>78.400000000000006</v>
       </c>
       <c r="J12" s="1">
-        <f>IF(AND(OR(E12=100,F12=100),I12&gt;99),100,IF(AND(E12&lt;99,F12&lt;99,I12&gt;99),99,IF(AND(I12&gt;=57.5,I12&lt;=59.4),60,IF(OR(E12=0,F12=0),0,I12))))</f>
-        <v>78.08</v>
+        <f t="shared" si="5"/>
+        <v>78.400000000000006</v>
       </c>
       <c r="K12" s="1">
-        <f>ROUND(J12,0)</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f>IF(K12&gt;=90, "A+", IF(K12&gt;=86, "A", IF(K12&gt;=80, "A-", IF(K12&gt;=77, "B+", IF(K12&gt;=73, "B", IF(K12&gt;=70, "B-", IF(K12&gt;=67, "C+", IF(K12&gt;=63, "C", IF(K12&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>B+</v>
       </c>
       <c r="O12" s="2"/>
@@ -1135,27 +1135,27 @@
         <v>50</v>
       </c>
       <c r="G13" s="1">
-        <f xml:space="preserve"> ROUND((B13 * 0.1 + C13 * 0.1 + D13 * 0.1 + E13 * 0.35 + F13 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>61.05</v>
       </c>
       <c r="H13" s="1">
-        <f>G13 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>77.63</v>
       </c>
       <c r="I13" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H13 + (99 - MAX($H$2:$H$25)), H13)</f>
-        <v>77.63</v>
+        <f t="shared" si="4"/>
+        <v>77.95</v>
       </c>
       <c r="J13" s="1">
-        <f>IF(AND(OR(E13=100,F13=100),I13&gt;99),100,IF(AND(E13&lt;99,F13&lt;99,I13&gt;99),99,IF(AND(I13&gt;=57.5,I13&lt;=59.4),60,IF(OR(E13=0,F13=0),0,I13))))</f>
-        <v>77.63</v>
+        <f t="shared" si="5"/>
+        <v>77.95</v>
       </c>
       <c r="K13" s="1">
-        <f>ROUND(J13,0)</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f>IF(K13&gt;=90, "A+", IF(K13&gt;=86, "A", IF(K13&gt;=80, "A-", IF(K13&gt;=77, "B+", IF(K13&gt;=73, "B", IF(K13&gt;=70, "B-", IF(K13&gt;=67, "C+", IF(K13&gt;=63, "C", IF(K13&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>B+</v>
       </c>
       <c r="O13" s="2"/>
@@ -1180,27 +1180,27 @@
         <v>53</v>
       </c>
       <c r="G14" s="1">
-        <f xml:space="preserve"> ROUND((B14 * 0.1 + C14 * 0.1 + D14 * 0.1 + E14 * 0.35 + F14 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>59.3</v>
       </c>
       <c r="H14" s="1">
-        <f>G14 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>75.88</v>
       </c>
       <c r="I14" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H14 + (99 - MAX($H$2:$H$25)), H14)</f>
-        <v>75.88</v>
+        <f t="shared" si="4"/>
+        <v>76.2</v>
       </c>
       <c r="J14" s="1">
-        <f>IF(AND(OR(E14=100,F14=100),I14&gt;99),100,IF(AND(E14&lt;99,F14&lt;99,I14&gt;99),99,IF(AND(I14&gt;=57.5,I14&lt;=59.4),60,IF(OR(E14=0,F14=0),0,I14))))</f>
-        <v>75.88</v>
+        <f t="shared" si="5"/>
+        <v>76.2</v>
       </c>
       <c r="K14" s="1">
-        <f>ROUND(J14,0)</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="L14" s="1" t="str">
-        <f>IF(K14&gt;=90, "A+", IF(K14&gt;=86, "A", IF(K14&gt;=80, "A-", IF(K14&gt;=77, "B+", IF(K14&gt;=73, "B", IF(K14&gt;=70, "B-", IF(K14&gt;=67, "C+", IF(K14&gt;=63, "C", IF(K14&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="O14" s="2"/>
@@ -1225,27 +1225,27 @@
         <v>53</v>
       </c>
       <c r="G15" s="1">
-        <f xml:space="preserve"> ROUND((B15 * 0.1 + C15 * 0.1 + D15 * 0.1 + E15 * 0.35 + F15 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>57.8</v>
       </c>
       <c r="H15" s="1">
-        <f>G15 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>74.38</v>
       </c>
       <c r="I15" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H15 + (99 - MAX($H$2:$H$25)), H15)</f>
-        <v>74.38</v>
+        <f t="shared" si="4"/>
+        <v>74.7</v>
       </c>
       <c r="J15" s="1">
-        <f>IF(AND(OR(E15=100,F15=100),I15&gt;99),100,IF(AND(E15&lt;99,F15&lt;99,I15&gt;99),99,IF(AND(I15&gt;=57.5,I15&lt;=59.4),60,IF(OR(E15=0,F15=0),0,I15))))</f>
-        <v>74.38</v>
+        <f t="shared" si="5"/>
+        <v>74.7</v>
       </c>
       <c r="K15" s="1">
-        <f>ROUND(J15,0)</f>
-        <v>74</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="L15" s="1" t="str">
-        <f>IF(K15&gt;=90, "A+", IF(K15&gt;=86, "A", IF(K15&gt;=80, "A-", IF(K15&gt;=77, "B+", IF(K15&gt;=73, "B", IF(K15&gt;=70, "B-", IF(K15&gt;=67, "C+", IF(K15&gt;=63, "C", IF(K15&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="O15" s="2"/>
@@ -1270,27 +1270,27 @@
         <v>45</v>
       </c>
       <c r="G16" s="1">
-        <f xml:space="preserve"> ROUND((B16 * 0.1 + C16 * 0.1 + D16 * 0.1 + E16 * 0.35 + F16 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>57.65</v>
       </c>
       <c r="H16" s="1">
-        <f>G16 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>74.22999999999999</v>
       </c>
       <c r="I16" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H16 + (99 - MAX($H$2:$H$25)), H16)</f>
-        <v>74.22999999999999</v>
+        <f t="shared" si="4"/>
+        <v>74.55</v>
       </c>
       <c r="J16" s="1">
-        <f>IF(AND(OR(E16=100,F16=100),I16&gt;99),100,IF(AND(E16&lt;99,F16&lt;99,I16&gt;99),99,IF(AND(I16&gt;=57.5,I16&lt;=59.4),60,IF(OR(E16=0,F16=0),0,I16))))</f>
-        <v>74.22999999999999</v>
+        <f t="shared" si="5"/>
+        <v>74.55</v>
       </c>
       <c r="K16" s="1">
-        <f>ROUND(J16,0)</f>
-        <v>74</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="L16" s="1" t="str">
-        <f>IF(K16&gt;=90, "A+", IF(K16&gt;=86, "A", IF(K16&gt;=80, "A-", IF(K16&gt;=77, "B+", IF(K16&gt;=73, "B", IF(K16&gt;=70, "B-", IF(K16&gt;=67, "C+", IF(K16&gt;=63, "C", IF(K16&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="O16" s="2"/>
@@ -1315,27 +1315,27 @@
         <v>46</v>
       </c>
       <c r="G17" s="1">
-        <f xml:space="preserve"> ROUND((B17 * 0.1 + C17 * 0.1 + D17 * 0.1 + E17 * 0.35 + F17 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
       <c r="H17" s="1">
-        <f>G17 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>71.08</v>
       </c>
       <c r="I17" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H17 + (99 - MAX($H$2:$H$25)), H17)</f>
-        <v>71.08</v>
+        <f t="shared" si="4"/>
+        <v>71.400000000000006</v>
       </c>
       <c r="J17" s="1">
-        <f>IF(AND(OR(E17=100,F17=100),I17&gt;99),100,IF(AND(E17&lt;99,F17&lt;99,I17&gt;99),99,IF(AND(I17&gt;=57.5,I17&lt;=59.4),60,IF(OR(E17=0,F17=0),0,I17))))</f>
-        <v>71.08</v>
+        <f t="shared" si="5"/>
+        <v>71.400000000000006</v>
       </c>
       <c r="K17" s="1">
-        <f>ROUND(J17,0)</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="L17" s="1" t="str">
-        <f>IF(K17&gt;=90, "A+", IF(K17&gt;=86, "A", IF(K17&gt;=80, "A-", IF(K17&gt;=77, "B+", IF(K17&gt;=73, "B", IF(K17&gt;=70, "B-", IF(K17&gt;=67, "C+", IF(K17&gt;=63, "C", IF(K17&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>B-</v>
       </c>
       <c r="O17" s="2"/>
@@ -1360,27 +1360,27 @@
         <v>23</v>
       </c>
       <c r="G18" s="1">
-        <f xml:space="preserve"> ROUND((B18 * 0.1 + C18 * 0.1 + D18 * 0.1 + E18 * 0.35 + F18 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>53.8</v>
       </c>
       <c r="H18" s="1">
-        <f>G18 + (76.49 - $G$26)</f>
+        <f t="shared" si="1"/>
         <v>70.38</v>
       </c>
       <c r="I18" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H18 + (99 - MAX($H$2:$H$25)), H18)</f>
-        <v>70.38</v>
+        <f t="shared" si="4"/>
+        <v>70.7</v>
       </c>
       <c r="J18" s="1">
-        <f>IF(AND(OR(E18=100,F18=100),I18&gt;99),100,IF(AND(E18&lt;99,F18&lt;99,I18&gt;99),99,IF(AND(I18&gt;=57.5,I18&lt;=59.4),60,IF(OR(E18=0,F18=0),0,I18))))</f>
-        <v>70.38</v>
+        <f t="shared" si="5"/>
+        <v>70.7</v>
       </c>
       <c r="K18" s="1">
-        <f>ROUND(J18,0)</f>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>71</v>
       </c>
       <c r="L18" s="1" t="str">
-        <f>IF(K18&gt;=90, "A+", IF(K18&gt;=86, "A", IF(K18&gt;=80, "A-", IF(K18&gt;=77, "B+", IF(K18&gt;=73, "B", IF(K18&gt;=70, "B-", IF(K18&gt;=67, "C+", IF(K18&gt;=63, "C", IF(K18&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>B-</v>
       </c>
       <c r="O18" s="2"/>
@@ -1405,7 +1405,7 @@
         <v>57</v>
       </c>
       <c r="G19" s="1">
-        <f xml:space="preserve"> ROUND((B19 * 0.1 + C19 * 0.1 + D19 * 0.1 + E19 * 0.35 + F19 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>69.55</v>
       </c>
       <c r="H19" s="1">
@@ -1413,19 +1413,19 @@
         <v>69.55</v>
       </c>
       <c r="I19" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H19 + (99 - MAX($H$2:$H$25)), H19)</f>
-        <v>69.55</v>
+        <f t="shared" si="4"/>
+        <v>69.87</v>
       </c>
       <c r="J19" s="1">
-        <f>IF(AND(OR(E19=100,F19=100),I19&gt;99),100,IF(AND(E19&lt;99,F19&lt;99,I19&gt;99),99,IF(AND(I19&gt;=57.5,I19&lt;=59.4),60,IF(OR(E19=0,F19=0),0,I19))))</f>
-        <v>69.55</v>
+        <f t="shared" si="5"/>
+        <v>69.87</v>
       </c>
       <c r="K19" s="1">
-        <f>ROUND(J19,0)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="L19" s="1" t="str">
-        <f>IF(K19&gt;=90, "A+", IF(K19&gt;=86, "A", IF(K19&gt;=80, "A-", IF(K19&gt;=77, "B+", IF(K19&gt;=73, "B", IF(K19&gt;=70, "B-", IF(K19&gt;=67, "C+", IF(K19&gt;=63, "C", IF(K19&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>B-</v>
       </c>
       <c r="O19" s="2"/>
@@ -1450,27 +1450,27 @@
         <v>57</v>
       </c>
       <c r="G20" s="1">
-        <f xml:space="preserve"> ROUND((B20 * 0.1 + C20 * 0.1 + D20 * 0.1 + E20 * 0.35 + F20 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>51.85</v>
       </c>
       <c r="H20" s="1">
-        <f>G20 + (76.49 - $G$26)</f>
+        <f t="shared" ref="H20:H25" si="6">G20 + (76.49 - $G$26)</f>
         <v>68.430000000000007</v>
       </c>
       <c r="I20" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H20 + (99 - MAX($H$2:$H$25)), H20)</f>
-        <v>68.430000000000007</v>
+        <f t="shared" si="4"/>
+        <v>68.750000000000014</v>
       </c>
       <c r="J20" s="1">
-        <f>IF(AND(OR(E20=100,F20=100),I20&gt;99),100,IF(AND(E20&lt;99,F20&lt;99,I20&gt;99),99,IF(AND(I20&gt;=57.5,I20&lt;=59.4),60,IF(OR(E20=0,F20=0),0,I20))))</f>
-        <v>68.430000000000007</v>
+        <f t="shared" si="5"/>
+        <v>68.750000000000014</v>
       </c>
       <c r="K20" s="1">
-        <f>ROUND(J20,0)</f>
-        <v>68</v>
+        <f t="shared" si="2"/>
+        <v>69</v>
       </c>
       <c r="L20" s="1" t="str">
-        <f>IF(K20&gt;=90, "A+", IF(K20&gt;=86, "A", IF(K20&gt;=80, "A-", IF(K20&gt;=77, "B+", IF(K20&gt;=73, "B", IF(K20&gt;=70, "B-", IF(K20&gt;=67, "C+", IF(K20&gt;=63, "C", IF(K20&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>C+</v>
       </c>
     </row>
@@ -1494,27 +1494,27 @@
         <v>36</v>
       </c>
       <c r="G21" s="1">
-        <f xml:space="preserve"> ROUND((B21 * 0.1 + C21 * 0.1 + D21 * 0.1 + E21 * 0.35 + F21 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>44.15</v>
       </c>
       <c r="H21" s="1">
-        <f>G21 + (76.49 - $G$26)</f>
+        <f t="shared" si="6"/>
         <v>60.73</v>
       </c>
       <c r="I21" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H21 + (99 - MAX($H$2:$H$25)), H21)</f>
-        <v>60.73</v>
+        <f t="shared" si="4"/>
+        <v>61.050000000000004</v>
       </c>
       <c r="J21" s="1">
-        <f>IF(AND(OR(E21=100,F21=100),I21&gt;99),100,IF(AND(E21&lt;99,F21&lt;99,I21&gt;99),99,IF(AND(I21&gt;=57.5,I21&lt;=59.4),60,IF(OR(E21=0,F21=0),0,I21))))</f>
-        <v>60.73</v>
+        <f t="shared" si="5"/>
+        <v>61.050000000000004</v>
       </c>
       <c r="K21" s="1">
-        <f>ROUND(J21,0)</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="L21" s="1" t="str">
-        <f>IF(K21&gt;=90, "A+", IF(K21&gt;=86, "A", IF(K21&gt;=80, "A-", IF(K21&gt;=77, "B+", IF(K21&gt;=73, "B", IF(K21&gt;=70, "B-", IF(K21&gt;=67, "C+", IF(K21&gt;=63, "C", IF(K21&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>C-</v>
       </c>
     </row>
@@ -1538,27 +1538,27 @@
         <v>25</v>
       </c>
       <c r="G22" s="1">
-        <f xml:space="preserve"> ROUND((B22 * 0.1 + C22 * 0.1 + D22 * 0.1 + E22 * 0.35 + F22 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>43.3</v>
       </c>
       <c r="H22" s="1">
-        <f>G22 + (76.49 - $G$26)</f>
+        <f t="shared" si="6"/>
         <v>59.879999999999995</v>
       </c>
       <c r="I22" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H22 + (99 - MAX($H$2:$H$25)), H22)</f>
-        <v>59.879999999999995</v>
+        <f t="shared" si="4"/>
+        <v>60.2</v>
       </c>
       <c r="J22" s="1">
-        <f>IF(AND(OR(E22=100,F22=100),I22&gt;99),100,IF(AND(E22&lt;99,F22&lt;99,I22&gt;99),99,IF(AND(I22&gt;=57.5,I22&lt;=59.4),60,IF(OR(E22=0,F22=0),0,I22))))</f>
-        <v>59.879999999999995</v>
+        <f t="shared" si="5"/>
+        <v>60.2</v>
       </c>
       <c r="K22" s="1">
-        <f>ROUND(J22,0)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="L22" s="1" t="str">
-        <f>IF(K22&gt;=90, "A+", IF(K22&gt;=86, "A", IF(K22&gt;=80, "A-", IF(K22&gt;=77, "B+", IF(K22&gt;=73, "B", IF(K22&gt;=70, "B-", IF(K22&gt;=67, "C+", IF(K22&gt;=63, "C", IF(K22&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>C-</v>
       </c>
     </row>
@@ -1582,27 +1582,27 @@
         <v>24</v>
       </c>
       <c r="G23" s="1">
-        <f xml:space="preserve"> ROUND((B23 * 0.1 + C23 * 0.1 + D23 * 0.1 + E23 * 0.35 + F23 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>37.85</v>
       </c>
       <c r="H23" s="1">
-        <f>G23 + (76.49 - $G$26)</f>
+        <f t="shared" si="6"/>
         <v>54.43</v>
       </c>
       <c r="I23" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H23 + (99 - MAX($H$2:$H$25)), H23)</f>
-        <v>54.43</v>
+        <f t="shared" si="4"/>
+        <v>54.750000000000007</v>
       </c>
       <c r="J23" s="1">
-        <f>IF(AND(OR(E23=100,F23=100),I23&gt;99),100,IF(AND(E23&lt;99,F23&lt;99,I23&gt;99),99,IF(AND(I23&gt;=57.5,I23&lt;=59.4),60,IF(OR(E23=0,F23=0),0,I23))))</f>
-        <v>54.43</v>
+        <f t="shared" si="5"/>
+        <v>54.750000000000007</v>
       </c>
       <c r="K23" s="1">
-        <f>ROUND(J23,0)</f>
-        <v>54</v>
+        <f t="shared" si="2"/>
+        <v>55</v>
       </c>
       <c r="L23" s="1" t="str">
-        <f>IF(K23&gt;=90, "A+", IF(K23&gt;=86, "A", IF(K23&gt;=80, "A-", IF(K23&gt;=77, "B+", IF(K23&gt;=73, "B", IF(K23&gt;=70, "B-", IF(K23&gt;=67, "C+", IF(K23&gt;=63, "C", IF(K23&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
     </row>
@@ -1626,27 +1626,27 @@
         <v>13</v>
       </c>
       <c r="G24" s="1">
-        <f xml:space="preserve"> ROUND((B24 * 0.1 + C24 * 0.1 + D24 * 0.1 + E24 * 0.35 + F24 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>36.65</v>
       </c>
       <c r="H24" s="1">
-        <f>G24 + (76.49 - $G$26)</f>
+        <f t="shared" si="6"/>
         <v>53.23</v>
       </c>
       <c r="I24" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H24 + (99 - MAX($H$2:$H$25)), H24)</f>
-        <v>53.23</v>
+        <f t="shared" si="4"/>
+        <v>53.550000000000004</v>
       </c>
       <c r="J24" s="1">
-        <f>IF(AND(OR(E24=100,F24=100),I24&gt;99),100,IF(AND(E24&lt;99,F24&lt;99,I24&gt;99),99,IF(AND(I24&gt;=57.5,I24&lt;=59.4),60,IF(OR(E24=0,F24=0),0,I24))))</f>
-        <v>53.23</v>
+        <f t="shared" si="5"/>
+        <v>53.550000000000004</v>
       </c>
       <c r="K24" s="1">
-        <f>ROUND(J24,0)</f>
-        <v>53</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
       <c r="L24" s="1" t="str">
-        <f>IF(K24&gt;=90, "A+", IF(K24&gt;=86, "A", IF(K24&gt;=80, "A-", IF(K24&gt;=77, "B+", IF(K24&gt;=73, "B", IF(K24&gt;=70, "B-", IF(K24&gt;=67, "C+", IF(K24&gt;=63, "C", IF(K24&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
     </row>
@@ -1670,27 +1670,27 @@
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <f xml:space="preserve"> ROUND((B25 * 0.1 + C25 * 0.1 + D25 * 0.1 + E25 * 0.35 + F25 * 0.35), 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H25" s="1">
-        <f>G25 + (76.49 - $G$26)</f>
+        <f t="shared" si="6"/>
         <v>36.58</v>
       </c>
       <c r="I25" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99, H25 + (99 - MAX($H$2:$H$25)), H25)</f>
-        <v>36.58</v>
+        <f t="shared" si="4"/>
+        <v>36.900000000000006</v>
       </c>
       <c r="J25" s="1">
-        <f>IF(AND(OR(E25=100,F25=100),I25&gt;99),100,IF(AND(E25&lt;99,F25&lt;99,I25&gt;99),99,IF(AND(I25&gt;=57.5,I25&lt;=59.4),60,IF(OR(E25=0,F25=0),0,I25))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <f>ROUND(J25,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25" s="1" t="str">
-        <f>IF(K25&gt;=90, "A+", IF(K25&gt;=86, "A", IF(K25&gt;=80, "A-", IF(K25&gt;=77, "B+", IF(K25&gt;=73, "B", IF(K25&gt;=70, "B-", IF(K25&gt;=67, "C+", IF(K25&gt;=63, "C", IF(K25&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
     </row>
@@ -1699,15 +1699,15 @@
         <v>13</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ref="B26:D26" si="0">ROUND(AVERAGE(B2:B25),2)</f>
+        <f t="shared" ref="B26:D26" si="7">ROUND(AVERAGE(B2:B25),2)</f>
         <v>87.5</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>89.58</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>93.75</v>
       </c>
       <c r="E26" s="1">
@@ -1719,27 +1719,27 @@
         <v>50.08</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:L26" si="1">ROUND(AVERAGE(G2:G25),2)</f>
+        <f t="shared" ref="G26:J26" si="8">ROUND(AVERAGE(G2:G25),2)</f>
         <v>59.91</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>75.8</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="1"/>
-        <v>75.8</v>
+        <f t="shared" si="8"/>
+        <v>76.12</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="1"/>
-        <v>74.27</v>
+        <f t="shared" si="8"/>
+        <v>74.58</v>
       </c>
       <c r="K26" s="1">
         <f>ROUND(AVERAGE(K2:K25),2)</f>
-        <v>74.25</v>
+        <v>74.63</v>
       </c>
       <c r="L26" s="1" t="str">
-        <f t="shared" ref="L26" si="2">IF(K26&gt;=90, "A+", IF(K26&gt;=86, "A", IF(K26&gt;=80, "A-", IF(K26&gt;=77, "B+", IF(K26&gt;=73, "B", IF(K26&gt;=70, "B-", IF(K26&gt;=67, "C+", IF(K26&gt;=63, "C", IF(K26&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" ref="L26" si="9">IF(K26&gt;=90, "A+", IF(K26&gt;=86, "A", IF(K26&gt;=80, "A-", IF(K26&gt;=77, "B+", IF(K26&gt;=73, "B", IF(K26&gt;=70, "B-", IF(K26&gt;=67, "C+", IF(K26&gt;=63, "C", IF(K26&gt;=60, "C-", "F")))))))))</f>
         <v>B</v>
       </c>
     </row>
@@ -1753,14 +1753,14 @@
       <formula>G27&lt;59.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J80 L2:L26">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>I2&lt;60</formula>
+  <conditionalFormatting sqref="K2:K26">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>J2&lt;59.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K26">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>J2&lt;59.5</formula>
+  <conditionalFormatting sqref="L2:L26 J27:J80">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>I2&lt;60</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0189EFF0-DCEC-E642-8C63-2EAF1C2CEA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CD2114-CA6C-E645-B503-9C926E2C04C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,10 @@
   </si>
   <si>
     <t>Week 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,30 +596,32 @@
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
@@ -633,33 +639,36 @@
         <v>100</v>
       </c>
       <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
         <v>78</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>72</v>
       </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2:G25" si="0" xml:space="preserve"> ROUND((B2 * 0.1 + C2 * 0.1 + D2 * 0.1 + E2 * 0.35 + F2 * 0.35), 2)</f>
-        <v>82.5</v>
-      </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H18" si="1">G2 + (76.49 - $G$26)</f>
-        <v>99.08</v>
+        <f xml:space="preserve"> ROUND((B2 * 0.05 + C2 * 0.05 + D2 * 0.05 + E2*0.05 + F2 * 0.4 + G2 * 0.4), 2)</f>
+        <v>80</v>
       </c>
       <c r="I2" s="1">
-        <f>IF(MAX($H$2:$H$25) &lt; 99.4, H2 + (99.4 - MAX($H$2:$H$25)), H2)</f>
+        <f t="shared" ref="I2:I18" si="0">H2 + (76.49 - $H$26)</f>
+        <v>100.63999999999999</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J25" si="1">IF(MAX($I$2:$I$25) &lt; 99.4, I2 + (99.4 - MAX($I$2:$I$25)), I2)</f>
+        <v>100.63999999999999</v>
+      </c>
+      <c r="K2" s="1">
+        <f>IF(AND(OR(F2=100,G2=100),J2&gt;99.4),100,IF(AND(F2&lt;100,G2&lt;100,J2&gt;99.4),99.4,IF(AND(J2&gt;=54.5,J2&lt;=59.4),60,IF(OR(F2=0,G2=0),0,J2))))</f>
         <v>99.4</v>
       </c>
-      <c r="J2" s="1">
-        <f>IF(AND(OR(E2=100,F2=100),I2&gt;99.4),100,IF(AND(E2&lt;100,F2&lt;100,I2&gt;99.4),99.4,IF(AND(I2&gt;=56.5,I2&lt;=59.4),60,IF(OR(E2=0,F2=0),0,I2))))</f>
-        <v>99.4</v>
-      </c>
-      <c r="K2" s="1">
-        <f t="shared" ref="K2:K25" si="2">ROUND(J2,0)</f>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L25" si="2">ROUND(K2,0)</f>
         <v>99</v>
       </c>
-      <c r="L2" s="1" t="str">
-        <f t="shared" ref="L2:L25" si="3">IF(K2&gt;=90, "A+", IF(K2&gt;=86, "A", IF(K2&gt;=80, "A-", IF(K2&gt;=77, "B+", IF(K2&gt;=73, "B", IF(K2&gt;=70, "B-", IF(K2&gt;=67, "C+", IF(K2&gt;=63, "C", IF(K2&gt;=60, "C-", "F")))))))))</f>
+      <c r="M2" s="1" t="str">
+        <f t="shared" ref="M2:M25" si="3">IF(L2&gt;=90, "A+", IF(L2&gt;=86, "A", IF(L2&gt;=80, "A-", IF(L2&gt;=77, "B+", IF(L2&gt;=73, "B", IF(L2&gt;=70, "B-", IF(L2&gt;=67, "C+", IF(L2&gt;=63, "C", IF(L2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O2" s="2"/>
@@ -678,32 +687,35 @@
         <v>100</v>
       </c>
       <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
         <v>74</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>72</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H24" si="4" xml:space="preserve"> ROUND((B3 * 0.05 + C3 * 0.05 + D3 * 0.05 + E3*0.05 + F3 * 0.4 + G3 * 0.4), 2)</f>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="I3" s="1">
         <f t="shared" si="0"/>
-        <v>81.099999999999994</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" si="1"/>
-        <v>97.679999999999993</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I25" si="4">IF(MAX($H$2:$H$25) &lt; 99.4, H3 + (99.4 - MAX($H$2:$H$25)), H3)</f>
-        <v>98</v>
+        <v>99.039999999999992</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J25" si="5">IF(AND(OR(E3=100,F3=100),I3&gt;99.4),100,IF(AND(E3&lt;100,F3&lt;100,I3&gt;99.4),99.4,IF(AND(I3&gt;=56.5,I3&lt;=59.4),60,IF(OR(E3=0,F3=0),0,I3))))</f>
-        <v>98</v>
+        <f t="shared" si="1"/>
+        <v>99.039999999999992</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="L3" s="1" t="str">
+        <f t="shared" ref="K3:K25" si="5">IF(AND(OR(F3=100,G3=100),J3&gt;99.4),100,IF(AND(F3&lt;100,G3&lt;100,J3&gt;99.4),99.4,IF(AND(J3&gt;=54.5,J3&lt;=59.4),60,IF(OR(F3=0,G3=0),0,J3))))</f>
+        <v>99.039999999999992</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="M3" s="1" t="str">
         <f t="shared" si="3"/>
         <v>A+</v>
       </c>
@@ -723,32 +735,35 @@
         <v>100</v>
       </c>
       <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
         <v>54</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>87</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
+        <f t="shared" si="4"/>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>79.349999999999994</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="1"/>
-        <v>95.929999999999993</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="4"/>
-        <v>96.25</v>
+        <v>97.039999999999992</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="5"/>
-        <v>96.25</v>
+        <f t="shared" si="1"/>
+        <v>97.039999999999992</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="L4" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>97.039999999999992</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="M4" s="1" t="str">
         <f t="shared" si="3"/>
         <v>A+</v>
       </c>
@@ -768,32 +783,35 @@
         <v>100</v>
       </c>
       <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
         <v>65</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>72</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
+        <f t="shared" si="4"/>
+        <v>74.8</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>77.95</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>94.53</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="4"/>
-        <v>94.850000000000009</v>
+        <v>95.44</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="5"/>
-        <v>94.850000000000009</v>
+        <f t="shared" si="1"/>
+        <v>95.44</v>
       </c>
       <c r="K5" s="1">
+        <f t="shared" si="5"/>
+        <v>95.44</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="L5" s="1" t="str">
+      <c r="M5" s="1" t="str">
         <f t="shared" si="3"/>
         <v>A+</v>
       </c>
@@ -813,32 +831,35 @@
         <v>100</v>
       </c>
       <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
         <v>62</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>67</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
+        <f t="shared" si="4"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>75.150000000000006</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="1"/>
-        <v>91.73</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="4"/>
-        <v>92.050000000000011</v>
+        <v>92.239999999999981</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="5"/>
-        <v>92.050000000000011</v>
+        <f t="shared" si="1"/>
+        <v>92.239999999999981</v>
       </c>
       <c r="K6" s="1">
+        <f t="shared" si="5"/>
+        <v>92.239999999999981</v>
+      </c>
+      <c r="L6" s="1">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="L6" s="1" t="str">
+      <c r="M6" s="1" t="str">
         <f t="shared" si="3"/>
         <v>A+</v>
       </c>
@@ -858,32 +879,35 @@
         <v>100</v>
       </c>
       <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
         <v>53</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>72</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>73.75</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>90.33</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="4"/>
-        <v>90.65</v>
+        <v>90.639999999999986</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="5"/>
-        <v>90.65</v>
+        <f t="shared" si="1"/>
+        <v>90.639999999999986</v>
       </c>
       <c r="K7" s="1">
+        <f t="shared" si="5"/>
+        <v>90.639999999999986</v>
+      </c>
+      <c r="L7" s="1">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="L7" s="1" t="str">
+      <c r="M7" s="1" t="str">
         <f t="shared" si="3"/>
         <v>A+</v>
       </c>
@@ -903,34 +927,37 @@
         <v>100</v>
       </c>
       <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1">
         <v>64</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>67</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>67.400000000000006</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>65.849999999999994</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>82.429999999999993</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>82.75</v>
+        <v>88.039999999999992</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="5"/>
-        <v>82.75</v>
+        <f t="shared" si="1"/>
+        <v>88.039999999999992</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="L8" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>A-</v>
+        <f t="shared" si="5"/>
+        <v>88.039999999999992</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -947,36 +974,38 @@
         <v>100</v>
       </c>
       <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1">
         <v>43</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>56</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
+        <f t="shared" si="4"/>
+        <v>59.6</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>64.650000000000006</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>81.23</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="4"/>
-        <v>81.550000000000011</v>
+        <v>80.239999999999995</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="5"/>
-        <v>81.550000000000011</v>
+        <f t="shared" si="1"/>
+        <v>80.239999999999995</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="L9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>80.239999999999995</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="M9" s="1" t="str">
         <f t="shared" si="3"/>
         <v>A-</v>
       </c>
-      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
@@ -994,32 +1023,35 @@
         <v>100</v>
       </c>
       <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1">
         <v>42</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>56</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
+        <f t="shared" si="4"/>
+        <v>59.2</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>64.3</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
-        <v>80.88</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="4"/>
-        <v>81.2</v>
+        <v>79.84</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="5"/>
-        <v>81.2</v>
+        <f t="shared" si="1"/>
+        <v>79.84</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="L10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>79.84</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="M10" s="1" t="str">
         <f t="shared" si="3"/>
         <v>A-</v>
       </c>
@@ -1039,32 +1071,35 @@
         <v>100</v>
       </c>
       <c r="E11" s="1">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1">
         <v>46</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>52</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
+        <f t="shared" si="4"/>
+        <v>59.2</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>64.3</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
-        <v>80.88</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="4"/>
-        <v>81.2</v>
+        <v>79.84</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="5"/>
-        <v>81.2</v>
+        <f t="shared" si="1"/>
+        <v>79.84</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="L11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>79.84</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="M11" s="1" t="str">
         <f t="shared" si="3"/>
         <v>A-</v>
       </c>
@@ -1084,32 +1119,35 @@
         <v>100</v>
       </c>
       <c r="E12" s="1">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1">
         <v>43</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>47</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>61.5</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="1"/>
-        <v>78.08</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="4"/>
-        <v>78.400000000000006</v>
+        <v>76.639999999999986</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="5"/>
-        <v>78.400000000000006</v>
+        <f t="shared" si="1"/>
+        <v>76.639999999999986</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="L12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>76.639999999999986</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="M12" s="1" t="str">
         <f t="shared" si="3"/>
         <v>B+</v>
       </c>
@@ -1129,32 +1167,35 @@
         <v>100</v>
       </c>
       <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1">
         <v>53</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>50</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
+        <f t="shared" si="4"/>
+        <v>58.7</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>61.05</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="1"/>
-        <v>77.63</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="4"/>
-        <v>77.95</v>
+        <v>79.34</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="5"/>
-        <v>77.95</v>
+        <f t="shared" si="1"/>
+        <v>79.34</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="L13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>79.34</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="M13" s="1" t="str">
         <f t="shared" si="3"/>
         <v>B+</v>
       </c>
@@ -1174,34 +1215,37 @@
         <v>50</v>
       </c>
       <c r="E14" s="1">
+        <v>100</v>
+      </c>
+      <c r="F14" s="1">
         <v>45</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>53</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
+        <f t="shared" si="4"/>
+        <v>56.7</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>59.3</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>75.88</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="4"/>
-        <v>76.2</v>
+        <v>77.34</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="5"/>
-        <v>76.2</v>
+        <f t="shared" si="1"/>
+        <v>77.34</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="L14" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
+        <f t="shared" si="5"/>
+        <v>77.34</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>B+</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -1219,34 +1263,37 @@
         <v>100</v>
       </c>
       <c r="E15" s="1">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1">
         <v>55</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>53</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
+        <f t="shared" si="4"/>
+        <v>58.2</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>57.8</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="1"/>
-        <v>74.38</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="4"/>
-        <v>74.7</v>
+        <v>78.84</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="5"/>
-        <v>74.7</v>
+        <f t="shared" si="1"/>
+        <v>78.84</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="L15" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
+        <f t="shared" si="5"/>
+        <v>78.84</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>B+</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -1264,34 +1311,37 @@
         <v>100</v>
       </c>
       <c r="E16" s="1">
+        <v>100</v>
+      </c>
+      <c r="F16" s="1">
         <v>34</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>45</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
+        <f t="shared" si="4"/>
+        <v>51.6</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>57.65</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="1"/>
-        <v>74.22999999999999</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="4"/>
-        <v>74.55</v>
+        <v>72.239999999999995</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="5"/>
-        <v>74.55</v>
+        <f t="shared" si="1"/>
+        <v>72.239999999999995</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="L16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>B</v>
+        <f t="shared" si="5"/>
+        <v>72.239999999999995</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>B-</v>
       </c>
       <c r="O16" s="2"/>
     </row>
@@ -1309,34 +1359,37 @@
         <v>100</v>
       </c>
       <c r="E17" s="1">
+        <v>100</v>
+      </c>
+      <c r="F17" s="1">
         <v>24</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>46</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="I17" s="1">
         <f t="shared" si="0"/>
-        <v>54.5</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="1"/>
-        <v>71.08</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="4"/>
-        <v>71.400000000000006</v>
+        <v>68.639999999999986</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="5"/>
-        <v>71.400000000000006</v>
+        <f t="shared" si="1"/>
+        <v>68.639999999999986</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="L17" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>B-</v>
+        <f t="shared" si="5"/>
+        <v>68.639999999999986</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>C+</v>
       </c>
       <c r="O17" s="2"/>
     </row>
@@ -1354,34 +1407,37 @@
         <v>100</v>
       </c>
       <c r="E18" s="1">
+        <v>100</v>
+      </c>
+      <c r="F18" s="1">
         <v>45</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>23</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
+        <f t="shared" si="4"/>
+        <v>47.2</v>
+      </c>
+      <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>53.8</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="1"/>
-        <v>70.38</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="4"/>
-        <v>70.7</v>
+        <v>67.84</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="5"/>
-        <v>70.7</v>
+        <f t="shared" si="1"/>
+        <v>67.84</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="L18" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>B-</v>
+        <f t="shared" si="5"/>
+        <v>67.84</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>C+</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -1399,34 +1455,37 @@
         <v>100</v>
       </c>
       <c r="E19" s="1">
+        <v>100</v>
+      </c>
+      <c r="F19" s="1">
         <v>56</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>57</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>69.55</v>
-      </c>
       <c r="H19" s="1">
-        <f>G19</f>
-        <v>69.55</v>
+        <f t="shared" si="4"/>
+        <v>65.2</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="4"/>
-        <v>69.87</v>
+        <f>H19</f>
+        <v>65.2</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="5"/>
-        <v>69.87</v>
+        <f t="shared" si="1"/>
+        <v>65.2</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="L19" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>B-</v>
+        <f t="shared" si="5"/>
+        <v>65.2</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -1444,34 +1503,37 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
+        <v>100</v>
+      </c>
+      <c r="F20" s="1">
         <v>34</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>57</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>51.85</v>
-      </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:H25" si="6">G20 + (76.49 - $G$26)</f>
-        <v>68.430000000000007</v>
+        <f t="shared" si="4"/>
+        <v>51.4</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="4"/>
-        <v>68.750000000000014</v>
+        <f t="shared" ref="I20:I25" si="6">H20 + (76.49 - $H$26)</f>
+        <v>72.039999999999992</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="5"/>
-        <v>68.750000000000014</v>
+        <f t="shared" si="1"/>
+        <v>72.039999999999992</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="L20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>C+</v>
+        <f t="shared" si="5"/>
+        <v>72.039999999999992</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>B-</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1488,34 +1550,37 @@
         <v>100</v>
       </c>
       <c r="E21" s="1">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1">
         <v>33</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>36</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>44.15</v>
-      </c>
       <c r="H21" s="1">
+        <f t="shared" si="4"/>
+        <v>42.6</v>
+      </c>
+      <c r="I21" s="1">
         <f t="shared" si="6"/>
-        <v>60.73</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="4"/>
-        <v>61.050000000000004</v>
+        <v>63.239999999999995</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="5"/>
-        <v>61.050000000000004</v>
+        <f t="shared" si="1"/>
+        <v>63.239999999999995</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="L21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>C-</v>
+        <f t="shared" si="5"/>
+        <v>63.239999999999995</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1532,32 +1597,35 @@
         <v>100</v>
       </c>
       <c r="E22" s="1">
+        <v>100</v>
+      </c>
+      <c r="F22" s="1">
         <v>13</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>25</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>43.3</v>
-      </c>
       <c r="H22" s="1">
+        <f t="shared" si="4"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="I22" s="1">
         <f t="shared" si="6"/>
-        <v>59.879999999999995</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="4"/>
-        <v>60.2</v>
+        <v>55.839999999999996</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="5"/>
-        <v>60.2</v>
+        <f t="shared" si="1"/>
+        <v>55.839999999999996</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="L22" s="1" t="str">
+      <c r="L22" s="1">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="M22" s="1" t="str">
         <f t="shared" si="3"/>
         <v>C-</v>
       </c>
@@ -1576,32 +1644,35 @@
         <v>100</v>
       </c>
       <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>27</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>24</v>
       </c>
-      <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>37.85</v>
-      </c>
       <c r="H23" s="1">
+        <f t="shared" si="4"/>
+        <v>30.4</v>
+      </c>
+      <c r="I23" s="1">
         <f t="shared" si="6"/>
-        <v>54.43</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="4"/>
-        <v>54.750000000000007</v>
+        <v>51.039999999999992</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="5"/>
-        <v>54.750000000000007</v>
+        <f t="shared" si="1"/>
+        <v>51.039999999999992</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="L23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>51.039999999999992</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="M23" s="1" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
@@ -1620,32 +1691,35 @@
         <v>100</v>
       </c>
       <c r="E24" s="1">
+        <v>100</v>
+      </c>
+      <c r="F24" s="1">
         <v>6</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>13</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>36.65</v>
-      </c>
       <c r="H24" s="1">
+        <f t="shared" si="4"/>
+        <v>27.6</v>
+      </c>
+      <c r="I24" s="1">
         <f t="shared" si="6"/>
-        <v>53.23</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="4"/>
-        <v>53.550000000000004</v>
+        <v>48.239999999999995</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="5"/>
-        <v>53.550000000000004</v>
+        <f t="shared" si="1"/>
+        <v>48.239999999999995</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="L24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>48.239999999999995</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="M24" s="1" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
@@ -1664,32 +1738,35 @@
         <v>100</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
+        <f t="shared" ref="H25" si="7" xml:space="preserve"> ROUND((B25 * 0.05 + C25 * 0.05 + D25 * 0.05 + E25*0.05 + F25 * 0.35 + G25 * 0.35), 2)</f>
+        <v>15</v>
+      </c>
+      <c r="I25" s="1">
         <f t="shared" si="6"/>
-        <v>36.58</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="4"/>
-        <v>36.900000000000006</v>
+        <v>35.639999999999993</v>
       </c>
       <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>35.639999999999993</v>
+      </c>
+      <c r="K25" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L25" s="1" t="str">
+      <c r="M25" s="1" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
@@ -1699,47 +1776,51 @@
         <v>13</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ref="B26:D26" si="7">ROUND(AVERAGE(B2:B25),2)</f>
+        <f t="shared" ref="B26:E26" si="8">ROUND(AVERAGE(B2:B25),2)</f>
         <v>87.5</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>89.58</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>93.75</v>
       </c>
       <c r="E26" s="1">
-        <f>ROUND(AVERAGE(E2:E25),2)</f>
-        <v>43.71</v>
+        <f t="shared" si="8"/>
+        <v>95.83</v>
       </c>
       <c r="F26" s="1">
         <f>ROUND(AVERAGE(F2:F25),2)</f>
+        <v>43.71</v>
+      </c>
+      <c r="G26" s="1">
+        <f>ROUND(AVERAGE(G2:G25),2)</f>
         <v>50.08</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" ref="G26:J26" si="8">ROUND(AVERAGE(G2:G25),2)</f>
-        <v>59.91</v>
-      </c>
       <c r="H26" s="1">
-        <f t="shared" si="8"/>
-        <v>75.8</v>
+        <f t="shared" ref="H26:K26" si="9">ROUND(AVERAGE(H2:H25),2)</f>
+        <v>55.85</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="8"/>
-        <v>76.12</v>
+        <f t="shared" si="9"/>
+        <v>75.63</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="8"/>
-        <v>74.58</v>
+        <f t="shared" si="9"/>
+        <v>75.63</v>
       </c>
       <c r="K26" s="1">
-        <f>ROUND(AVERAGE(K2:K25),2)</f>
-        <v>74.63</v>
-      </c>
-      <c r="L26" s="1" t="str">
-        <f t="shared" ref="L26" si="9">IF(K26&gt;=90, "A+", IF(K26&gt;=86, "A", IF(K26&gt;=80, "A-", IF(K26&gt;=77, "B+", IF(K26&gt;=73, "B", IF(K26&gt;=70, "B-", IF(K26&gt;=67, "C+", IF(K26&gt;=63, "C", IF(K26&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="9"/>
+        <v>74.27</v>
+      </c>
+      <c r="L26" s="1">
+        <f>ROUND(AVERAGE(L2:L25),2)</f>
+        <v>74.209999999999994</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" ref="M26" si="10">IF(L26&gt;=90, "A+", IF(L26&gt;=86, "A", IF(L26&gt;=80, "A-", IF(L26&gt;=77, "B+", IF(L26&gt;=73, "B", IF(L26&gt;=70, "B-", IF(L26&gt;=67, "C+", IF(L26&gt;=63, "C", IF(L26&gt;=60, "C-", "F")))))))))</f>
         <v>B</v>
       </c>
     </row>
@@ -1753,12 +1834,12 @@
       <formula>G27&lt;59.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K26">
+  <conditionalFormatting sqref="L2:L26">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>J2&lt;59.5</formula>
+      <formula>K2&lt;59.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L26 J27:J80">
+  <conditionalFormatting sqref="M2:M26 J27:J80">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>I2&lt;60</formula>
     </cfRule>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CD2114-CA6C-E645-B503-9C926E2C04C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E5D2E7-9E0A-2A49-BD88-BDD5666A928A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,23 +652,23 @@
         <v>80</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I18" si="0">H2 + (76.49 - $H$26)</f>
-        <v>100.63999999999999</v>
+        <f>H2 + (76.49 + 4.6 - $H$26)</f>
+        <v>104.79999999999998</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J25" si="1">IF(MAX($I$2:$I$25) &lt; 99.4, I2 + (99.4 - MAX($I$2:$I$25)), I2)</f>
-        <v>100.63999999999999</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I2 + (99.4 - MAX($I$2:$I$25)), I2)</f>
+        <v>104.79999999999998</v>
       </c>
       <c r="K2" s="1">
-        <f>IF(AND(OR(F2=100,G2=100),J2&gt;99.4),100,IF(AND(F2&lt;100,G2&lt;100,J2&gt;99.4),99.4,IF(AND(J2&gt;=54.5,J2&lt;=59.4),60,IF(OR(F2=0,G2=0),0,J2))))</f>
+        <f>IF(AND(OR(F2=100,G2=100),J2&gt;99.4),100,IF(AND(F2&lt;100,G2&lt;100,J2&gt;99.4),99.4,IF(AND(J2&gt;=57.5,J2&lt;=59.4),60,IF(OR(F2=0,G2=0),0,J2))))</f>
         <v>99.4</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L25" si="2">ROUND(K2,0)</f>
+        <f>ROUND(K2,0)</f>
         <v>99</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f t="shared" ref="M2:M25" si="3">IF(L2&gt;=90, "A+", IF(L2&gt;=86, "A", IF(L2&gt;=80, "A-", IF(L2&gt;=77, "B+", IF(L2&gt;=73, "B", IF(L2&gt;=70, "B-", IF(L2&gt;=67, "C+", IF(L2&gt;=63, "C", IF(L2&gt;=60, "C-", "F")))))))))</f>
+        <f>IF(L2&gt;=90, "A+", IF(L2&gt;=86, "A", IF(L2&gt;=80, "A-", IF(L2&gt;=77, "B+", IF(L2&gt;=73, "B", IF(L2&gt;=70, "B-", IF(L2&gt;=67, "C+", IF(L2&gt;=63, "C", IF(L2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O2" s="2"/>
@@ -696,27 +696,27 @@
         <v>72</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H24" si="4" xml:space="preserve"> ROUND((B3 * 0.05 + C3 * 0.05 + D3 * 0.05 + E3*0.05 + F3 * 0.4 + G3 * 0.4), 2)</f>
+        <f xml:space="preserve"> ROUND((B3 * 0.05 + C3 * 0.05 + D3 * 0.05 + E3*0.05 + F3 * 0.4 + G3 * 0.4), 2)</f>
         <v>78.400000000000006</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" si="0"/>
-        <v>99.039999999999992</v>
+        <f>H3 + (76.49 + 4.6 - $H$26)</f>
+        <v>103.19999999999999</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="1"/>
-        <v>99.039999999999992</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I3 + (99.4 - MAX($I$2:$I$25)), I3)</f>
+        <v>103.19999999999999</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K25" si="5">IF(AND(OR(F3=100,G3=100),J3&gt;99.4),100,IF(AND(F3&lt;100,G3&lt;100,J3&gt;99.4),99.4,IF(AND(J3&gt;=54.5,J3&lt;=59.4),60,IF(OR(F3=0,G3=0),0,J3))))</f>
-        <v>99.039999999999992</v>
+        <f>IF(AND(OR(F3=100,G3=100),J3&gt;99.4),100,IF(AND(F3&lt;100,G3&lt;100,J3&gt;99.4),99.4,IF(AND(J3&gt;=57.5,J3&lt;=59.4),60,IF(OR(F3=0,G3=0),0,J3))))</f>
+        <v>99.4</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(K3,0)</f>
         <v>99</v>
       </c>
       <c r="M3" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(L3&gt;=90, "A+", IF(L3&gt;=86, "A", IF(L3&gt;=80, "A-", IF(L3&gt;=77, "B+", IF(L3&gt;=73, "B", IF(L3&gt;=70, "B-", IF(L3&gt;=67, "C+", IF(L3&gt;=63, "C", IF(L3&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O3" s="2"/>
@@ -744,27 +744,27 @@
         <v>87</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> ROUND((B4 * 0.05 + C4 * 0.05 + D4 * 0.05 + E4*0.05 + F4 * 0.4 + G4 * 0.4), 2)</f>
         <v>76.400000000000006</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>97.039999999999992</v>
+        <f>H4 + (76.49 + 4.6 - $H$26)</f>
+        <v>101.19999999999999</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="1"/>
-        <v>97.039999999999992</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I4 + (99.4 - MAX($I$2:$I$25)), I4)</f>
+        <v>101.19999999999999</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="5"/>
-        <v>97.039999999999992</v>
+        <f>IF(AND(OR(F4=100,G4=100),J4&gt;99.4),100,IF(AND(F4&lt;100,G4&lt;100,J4&gt;99.4),99.4,IF(AND(J4&gt;=57.5,J4&lt;=59.4),60,IF(OR(F4=0,G4=0),0,J4))))</f>
+        <v>99.4</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="2"/>
-        <v>97</v>
+        <f>ROUND(K4,0)</f>
+        <v>99</v>
       </c>
       <c r="M4" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(L4&gt;=90, "A+", IF(L4&gt;=86, "A", IF(L4&gt;=80, "A-", IF(L4&gt;=77, "B+", IF(L4&gt;=73, "B", IF(L4&gt;=70, "B-", IF(L4&gt;=67, "C+", IF(L4&gt;=63, "C", IF(L4&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O4" s="2"/>
@@ -792,27 +792,27 @@
         <v>72</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> ROUND((B5 * 0.05 + C5 * 0.05 + D5 * 0.05 + E5*0.05 + F5 * 0.4 + G5 * 0.4), 2)</f>
         <v>74.8</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>95.44</v>
+        <f>H5 + (76.49 + 4.6 - $H$26)</f>
+        <v>99.6</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>95.44</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I5 + (99.4 - MAX($I$2:$I$25)), I5)</f>
+        <v>99.6</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="5"/>
-        <v>95.44</v>
+        <f>IF(AND(OR(F5=100,G5=100),J5&gt;99.4),100,IF(AND(F5&lt;100,G5&lt;100,J5&gt;99.4),99.4,IF(AND(J5&gt;=57.5,J5&lt;=59.4),60,IF(OR(F5=0,G5=0),0,J5))))</f>
+        <v>99.4</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="2"/>
-        <v>95</v>
+        <f>ROUND(K5,0)</f>
+        <v>99</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(L5&gt;=90, "A+", IF(L5&gt;=86, "A", IF(L5&gt;=80, "A-", IF(L5&gt;=77, "B+", IF(L5&gt;=73, "B", IF(L5&gt;=70, "B-", IF(L5&gt;=67, "C+", IF(L5&gt;=63, "C", IF(L5&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O5" s="2"/>
@@ -840,27 +840,27 @@
         <v>67</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> ROUND((B6 * 0.05 + C6 * 0.05 + D6 * 0.05 + E6*0.05 + F6 * 0.4 + G6 * 0.4), 2)</f>
         <v>71.599999999999994</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>92.239999999999981</v>
+        <f>H6 + (76.49 + 4.6 - $H$26)</f>
+        <v>96.399999999999977</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
-        <v>92.239999999999981</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I6 + (99.4 - MAX($I$2:$I$25)), I6)</f>
+        <v>96.399999999999977</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="5"/>
-        <v>92.239999999999981</v>
+        <f>IF(AND(OR(F6=100,G6=100),J6&gt;99.4),100,IF(AND(F6&lt;100,G6&lt;100,J6&gt;99.4),99.4,IF(AND(J6&gt;=57.5,J6&lt;=59.4),60,IF(OR(F6=0,G6=0),0,J6))))</f>
+        <v>96.399999999999977</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="2"/>
-        <v>92</v>
+        <f>ROUND(K6,0)</f>
+        <v>96</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(L6&gt;=90, "A+", IF(L6&gt;=86, "A", IF(L6&gt;=80, "A-", IF(L6&gt;=77, "B+", IF(L6&gt;=73, "B", IF(L6&gt;=70, "B-", IF(L6&gt;=67, "C+", IF(L6&gt;=63, "C", IF(L6&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O6" s="2"/>
@@ -888,27 +888,27 @@
         <v>72</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> ROUND((B7 * 0.05 + C7 * 0.05 + D7 * 0.05 + E7*0.05 + F7 * 0.4 + G7 * 0.4), 2)</f>
         <v>70</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>90.639999999999986</v>
+        <f>H7 + (76.49 + 4.6 - $H$26)</f>
+        <v>94.799999999999983</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
-        <v>90.639999999999986</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I7 + (99.4 - MAX($I$2:$I$25)), I7)</f>
+        <v>94.799999999999983</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="5"/>
-        <v>90.639999999999986</v>
+        <f>IF(AND(OR(F7=100,G7=100),J7&gt;99.4),100,IF(AND(F7&lt;100,G7&lt;100,J7&gt;99.4),99.4,IF(AND(J7&gt;=57.5,J7&lt;=59.4),60,IF(OR(F7=0,G7=0),0,J7))))</f>
+        <v>94.799999999999983</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="2"/>
-        <v>91</v>
+        <f>ROUND(K7,0)</f>
+        <v>95</v>
       </c>
       <c r="M7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(L7&gt;=90, "A+", IF(L7&gt;=86, "A", IF(L7&gt;=80, "A-", IF(L7&gt;=77, "B+", IF(L7&gt;=73, "B", IF(L7&gt;=70, "B-", IF(L7&gt;=67, "C+", IF(L7&gt;=63, "C", IF(L7&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O7" s="2"/>
@@ -936,33 +936,33 @@
         <v>67</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> ROUND((B8 * 0.05 + C8 * 0.05 + D8 * 0.05 + E8*0.05 + F8 * 0.4 + G8 * 0.4), 2)</f>
         <v>67.400000000000006</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>88.039999999999992</v>
+        <f>H8 + (76.49 + 4.6 - $H$26)</f>
+        <v>92.199999999999989</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
-        <v>88.039999999999992</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I8 + (99.4 - MAX($I$2:$I$25)), I8)</f>
+        <v>92.199999999999989</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="5"/>
-        <v>88.039999999999992</v>
+        <f>IF(AND(OR(F8=100,G8=100),J8&gt;99.4),100,IF(AND(F8&lt;100,G8&lt;100,J8&gt;99.4),99.4,IF(AND(J8&gt;=57.5,J8&lt;=59.4),60,IF(OR(F8=0,G8=0),0,J8))))</f>
+        <v>92.199999999999989</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="2"/>
-        <v>88</v>
+        <f>ROUND(K8,0)</f>
+        <v>92</v>
       </c>
       <c r="M8" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
+        <f>IF(L8&gt;=90, "A+", IF(L8&gt;=86, "A", IF(L8&gt;=80, "A-", IF(L8&gt;=77, "B+", IF(L8&gt;=73, "B", IF(L8&gt;=70, "B-", IF(L8&gt;=67, "C+", IF(L8&gt;=63, "C", IF(L8&gt;=60, "C-", "F")))))))))</f>
+        <v>A+</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
+      <c r="A9" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>100</v>
@@ -977,41 +977,41 @@
         <v>100</v>
       </c>
       <c r="F9" s="1">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="4"/>
-        <v>59.6</v>
+        <f xml:space="preserve"> ROUND((B9 * 0.05 + C9 * 0.05 + D9 * 0.05 + E9*0.05 + F9 * 0.4 + G9 * 0.4), 2)</f>
+        <v>65.2</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>80.239999999999995</v>
+        <f>H9 + (76.49 + 4.6 - $H$26)</f>
+        <v>90</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
-        <v>80.239999999999995</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I9 + (99.4 - MAX($I$2:$I$25)), I9)</f>
+        <v>90</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="5"/>
-        <v>80.239999999999995</v>
+        <f>IF(AND(OR(F9=100,G9=100),J9&gt;99.4),100,IF(AND(F9&lt;100,G9&lt;100,J9&gt;99.4),99.4,IF(AND(J9&gt;=57.5,J9&lt;=59.4),60,IF(OR(F9=0,G9=0),0,J9))))</f>
+        <v>90</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f>ROUND(K9,0)</f>
+        <v>90</v>
       </c>
       <c r="M9" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>A-</v>
+        <f>IF(L9&gt;=90, "A+", IF(L9&gt;=86, "A", IF(L9&gt;=80, "A-", IF(L9&gt;=77, "B+", IF(L9&gt;=73, "B", IF(L9&gt;=70, "B-", IF(L9&gt;=67, "C+", IF(L9&gt;=63, "C", IF(L9&gt;=60, "C-", "F")))))))))</f>
+        <v>A+</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>100</v>
@@ -1026,40 +1026,40 @@
         <v>100</v>
       </c>
       <c r="F10" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1">
         <v>56</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="4"/>
-        <v>59.2</v>
+        <f xml:space="preserve"> ROUND((B10 * 0.05 + C10 * 0.05 + D10 * 0.05 + E10*0.05 + F10 * 0.4 + G10 * 0.4), 2)</f>
+        <v>59.6</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>79.84</v>
+        <f>H10 + (76.49 + 4.6 - $H$26)</f>
+        <v>84.399999999999991</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
-        <v>79.84</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I10 + (99.4 - MAX($I$2:$I$25)), I10)</f>
+        <v>84.399999999999991</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="5"/>
-        <v>79.84</v>
+        <f>IF(AND(OR(F10=100,G10=100),J10&gt;99.4),100,IF(AND(F10&lt;100,G10&lt;100,J10&gt;99.4),99.4,IF(AND(J10&gt;=57.5,J10&lt;=59.4),60,IF(OR(F10=0,G10=0),0,J10))))</f>
+        <v>84.399999999999991</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f>ROUND(K10,0)</f>
+        <v>84</v>
       </c>
       <c r="M10" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(L10&gt;=90, "A+", IF(L10&gt;=86, "A", IF(L10&gt;=80, "A-", IF(L10&gt;=77, "B+", IF(L10&gt;=73, "B", IF(L10&gt;=70, "B-", IF(L10&gt;=67, "C+", IF(L10&gt;=63, "C", IF(L10&gt;=60, "C-", "F")))))))))</f>
         <v>A-</v>
       </c>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>100</v>
@@ -1074,40 +1074,40 @@
         <v>100</v>
       </c>
       <c r="F11" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> ROUND((B11 * 0.05 + C11 * 0.05 + D11 * 0.05 + E11*0.05 + F11 * 0.4 + G11 * 0.4), 2)</f>
         <v>59.2</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>79.84</v>
+        <f>H11 + (76.49 + 4.6 - $H$26)</f>
+        <v>84</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
-        <v>79.84</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I11 + (99.4 - MAX($I$2:$I$25)), I11)</f>
+        <v>84</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="5"/>
-        <v>79.84</v>
+        <f>IF(AND(OR(F11=100,G11=100),J11&gt;99.4),100,IF(AND(F11&lt;100,G11&lt;100,J11&gt;99.4),99.4,IF(AND(J11&gt;=57.5,J11&lt;=59.4),60,IF(OR(F11=0,G11=0),0,J11))))</f>
+        <v>84</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f>ROUND(K11,0)</f>
+        <v>84</v>
       </c>
       <c r="M11" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(L11&gt;=90, "A+", IF(L11&gt;=86, "A", IF(L11&gt;=80, "A-", IF(L11&gt;=77, "B+", IF(L11&gt;=73, "B", IF(L11&gt;=70, "B-", IF(L11&gt;=67, "C+", IF(L11&gt;=63, "C", IF(L11&gt;=60, "C-", "F")))))))))</f>
         <v>A-</v>
       </c>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>100</v>
@@ -1122,34 +1122,34 @@
         <v>100</v>
       </c>
       <c r="F12" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="4"/>
-        <v>56</v>
+        <f xml:space="preserve"> ROUND((B12 * 0.05 + C12 * 0.05 + D12 * 0.05 + E12*0.05 + F12 * 0.4 + G12 * 0.4), 2)</f>
+        <v>59.2</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
-        <v>76.639999999999986</v>
+        <f>H12 + (76.49 + 4.6 - $H$26)</f>
+        <v>84</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
-        <v>76.639999999999986</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I12 + (99.4 - MAX($I$2:$I$25)), I12)</f>
+        <v>84</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="5"/>
-        <v>76.639999999999986</v>
+        <f>IF(AND(OR(F12=100,G12=100),J12&gt;99.4),100,IF(AND(F12&lt;100,G12&lt;100,J12&gt;99.4),99.4,IF(AND(J12&gt;=57.5,J12&lt;=59.4),60,IF(OR(F12=0,G12=0),0,J12))))</f>
+        <v>84</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="2"/>
-        <v>77</v>
+        <f>ROUND(K12,0)</f>
+        <v>84</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>B+</v>
+        <f>IF(L12&gt;=90, "A+", IF(L12&gt;=86, "A", IF(L12&gt;=80, "A-", IF(L12&gt;=77, "B+", IF(L12&gt;=73, "B", IF(L12&gt;=70, "B-", IF(L12&gt;=67, "C+", IF(L12&gt;=63, "C", IF(L12&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
       </c>
       <c r="O12" s="2"/>
     </row>
@@ -1176,130 +1176,130 @@
         <v>50</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> ROUND((B13 * 0.05 + C13 * 0.05 + D13 * 0.05 + E13*0.05 + F13 * 0.4 + G13 * 0.4), 2)</f>
         <v>58.7</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>79.34</v>
+        <f>H13 + (76.49 + 4.6 - $H$26)</f>
+        <v>83.5</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
-        <v>79.34</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I13 + (99.4 - MAX($I$2:$I$25)), I13)</f>
+        <v>83.5</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="5"/>
-        <v>79.34</v>
+        <f>IF(AND(OR(F13=100,G13=100),J13&gt;99.4),100,IF(AND(F13&lt;100,G13&lt;100,J13&gt;99.4),99.4,IF(AND(J13&gt;=57.5,J13&lt;=59.4),60,IF(OR(F13=0,G13=0),0,J13))))</f>
+        <v>83.5</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="2"/>
-        <v>79</v>
+        <f>ROUND(K13,0)</f>
+        <v>84</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>B+</v>
+        <f>IF(L13&gt;=90, "A+", IF(L13&gt;=86, "A", IF(L13&gt;=80, "A-", IF(L13&gt;=77, "B+", IF(L13&gt;=73, "B", IF(L13&gt;=70, "B-", IF(L13&gt;=67, "C+", IF(L13&gt;=63, "C", IF(L13&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
       </c>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
         <v>100</v>
       </c>
       <c r="C14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
         <v>100</v>
       </c>
       <c r="F14" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G14" s="1">
         <v>53</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="4"/>
-        <v>56.7</v>
+        <f xml:space="preserve"> ROUND((B14 * 0.05 + C14 * 0.05 + D14 * 0.05 + E14*0.05 + F14 * 0.4 + G14 * 0.4), 2)</f>
+        <v>58.2</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>77.34</v>
+        <f>H14 + (76.49 + 4.6 - $H$26)</f>
+        <v>83</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
-        <v>77.34</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I14 + (99.4 - MAX($I$2:$I$25)), I14)</f>
+        <v>83</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="5"/>
-        <v>77.34</v>
+        <f>IF(AND(OR(F14=100,G14=100),J14&gt;99.4),100,IF(AND(F14&lt;100,G14&lt;100,J14&gt;99.4),99.4,IF(AND(J14&gt;=57.5,J14&lt;=59.4),60,IF(OR(F14=0,G14=0),0,J14))))</f>
+        <v>83</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="2"/>
-        <v>77</v>
+        <f>ROUND(K14,0)</f>
+        <v>83</v>
       </c>
       <c r="M14" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>B+</v>
+        <f>IF(L14&gt;=90, "A+", IF(L14&gt;=86, "A", IF(L14&gt;=80, "A-", IF(L14&gt;=77, "B+", IF(L14&gt;=73, "B", IF(L14&gt;=70, "B-", IF(L14&gt;=67, "C+", IF(L14&gt;=63, "C", IF(L14&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
       </c>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>100</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
       </c>
       <c r="F15" s="1">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G15" s="1">
         <v>53</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="4"/>
-        <v>58.2</v>
+        <f xml:space="preserve"> ROUND((B15 * 0.05 + C15 * 0.05 + D15 * 0.05 + E15*0.05 + F15 * 0.4 + G15 * 0.4), 2)</f>
+        <v>56.7</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>78.84</v>
+        <f>H15 + (76.49 + 4.6 - $H$26)</f>
+        <v>81.5</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
-        <v>78.84</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I15 + (99.4 - MAX($I$2:$I$25)), I15)</f>
+        <v>81.5</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="5"/>
-        <v>78.84</v>
+        <f>IF(AND(OR(F15=100,G15=100),J15&gt;99.4),100,IF(AND(F15&lt;100,G15&lt;100,J15&gt;99.4),99.4,IF(AND(J15&gt;=57.5,J15&lt;=59.4),60,IF(OR(F15=0,G15=0),0,J15))))</f>
+        <v>81.5</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="2"/>
-        <v>79</v>
+        <f>ROUND(K15,0)</f>
+        <v>82</v>
       </c>
       <c r="M15" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>B+</v>
+        <f>IF(L15&gt;=90, "A+", IF(L15&gt;=86, "A", IF(L15&gt;=80, "A-", IF(L15&gt;=77, "B+", IF(L15&gt;=73, "B", IF(L15&gt;=70, "B-", IF(L15&gt;=67, "C+", IF(L15&gt;=63, "C", IF(L15&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
       </c>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
         <v>100</v>
@@ -1314,40 +1314,40 @@
         <v>100</v>
       </c>
       <c r="F16" s="1">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="4"/>
-        <v>51.6</v>
+        <f xml:space="preserve"> ROUND((B16 * 0.05 + C16 * 0.05 + D16 * 0.05 + E16*0.05 + F16 * 0.4 + G16 * 0.4), 2)</f>
+        <v>56</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="0"/>
-        <v>72.239999999999995</v>
+        <f>H16 + (76.49 + 4.6 - $H$26)</f>
+        <v>80.799999999999983</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
-        <v>72.239999999999995</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I16 + (99.4 - MAX($I$2:$I$25)), I16)</f>
+        <v>80.799999999999983</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="5"/>
-        <v>72.239999999999995</v>
+        <f>IF(AND(OR(F16=100,G16=100),J16&gt;99.4),100,IF(AND(F16&lt;100,G16&lt;100,J16&gt;99.4),99.4,IF(AND(J16&gt;=57.5,J16&lt;=59.4),60,IF(OR(F16=0,G16=0),0,J16))))</f>
+        <v>80.799999999999983</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="2"/>
-        <v>72</v>
+        <f>ROUND(K16,0)</f>
+        <v>81</v>
       </c>
       <c r="M16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>B-</v>
+        <f>IF(L16&gt;=90, "A+", IF(L16&gt;=86, "A", IF(L16&gt;=80, "A-", IF(L16&gt;=77, "B+", IF(L16&gt;=73, "B", IF(L16&gt;=70, "B-", IF(L16&gt;=67, "C+", IF(L16&gt;=63, "C", IF(L16&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
       </c>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <v>100</v>
@@ -1362,40 +1362,40 @@
         <v>100</v>
       </c>
       <c r="F17" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="4"/>
-        <v>48</v>
+        <f xml:space="preserve"> ROUND((B17 * 0.05 + C17 * 0.05 + D17 * 0.05 + E17*0.05 + F17 * 0.4 + G17 * 0.4), 2)</f>
+        <v>51.6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="0"/>
-        <v>68.639999999999986</v>
+        <f>H17 + (76.49 + 4.6 - $H$26)</f>
+        <v>76.399999999999991</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
-        <v>68.639999999999986</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I17 + (99.4 - MAX($I$2:$I$25)), I17)</f>
+        <v>76.399999999999991</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="5"/>
-        <v>68.639999999999986</v>
+        <f>IF(AND(OR(F17=100,G17=100),J17&gt;99.4),100,IF(AND(F17&lt;100,G17&lt;100,J17&gt;99.4),99.4,IF(AND(J17&gt;=57.5,J17&lt;=59.4),60,IF(OR(F17=0,G17=0),0,J17))))</f>
+        <v>76.399999999999991</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="2"/>
-        <v>69</v>
+        <f>ROUND(K17,0)</f>
+        <v>76</v>
       </c>
       <c r="M17" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>C+</v>
+        <f>IF(L17&gt;=90, "A+", IF(L17&gt;=86, "A", IF(L17&gt;=80, "A-", IF(L17&gt;=77, "B+", IF(L17&gt;=73, "B", IF(L17&gt;=70, "B-", IF(L17&gt;=67, "C+", IF(L17&gt;=63, "C", IF(L17&gt;=60, "C-", "F")))))))))</f>
+        <v>B</v>
       </c>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>100</v>
@@ -1404,46 +1404,46 @@
         <v>100</v>
       </c>
       <c r="D18" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>100</v>
       </c>
       <c r="F18" s="1">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G18" s="1">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="4"/>
-        <v>47.2</v>
+        <f xml:space="preserve"> ROUND((B18 * 0.05 + C18 * 0.05 + D18 * 0.05 + E18*0.05 + F18 * 0.4 + G18 * 0.4), 2)</f>
+        <v>51.4</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="0"/>
-        <v>67.84</v>
+        <f>H18 + (76.49 + 4.6 - $H$26)</f>
+        <v>76.199999999999989</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="1"/>
-        <v>67.84</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I18 + (99.4 - MAX($I$2:$I$25)), I18)</f>
+        <v>76.199999999999989</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="5"/>
-        <v>67.84</v>
+        <f>IF(AND(OR(F18=100,G18=100),J18&gt;99.4),100,IF(AND(F18&lt;100,G18&lt;100,J18&gt;99.4),99.4,IF(AND(J18&gt;=57.5,J18&lt;=59.4),60,IF(OR(F18=0,G18=0),0,J18))))</f>
+        <v>76.199999999999989</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="2"/>
-        <v>68</v>
+        <f>ROUND(K18,0)</f>
+        <v>76</v>
       </c>
       <c r="M18" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>C+</v>
+        <f>IF(L18&gt;=90, "A+", IF(L18&gt;=86, "A", IF(L18&gt;=80, "A-", IF(L18&gt;=77, "B+", IF(L18&gt;=73, "B", IF(L18&gt;=70, "B-", IF(L18&gt;=67, "C+", IF(L18&gt;=63, "C", IF(L18&gt;=60, "C-", "F")))))))))</f>
+        <v>B</v>
       </c>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
+      <c r="A19" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>100</v>
@@ -1458,40 +1458,40 @@
         <v>100</v>
       </c>
       <c r="F19" s="1">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="G19" s="1">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="4"/>
-        <v>65.2</v>
+        <f xml:space="preserve"> ROUND((B19 * 0.05 + C19 * 0.05 + D19 * 0.05 + E19*0.05 + F19 * 0.4 + G19 * 0.4), 2)</f>
+        <v>48</v>
       </c>
       <c r="I19" s="1">
-        <f>H19</f>
-        <v>65.2</v>
+        <f>H19 + (76.49 + 4.6 - $H$26)</f>
+        <v>72.799999999999983</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="1"/>
-        <v>65.2</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I19 + (99.4 - MAX($I$2:$I$25)), I19)</f>
+        <v>72.799999999999983</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="5"/>
-        <v>65.2</v>
+        <f>IF(AND(OR(F19=100,G19=100),J19&gt;99.4),100,IF(AND(F19&lt;100,G19&lt;100,J19&gt;99.4),99.4,IF(AND(J19&gt;=57.5,J19&lt;=59.4),60,IF(OR(F19=0,G19=0),0,J19))))</f>
+        <v>72.799999999999983</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="2"/>
-        <v>65</v>
+        <f>ROUND(K19,0)</f>
+        <v>73</v>
       </c>
       <c r="M19" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>C</v>
+        <f>IF(L19&gt;=90, "A+", IF(L19&gt;=86, "A", IF(L19&gt;=80, "A-", IF(L19&gt;=77, "B+", IF(L19&gt;=73, "B", IF(L19&gt;=70, "B-", IF(L19&gt;=67, "C+", IF(L19&gt;=63, "C", IF(L19&gt;=60, "C-", "F")))))))))</f>
+        <v>B</v>
       </c>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1">
         <v>100</v>
@@ -1500,39 +1500,39 @@
         <v>100</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
       </c>
       <c r="F20" s="1">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G20" s="1">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="4"/>
-        <v>51.4</v>
+        <f xml:space="preserve"> ROUND((B20 * 0.05 + C20 * 0.05 + D20 * 0.05 + E20*0.05 + F20 * 0.4 + G20 * 0.4), 2)</f>
+        <v>47.2</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ref="I20:I25" si="6">H20 + (76.49 - $H$26)</f>
-        <v>72.039999999999992</v>
+        <f>H20 + (76.49 + 4.6 - $H$26)</f>
+        <v>72</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="1"/>
-        <v>72.039999999999992</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I20 + (99.4 - MAX($I$2:$I$25)), I20)</f>
+        <v>72</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="5"/>
-        <v>72.039999999999992</v>
+        <f>IF(AND(OR(F20=100,G20=100),J20&gt;99.4),100,IF(AND(F20&lt;100,G20&lt;100,J20&gt;99.4),99.4,IF(AND(J20&gt;=57.5,J20&lt;=59.4),60,IF(OR(F20=0,G20=0),0,J20))))</f>
+        <v>72</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(K20,0)</f>
         <v>72</v>
       </c>
       <c r="M20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(L20&gt;=90, "A+", IF(L20&gt;=86, "A", IF(L20&gt;=80, "A-", IF(L20&gt;=77, "B+", IF(L20&gt;=73, "B", IF(L20&gt;=70, "B-", IF(L20&gt;=67, "C+", IF(L20&gt;=63, "C", IF(L20&gt;=60, "C-", "F")))))))))</f>
         <v>B-</v>
       </c>
     </row>
@@ -1559,33 +1559,33 @@
         <v>36</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> ROUND((B21 * 0.05 + C21 * 0.05 + D21 * 0.05 + E21*0.05 + F21 * 0.4 + G21 * 0.4), 2)</f>
         <v>42.6</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="6"/>
-        <v>63.239999999999995</v>
+        <f>H21 + (76.49 + 4.6 - $H$26)</f>
+        <v>67.399999999999991</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="1"/>
-        <v>63.239999999999995</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I21 + (99.4 - MAX($I$2:$I$25)), I21)</f>
+        <v>67.399999999999991</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="5"/>
-        <v>63.239999999999995</v>
+        <f>IF(AND(OR(F21=100,G21=100),J21&gt;99.4),100,IF(AND(F21&lt;100,G21&lt;100,J21&gt;99.4),99.4,IF(AND(J21&gt;=57.5,J21&lt;=59.4),60,IF(OR(F21=0,G21=0),0,J21))))</f>
+        <v>67.399999999999991</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="2"/>
-        <v>63</v>
+        <f>ROUND(K21,0)</f>
+        <v>67</v>
       </c>
       <c r="M21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>C</v>
+        <f>IF(L21&gt;=90, "A+", IF(L21&gt;=86, "A", IF(L21&gt;=80, "A-", IF(L21&gt;=77, "B+", IF(L21&gt;=73, "B", IF(L21&gt;=70, "B-", IF(L21&gt;=67, "C+", IF(L21&gt;=63, "C", IF(L21&gt;=60, "C-", "F")))))))))</f>
+        <v>C+</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>100</v>
@@ -1600,128 +1600,128 @@
         <v>100</v>
       </c>
       <c r="F22" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="4"/>
-        <v>35.200000000000003</v>
+        <f xml:space="preserve"> ROUND((B22 * 0.05 + C22 * 0.05 + D22 * 0.05 + E22*0.05 + F22 * 0.4 + G22 * 0.4), 2)</f>
+        <v>35.6</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="6"/>
-        <v>55.839999999999996</v>
+        <f>H22 + (76.49 + 4.6 - $H$26)</f>
+        <v>60.399999999999991</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="1"/>
-        <v>55.839999999999996</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I22 + (99.4 - MAX($I$2:$I$25)), I22)</f>
+        <v>60.399999999999991</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(AND(OR(F22=100,G22=100),J22&gt;99.4),100,IF(AND(F22&lt;100,G22&lt;100,J22&gt;99.4),99.4,IF(AND(J22&gt;=57.5,J22&lt;=59.4),60,IF(OR(F22=0,G22=0),0,J22))))</f>
+        <v>60.399999999999991</v>
+      </c>
+      <c r="L22" s="1">
+        <f>ROUND(K22,0)</f>
         <v>60</v>
       </c>
-      <c r="L22" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
       <c r="M22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(L22&gt;=90, "A+", IF(L22&gt;=86, "A", IF(L22&gt;=80, "A-", IF(L22&gt;=77, "B+", IF(L22&gt;=73, "B", IF(L22&gt;=70, "B-", IF(L22&gt;=67, "C+", IF(L22&gt;=63, "C", IF(L22&gt;=60, "C-", "F")))))))))</f>
         <v>C-</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>100</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1">
         <v>100</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G23" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="4"/>
-        <v>30.4</v>
+        <f xml:space="preserve"> ROUND((B23 * 0.05 + C23 * 0.05 + D23 * 0.05 + E23*0.05 + F23 * 0.4 + G23 * 0.4), 2)</f>
+        <v>35.200000000000003</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="6"/>
-        <v>51.039999999999992</v>
+        <f>H23 + (76.49 + 4.6 - $H$26)</f>
+        <v>59.999999999999993</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="1"/>
-        <v>51.039999999999992</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I23 + (99.4 - MAX($I$2:$I$25)), I23)</f>
+        <v>59.999999999999993</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="5"/>
-        <v>51.039999999999992</v>
+        <f>IF(AND(OR(F23=100,G23=100),J23&gt;99.4),100,IF(AND(F23&lt;100,G23&lt;100,J23&gt;99.4),99.4,IF(AND(J23&gt;=57.5,J23&lt;=59.4),60,IF(OR(F23=0,G23=0),0,J23))))</f>
+        <v>59.999999999999993</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="2"/>
-        <v>51</v>
+        <f>ROUND(K23,0)</f>
+        <v>60</v>
       </c>
       <c r="M23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
+        <f>IF(L23&gt;=90, "A+", IF(L23&gt;=86, "A", IF(L23&gt;=80, "A-", IF(L23&gt;=77, "B+", IF(L23&gt;=73, "B", IF(L23&gt;=70, "B-", IF(L23&gt;=67, "C+", IF(L23&gt;=63, "C", IF(L23&gt;=60, "C-", "F")))))))))</f>
+        <v>C-</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1">
         <v>100</v>
       </c>
       <c r="C24" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>100</v>
       </c>
       <c r="E24" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F24" s="1">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G24" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="4"/>
-        <v>27.6</v>
+        <f xml:space="preserve"> ROUND((B24 * 0.05 + C24 * 0.05 + D24 * 0.05 + E24*0.05 + F24 * 0.4 + G24 * 0.4), 2)</f>
+        <v>32.9</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="6"/>
-        <v>48.239999999999995</v>
+        <f>H24 + (76.49 + 4.6 - $H$26)</f>
+        <v>57.699999999999989</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="1"/>
-        <v>48.239999999999995</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I24 + (99.4 - MAX($I$2:$I$25)), I24)</f>
+        <v>57.699999999999989</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="5"/>
-        <v>48.239999999999995</v>
+        <f>IF(AND(OR(F24=100,G24=100),J24&gt;99.4),100,IF(AND(F24&lt;100,G24&lt;100,J24&gt;99.4),99.4,IF(AND(J24&gt;=57.5,J24&lt;=59.4),60,IF(OR(F24=0,G24=0),0,J24))))</f>
+        <v>60</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <f>ROUND(K24,0)</f>
+        <v>60</v>
       </c>
       <c r="M24" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
+        <f>IF(L24&gt;=90, "A+", IF(L24&gt;=86, "A", IF(L24&gt;=80, "A-", IF(L24&gt;=77, "B+", IF(L24&gt;=73, "B", IF(L24&gt;=70, "B-", IF(L24&gt;=67, "C+", IF(L24&gt;=63, "C", IF(L24&gt;=60, "C-", "F")))))))))</f>
+        <v>C-</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1747,27 +1747,27 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25" si="7" xml:space="preserve"> ROUND((B25 * 0.05 + C25 * 0.05 + D25 * 0.05 + E25*0.05 + F25 * 0.35 + G25 * 0.35), 2)</f>
+        <f xml:space="preserve"> ROUND((B25 * 0.05 + C25 * 0.05 + D25 * 0.05 + E25*0.05 + F25 * 0.35 + G25 * 0.35), 2)</f>
         <v>15</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="6"/>
-        <v>35.639999999999993</v>
+        <f>H25 + (76.49 + 4.6 - $H$26)</f>
+        <v>39.79999999999999</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="1"/>
-        <v>35.639999999999993</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I25 + (99.4 - MAX($I$2:$I$25)), I25)</f>
+        <v>39.79999999999999</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="5"/>
+        <f>IF(AND(OR(F25=100,G25=100),J25&gt;99.4),100,IF(AND(F25&lt;100,G25&lt;100,J25&gt;99.4),99.4,IF(AND(J25&gt;=57.5,J25&lt;=59.4),60,IF(OR(F25=0,G25=0),0,J25))))</f>
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(K25,0)</f>
         <v>0</v>
       </c>
       <c r="M25" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(L25&gt;=90, "A+", IF(L25&gt;=86, "A", IF(L25&gt;=80, "A-", IF(L25&gt;=77, "B+", IF(L25&gt;=73, "B", IF(L25&gt;=70, "B-", IF(L25&gt;=67, "C+", IF(L25&gt;=63, "C", IF(L25&gt;=60, "C-", "F")))))))))</f>
         <v>F</v>
       </c>
     </row>
@@ -1776,56 +1776,56 @@
         <v>13</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ref="B26:E26" si="8">ROUND(AVERAGE(B2:B25),2)</f>
+        <f t="shared" ref="B26:E26" si="0">ROUND(AVERAGE(B2:B25),2)</f>
         <v>87.5</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>89.58</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>93.75</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="8"/>
-        <v>95.83</v>
+        <f t="shared" si="0"/>
+        <v>97.92</v>
       </c>
       <c r="F26" s="1">
         <f>ROUND(AVERAGE(F2:F25),2)</f>
-        <v>43.71</v>
+        <v>44.13</v>
       </c>
       <c r="G26" s="1">
         <f>ROUND(AVERAGE(G2:G25),2)</f>
-        <v>50.08</v>
+        <v>50.5</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26:K26" si="9">ROUND(AVERAGE(H2:H25),2)</f>
-        <v>55.85</v>
+        <f t="shared" ref="H26:K26" si="1">ROUND(AVERAGE(H2:H25),2)</f>
+        <v>56.29</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="9"/>
-        <v>75.63</v>
+        <f t="shared" si="1"/>
+        <v>81.09</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="9"/>
-        <v>75.63</v>
+        <f t="shared" si="1"/>
+        <v>81.09</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="9"/>
-        <v>74.27</v>
+        <f t="shared" si="1"/>
+        <v>79.06</v>
       </c>
       <c r="L26" s="1">
         <f>ROUND(AVERAGE(L2:L25),2)</f>
-        <v>74.209999999999994</v>
+        <v>78.959999999999994</v>
       </c>
       <c r="M26" s="1" t="str">
-        <f t="shared" ref="M26" si="10">IF(L26&gt;=90, "A+", IF(L26&gt;=86, "A", IF(L26&gt;=80, "A-", IF(L26&gt;=77, "B+", IF(L26&gt;=73, "B", IF(L26&gt;=70, "B-", IF(L26&gt;=67, "C+", IF(L26&gt;=63, "C", IF(L26&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <f t="shared" ref="M26" si="2">IF(L26&gt;=90, "A+", IF(L26&gt;=86, "A", IF(L26&gt;=80, "A-", IF(L26&gt;=77, "B+", IF(L26&gt;=73, "B", IF(L26&gt;=70, "B-", IF(L26&gt;=67, "C+", IF(L26&gt;=63, "C", IF(L26&gt;=60, "C-", "F")))))))))</f>
+        <v>B+</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M25">
     <sortCondition descending="1" ref="H2:H25"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E5D2E7-9E0A-2A49-BD88-BDD5666A928A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10002"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -180,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -568,21 +567,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="8.77734375" style="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="16.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,30 +644,30 @@
         <v>78</v>
       </c>
       <c r="G2" s="1">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H2" s="1">
-        <f xml:space="preserve"> ROUND((B2 * 0.05 + C2 * 0.05 + D2 * 0.05 + E2*0.05 + F2 * 0.4 + G2 * 0.4), 2)</f>
-        <v>80</v>
+        <f t="shared" ref="H2:H24" si="0" xml:space="preserve"> ROUND((B2 * 0.05 + C2 * 0.05 + D2 * 0.05 + E2*0.05 + F2 * 0.4 + G2 * 0.4), 2)</f>
+        <v>86</v>
       </c>
       <c r="I2" s="1">
-        <f>H2 + (76.49 + 4.6 - $H$26)</f>
-        <v>104.79999999999998</v>
+        <f>H2 + (IF($H$26 &lt; 76.49, 76.49, $H$26) - $H$26)</f>
+        <v>105.94999999999999</v>
       </c>
       <c r="J2" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I2 + (99.4 - MAX($I$2:$I$25)), I2)</f>
-        <v>104.79999999999998</v>
+        <f>IF(MAX($I$2:$I$25) &lt; 99.49, I2 + (99.4 - MAX($I$2:$I$25)), I2)</f>
+        <v>105.94999999999999</v>
       </c>
       <c r="K2" s="1">
-        <f>IF(AND(OR(F2=100,G2=100),J2&gt;99.4),100,IF(AND(F2&lt;100,G2&lt;100,J2&gt;99.4),99.4,IF(AND(J2&gt;=57.5,J2&lt;=59.4),60,IF(OR(F2=0,G2=0),0,J2))))</f>
-        <v>99.4</v>
+        <f>IF(AND(OR(F2=100,G2=100),J2&gt;99.49),100,IF(AND(F2&lt;100,G2&lt;100,J2&gt;99.49),99.49,IF(AND(J2&gt;=53.5,J2&lt;=59.4),60,IF(OR(F2=0,G2=0),0,J2))))</f>
+        <v>99.49</v>
       </c>
       <c r="L2" s="1">
-        <f>ROUND(K2,0)</f>
+        <f t="shared" ref="L2:L25" si="1">ROUND(K2,0)</f>
         <v>99</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f>IF(L2&gt;=90, "A+", IF(L2&gt;=86, "A", IF(L2&gt;=80, "A-", IF(L2&gt;=77, "B+", IF(L2&gt;=73, "B", IF(L2&gt;=70, "B-", IF(L2&gt;=67, "C+", IF(L2&gt;=63, "C", IF(L2&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" ref="M2:M25" si="2">IF(L2&gt;=90, "A+", IF(L2&gt;=86, "A", IF(L2&gt;=80, "A-", IF(L2&gt;=77, "B+", IF(L2&gt;=73, "B", IF(L2&gt;=70, "B-", IF(L2&gt;=67, "C+", IF(L2&gt;=63, "C", IF(L2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O2" s="2"/>
@@ -696,27 +695,27 @@
         <v>72</v>
       </c>
       <c r="H3" s="1">
-        <f xml:space="preserve"> ROUND((B3 * 0.05 + C3 * 0.05 + D3 * 0.05 + E3*0.05 + F3 * 0.4 + G3 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>78.400000000000006</v>
       </c>
       <c r="I3" s="1">
-        <f>H3 + (76.49 + 4.6 - $H$26)</f>
-        <v>103.19999999999999</v>
+        <f t="shared" ref="I3:I25" si="3">H3 + (76.49 + 1 - $H$26)</f>
+        <v>99.35</v>
       </c>
       <c r="J3" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I3 + (99.4 - MAX($I$2:$I$25)), I3)</f>
-        <v>103.19999999999999</v>
+        <f t="shared" ref="J3:J25" si="4">IF(MAX($I$2:$I$25) &lt; 99.49, I3 + (99.4 - MAX($I$2:$I$25)), I3)</f>
+        <v>99.35</v>
       </c>
       <c r="K3" s="1">
-        <f>IF(AND(OR(F3=100,G3=100),J3&gt;99.4),100,IF(AND(F3&lt;100,G3&lt;100,J3&gt;99.4),99.4,IF(AND(J3&gt;=57.5,J3&lt;=59.4),60,IF(OR(F3=0,G3=0),0,J3))))</f>
-        <v>99.4</v>
+        <f t="shared" ref="K3:K25" si="5">IF(AND(OR(F3=100,G3=100),J3&gt;99.49),100,IF(AND(F3&lt;100,G3&lt;100,J3&gt;99.49),99.49,IF(AND(J3&gt;=53.5,J3&lt;=59.4),60,IF(OR(F3=0,G3=0),0,J3))))</f>
+        <v>99.35</v>
       </c>
       <c r="L3" s="1">
-        <f>ROUND(K3,0)</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="M3" s="1" t="str">
-        <f>IF(L3&gt;=90, "A+", IF(L3&gt;=86, "A", IF(L3&gt;=80, "A-", IF(L3&gt;=77, "B+", IF(L3&gt;=73, "B", IF(L3&gt;=70, "B-", IF(L3&gt;=67, "C+", IF(L3&gt;=63, "C", IF(L3&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
         <v>A+</v>
       </c>
       <c r="O3" s="2"/>
@@ -744,27 +743,27 @@
         <v>87</v>
       </c>
       <c r="H4" s="1">
-        <f xml:space="preserve"> ROUND((B4 * 0.05 + C4 * 0.05 + D4 * 0.05 + E4*0.05 + F4 * 0.4 + G4 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>76.400000000000006</v>
       </c>
       <c r="I4" s="1">
-        <f>H4 + (76.49 + 4.6 - $H$26)</f>
-        <v>101.19999999999999</v>
+        <f t="shared" si="3"/>
+        <v>97.35</v>
       </c>
       <c r="J4" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I4 + (99.4 - MAX($I$2:$I$25)), I4)</f>
-        <v>101.19999999999999</v>
+        <f t="shared" si="4"/>
+        <v>97.35</v>
       </c>
       <c r="K4" s="1">
-        <f>IF(AND(OR(F4=100,G4=100),J4&gt;99.4),100,IF(AND(F4&lt;100,G4&lt;100,J4&gt;99.4),99.4,IF(AND(J4&gt;=57.5,J4&lt;=59.4),60,IF(OR(F4=0,G4=0),0,J4))))</f>
-        <v>99.4</v>
+        <f t="shared" si="5"/>
+        <v>97.35</v>
       </c>
       <c r="L4" s="1">
-        <f>ROUND(K4,0)</f>
-        <v>99</v>
+        <f t="shared" si="1"/>
+        <v>97</v>
       </c>
       <c r="M4" s="1" t="str">
-        <f>IF(L4&gt;=90, "A+", IF(L4&gt;=86, "A", IF(L4&gt;=80, "A-", IF(L4&gt;=77, "B+", IF(L4&gt;=73, "B", IF(L4&gt;=70, "B-", IF(L4&gt;=67, "C+", IF(L4&gt;=63, "C", IF(L4&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
         <v>A+</v>
       </c>
       <c r="O4" s="2"/>
@@ -792,27 +791,27 @@
         <v>72</v>
       </c>
       <c r="H5" s="1">
-        <f xml:space="preserve"> ROUND((B5 * 0.05 + C5 * 0.05 + D5 * 0.05 + E5*0.05 + F5 * 0.4 + G5 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>74.8</v>
       </c>
       <c r="I5" s="1">
-        <f>H5 + (76.49 + 4.6 - $H$26)</f>
-        <v>99.6</v>
+        <f t="shared" si="3"/>
+        <v>95.75</v>
       </c>
       <c r="J5" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I5 + (99.4 - MAX($I$2:$I$25)), I5)</f>
-        <v>99.6</v>
+        <f t="shared" si="4"/>
+        <v>95.75</v>
       </c>
       <c r="K5" s="1">
-        <f>IF(AND(OR(F5=100,G5=100),J5&gt;99.4),100,IF(AND(F5&lt;100,G5&lt;100,J5&gt;99.4),99.4,IF(AND(J5&gt;=57.5,J5&lt;=59.4),60,IF(OR(F5=0,G5=0),0,J5))))</f>
-        <v>99.4</v>
+        <f t="shared" si="5"/>
+        <v>95.75</v>
       </c>
       <c r="L5" s="1">
-        <f>ROUND(K5,0)</f>
-        <v>99</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f>IF(L5&gt;=90, "A+", IF(L5&gt;=86, "A", IF(L5&gt;=80, "A-", IF(L5&gt;=77, "B+", IF(L5&gt;=73, "B", IF(L5&gt;=70, "B-", IF(L5&gt;=67, "C+", IF(L5&gt;=63, "C", IF(L5&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
         <v>A+</v>
       </c>
       <c r="O5" s="2"/>
@@ -840,27 +839,27 @@
         <v>67</v>
       </c>
       <c r="H6" s="1">
-        <f xml:space="preserve"> ROUND((B6 * 0.05 + C6 * 0.05 + D6 * 0.05 + E6*0.05 + F6 * 0.4 + G6 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>71.599999999999994</v>
       </c>
       <c r="I6" s="1">
-        <f>H6 + (76.49 + 4.6 - $H$26)</f>
-        <v>96.399999999999977</v>
+        <f t="shared" si="3"/>
+        <v>92.549999999999983</v>
       </c>
       <c r="J6" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I6 + (99.4 - MAX($I$2:$I$25)), I6)</f>
-        <v>96.399999999999977</v>
+        <f t="shared" si="4"/>
+        <v>92.549999999999983</v>
       </c>
       <c r="K6" s="1">
-        <f>IF(AND(OR(F6=100,G6=100),J6&gt;99.4),100,IF(AND(F6&lt;100,G6&lt;100,J6&gt;99.4),99.4,IF(AND(J6&gt;=57.5,J6&lt;=59.4),60,IF(OR(F6=0,G6=0),0,J6))))</f>
-        <v>96.399999999999977</v>
+        <f t="shared" si="5"/>
+        <v>92.549999999999983</v>
       </c>
       <c r="L6" s="1">
-        <f>ROUND(K6,0)</f>
-        <v>96</v>
+        <f t="shared" si="1"/>
+        <v>93</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f>IF(L6&gt;=90, "A+", IF(L6&gt;=86, "A", IF(L6&gt;=80, "A-", IF(L6&gt;=77, "B+", IF(L6&gt;=73, "B", IF(L6&gt;=70, "B-", IF(L6&gt;=67, "C+", IF(L6&gt;=63, "C", IF(L6&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
         <v>A+</v>
       </c>
       <c r="O6" s="2"/>
@@ -888,27 +887,27 @@
         <v>72</v>
       </c>
       <c r="H7" s="1">
-        <f xml:space="preserve"> ROUND((B7 * 0.05 + C7 * 0.05 + D7 * 0.05 + E7*0.05 + F7 * 0.4 + G7 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="I7" s="1">
-        <f>H7 + (76.49 + 4.6 - $H$26)</f>
-        <v>94.799999999999983</v>
+        <f t="shared" si="3"/>
+        <v>90.949999999999989</v>
       </c>
       <c r="J7" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I7 + (99.4 - MAX($I$2:$I$25)), I7)</f>
-        <v>94.799999999999983</v>
+        <f t="shared" si="4"/>
+        <v>90.949999999999989</v>
       </c>
       <c r="K7" s="1">
-        <f>IF(AND(OR(F7=100,G7=100),J7&gt;99.4),100,IF(AND(F7&lt;100,G7&lt;100,J7&gt;99.4),99.4,IF(AND(J7&gt;=57.5,J7&lt;=59.4),60,IF(OR(F7=0,G7=0),0,J7))))</f>
-        <v>94.799999999999983</v>
+        <f t="shared" si="5"/>
+        <v>90.949999999999989</v>
       </c>
       <c r="L7" s="1">
-        <f>ROUND(K7,0)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>91</v>
       </c>
       <c r="M7" s="1" t="str">
-        <f>IF(L7&gt;=90, "A+", IF(L7&gt;=86, "A", IF(L7&gt;=80, "A-", IF(L7&gt;=77, "B+", IF(L7&gt;=73, "B", IF(L7&gt;=70, "B-", IF(L7&gt;=67, "C+", IF(L7&gt;=63, "C", IF(L7&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
         <v>A+</v>
       </c>
       <c r="O7" s="2"/>
@@ -936,31 +935,31 @@
         <v>67</v>
       </c>
       <c r="H8" s="1">
-        <f xml:space="preserve"> ROUND((B8 * 0.05 + C8 * 0.05 + D8 * 0.05 + E8*0.05 + F8 * 0.4 + G8 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>67.400000000000006</v>
       </c>
       <c r="I8" s="1">
-        <f>H8 + (76.49 + 4.6 - $H$26)</f>
-        <v>92.199999999999989</v>
+        <f t="shared" si="3"/>
+        <v>88.35</v>
       </c>
       <c r="J8" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I8 + (99.4 - MAX($I$2:$I$25)), I8)</f>
-        <v>92.199999999999989</v>
+        <f t="shared" si="4"/>
+        <v>88.35</v>
       </c>
       <c r="K8" s="1">
-        <f>IF(AND(OR(F8=100,G8=100),J8&gt;99.4),100,IF(AND(F8&lt;100,G8&lt;100,J8&gt;99.4),99.4,IF(AND(J8&gt;=57.5,J8&lt;=59.4),60,IF(OR(F8=0,G8=0),0,J8))))</f>
-        <v>92.199999999999989</v>
+        <f t="shared" si="5"/>
+        <v>88.35</v>
       </c>
       <c r="L8" s="1">
-        <f>ROUND(K8,0)</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>88</v>
       </c>
       <c r="M8" s="1" t="str">
-        <f>IF(L8&gt;=90, "A+", IF(L8&gt;=86, "A", IF(L8&gt;=80, "A-", IF(L8&gt;=77, "B+", IF(L8&gt;=73, "B", IF(L8&gt;=70, "B-", IF(L8&gt;=67, "C+", IF(L8&gt;=63, "C", IF(L8&gt;=60, "C-", "F")))))))))</f>
-        <v>A+</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.2">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -983,28 +982,28 @@
         <v>57</v>
       </c>
       <c r="H9" s="1">
-        <f xml:space="preserve"> ROUND((B9 * 0.05 + C9 * 0.05 + D9 * 0.05 + E9*0.05 + F9 * 0.4 + G9 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>65.2</v>
       </c>
       <c r="I9" s="1">
-        <f>H9 + (76.49 + 4.6 - $H$26)</f>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>86.15</v>
       </c>
       <c r="J9" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I9 + (99.4 - MAX($I$2:$I$25)), I9)</f>
-        <v>90</v>
+        <f t="shared" si="4"/>
+        <v>86.15</v>
       </c>
       <c r="K9" s="1">
-        <f>IF(AND(OR(F9=100,G9=100),J9&gt;99.4),100,IF(AND(F9&lt;100,G9&lt;100,J9&gt;99.4),99.4,IF(AND(J9&gt;=57.5,J9&lt;=59.4),60,IF(OR(F9=0,G9=0),0,J9))))</f>
-        <v>90</v>
+        <f t="shared" si="5"/>
+        <v>86.15</v>
       </c>
       <c r="L9" s="1">
-        <f>ROUND(K9,0)</f>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>86</v>
       </c>
       <c r="M9" s="1" t="str">
-        <f>IF(L9&gt;=90, "A+", IF(L9&gt;=86, "A", IF(L9&gt;=80, "A-", IF(L9&gt;=77, "B+", IF(L9&gt;=73, "B", IF(L9&gt;=70, "B-", IF(L9&gt;=67, "C+", IF(L9&gt;=63, "C", IF(L9&gt;=60, "C-", "F")))))))))</f>
-        <v>A+</v>
+        <f t="shared" si="2"/>
+        <v>A</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1032,27 +1031,27 @@
         <v>56</v>
       </c>
       <c r="H10" s="1">
-        <f xml:space="preserve"> ROUND((B10 * 0.05 + C10 * 0.05 + D10 * 0.05 + E10*0.05 + F10 * 0.4 + G10 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>59.6</v>
       </c>
       <c r="I10" s="1">
-        <f>H10 + (76.49 + 4.6 - $H$26)</f>
-        <v>84.399999999999991</v>
+        <f t="shared" si="3"/>
+        <v>80.55</v>
       </c>
       <c r="J10" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I10 + (99.4 - MAX($I$2:$I$25)), I10)</f>
-        <v>84.399999999999991</v>
+        <f t="shared" si="4"/>
+        <v>80.55</v>
       </c>
       <c r="K10" s="1">
-        <f>IF(AND(OR(F10=100,G10=100),J10&gt;99.4),100,IF(AND(F10&lt;100,G10&lt;100,J10&gt;99.4),99.4,IF(AND(J10&gt;=57.5,J10&lt;=59.4),60,IF(OR(F10=0,G10=0),0,J10))))</f>
-        <v>84.399999999999991</v>
+        <f t="shared" si="5"/>
+        <v>80.55</v>
       </c>
       <c r="L10" s="1">
-        <f>ROUND(K10,0)</f>
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="M10" s="1" t="str">
-        <f>IF(L10&gt;=90, "A+", IF(L10&gt;=86, "A", IF(L10&gt;=80, "A-", IF(L10&gt;=77, "B+", IF(L10&gt;=73, "B", IF(L10&gt;=70, "B-", IF(L10&gt;=67, "C+", IF(L10&gt;=63, "C", IF(L10&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
         <v>A-</v>
       </c>
       <c r="O10" s="2"/>
@@ -1080,27 +1079,27 @@
         <v>56</v>
       </c>
       <c r="H11" s="1">
-        <f xml:space="preserve"> ROUND((B11 * 0.05 + C11 * 0.05 + D11 * 0.05 + E11*0.05 + F11 * 0.4 + G11 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>59.2</v>
       </c>
       <c r="I11" s="1">
-        <f>H11 + (76.49 + 4.6 - $H$26)</f>
-        <v>84</v>
+        <f t="shared" si="3"/>
+        <v>80.150000000000006</v>
       </c>
       <c r="J11" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I11 + (99.4 - MAX($I$2:$I$25)), I11)</f>
-        <v>84</v>
+        <f t="shared" si="4"/>
+        <v>80.150000000000006</v>
       </c>
       <c r="K11" s="1">
-        <f>IF(AND(OR(F11=100,G11=100),J11&gt;99.4),100,IF(AND(F11&lt;100,G11&lt;100,J11&gt;99.4),99.4,IF(AND(J11&gt;=57.5,J11&lt;=59.4),60,IF(OR(F11=0,G11=0),0,J11))))</f>
-        <v>84</v>
+        <f t="shared" si="5"/>
+        <v>80.150000000000006</v>
       </c>
       <c r="L11" s="1">
-        <f>ROUND(K11,0)</f>
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="M11" s="1" t="str">
-        <f>IF(L11&gt;=90, "A+", IF(L11&gt;=86, "A", IF(L11&gt;=80, "A-", IF(L11&gt;=77, "B+", IF(L11&gt;=73, "B", IF(L11&gt;=70, "B-", IF(L11&gt;=67, "C+", IF(L11&gt;=63, "C", IF(L11&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
         <v>A-</v>
       </c>
       <c r="O11" s="2"/>
@@ -1128,27 +1127,27 @@
         <v>52</v>
       </c>
       <c r="H12" s="1">
-        <f xml:space="preserve"> ROUND((B12 * 0.05 + C12 * 0.05 + D12 * 0.05 + E12*0.05 + F12 * 0.4 + G12 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>59.2</v>
       </c>
       <c r="I12" s="1">
-        <f>H12 + (76.49 + 4.6 - $H$26)</f>
-        <v>84</v>
+        <f t="shared" si="3"/>
+        <v>80.150000000000006</v>
       </c>
       <c r="J12" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I12 + (99.4 - MAX($I$2:$I$25)), I12)</f>
-        <v>84</v>
+        <f t="shared" si="4"/>
+        <v>80.150000000000006</v>
       </c>
       <c r="K12" s="1">
-        <f>IF(AND(OR(F12=100,G12=100),J12&gt;99.4),100,IF(AND(F12&lt;100,G12&lt;100,J12&gt;99.4),99.4,IF(AND(J12&gt;=57.5,J12&lt;=59.4),60,IF(OR(F12=0,G12=0),0,J12))))</f>
-        <v>84</v>
+        <f t="shared" si="5"/>
+        <v>80.150000000000006</v>
       </c>
       <c r="L12" s="1">
-        <f>ROUND(K12,0)</f>
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f>IF(L12&gt;=90, "A+", IF(L12&gt;=86, "A", IF(L12&gt;=80, "A-", IF(L12&gt;=77, "B+", IF(L12&gt;=73, "B", IF(L12&gt;=70, "B-", IF(L12&gt;=67, "C+", IF(L12&gt;=63, "C", IF(L12&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
         <v>A-</v>
       </c>
       <c r="O12" s="2"/>
@@ -1176,27 +1175,27 @@
         <v>50</v>
       </c>
       <c r="H13" s="1">
-        <f xml:space="preserve"> ROUND((B13 * 0.05 + C13 * 0.05 + D13 * 0.05 + E13*0.05 + F13 * 0.4 + G13 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>58.7</v>
       </c>
       <c r="I13" s="1">
-        <f>H13 + (76.49 + 4.6 - $H$26)</f>
-        <v>83.5</v>
+        <f t="shared" si="3"/>
+        <v>79.650000000000006</v>
       </c>
       <c r="J13" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I13 + (99.4 - MAX($I$2:$I$25)), I13)</f>
-        <v>83.5</v>
+        <f t="shared" si="4"/>
+        <v>79.650000000000006</v>
       </c>
       <c r="K13" s="1">
-        <f>IF(AND(OR(F13=100,G13=100),J13&gt;99.4),100,IF(AND(F13&lt;100,G13&lt;100,J13&gt;99.4),99.4,IF(AND(J13&gt;=57.5,J13&lt;=59.4),60,IF(OR(F13=0,G13=0),0,J13))))</f>
-        <v>83.5</v>
+        <f t="shared" si="5"/>
+        <v>79.650000000000006</v>
       </c>
       <c r="L13" s="1">
-        <f>ROUND(K13,0)</f>
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f>IF(L13&gt;=90, "A+", IF(L13&gt;=86, "A", IF(L13&gt;=80, "A-", IF(L13&gt;=77, "B+", IF(L13&gt;=73, "B", IF(L13&gt;=70, "B-", IF(L13&gt;=67, "C+", IF(L13&gt;=63, "C", IF(L13&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
         <v>A-</v>
       </c>
       <c r="O13" s="2"/>
@@ -1224,28 +1223,28 @@
         <v>53</v>
       </c>
       <c r="H14" s="1">
-        <f xml:space="preserve"> ROUND((B14 * 0.05 + C14 * 0.05 + D14 * 0.05 + E14*0.05 + F14 * 0.4 + G14 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>58.2</v>
       </c>
       <c r="I14" s="1">
-        <f>H14 + (76.49 + 4.6 - $H$26)</f>
-        <v>83</v>
+        <f t="shared" si="3"/>
+        <v>79.150000000000006</v>
       </c>
       <c r="J14" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I14 + (99.4 - MAX($I$2:$I$25)), I14)</f>
-        <v>83</v>
+        <f t="shared" si="4"/>
+        <v>79.150000000000006</v>
       </c>
       <c r="K14" s="1">
-        <f>IF(AND(OR(F14=100,G14=100),J14&gt;99.4),100,IF(AND(F14&lt;100,G14&lt;100,J14&gt;99.4),99.4,IF(AND(J14&gt;=57.5,J14&lt;=59.4),60,IF(OR(F14=0,G14=0),0,J14))))</f>
-        <v>83</v>
+        <f t="shared" si="5"/>
+        <v>79.150000000000006</v>
       </c>
       <c r="L14" s="1">
-        <f>ROUND(K14,0)</f>
-        <v>83</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="M14" s="1" t="str">
-        <f>IF(L14&gt;=90, "A+", IF(L14&gt;=86, "A", IF(L14&gt;=80, "A-", IF(L14&gt;=77, "B+", IF(L14&gt;=73, "B", IF(L14&gt;=70, "B-", IF(L14&gt;=67, "C+", IF(L14&gt;=63, "C", IF(L14&gt;=60, "C-", "F")))))))))</f>
-        <v>A-</v>
+        <f t="shared" si="2"/>
+        <v>B+</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -1272,28 +1271,28 @@
         <v>53</v>
       </c>
       <c r="H15" s="1">
-        <f xml:space="preserve"> ROUND((B15 * 0.05 + C15 * 0.05 + D15 * 0.05 + E15*0.05 + F15 * 0.4 + G15 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>56.7</v>
       </c>
       <c r="I15" s="1">
-        <f>H15 + (76.49 + 4.6 - $H$26)</f>
-        <v>81.5</v>
+        <f t="shared" si="3"/>
+        <v>77.650000000000006</v>
       </c>
       <c r="J15" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I15 + (99.4 - MAX($I$2:$I$25)), I15)</f>
-        <v>81.5</v>
+        <f t="shared" si="4"/>
+        <v>77.650000000000006</v>
       </c>
       <c r="K15" s="1">
-        <f>IF(AND(OR(F15=100,G15=100),J15&gt;99.4),100,IF(AND(F15&lt;100,G15&lt;100,J15&gt;99.4),99.4,IF(AND(J15&gt;=57.5,J15&lt;=59.4),60,IF(OR(F15=0,G15=0),0,J15))))</f>
-        <v>81.5</v>
+        <f t="shared" si="5"/>
+        <v>77.650000000000006</v>
       </c>
       <c r="L15" s="1">
-        <f>ROUND(K15,0)</f>
-        <v>82</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="M15" s="1" t="str">
-        <f>IF(L15&gt;=90, "A+", IF(L15&gt;=86, "A", IF(L15&gt;=80, "A-", IF(L15&gt;=77, "B+", IF(L15&gt;=73, "B", IF(L15&gt;=70, "B-", IF(L15&gt;=67, "C+", IF(L15&gt;=63, "C", IF(L15&gt;=60, "C-", "F")))))))))</f>
-        <v>A-</v>
+        <f t="shared" si="2"/>
+        <v>B+</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -1320,28 +1319,28 @@
         <v>47</v>
       </c>
       <c r="H16" s="1">
-        <f xml:space="preserve"> ROUND((B16 * 0.05 + C16 * 0.05 + D16 * 0.05 + E16*0.05 + F16 * 0.4 + G16 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="I16" s="1">
-        <f>H16 + (76.49 + 4.6 - $H$26)</f>
-        <v>80.799999999999983</v>
+        <f t="shared" si="3"/>
+        <v>76.949999999999989</v>
       </c>
       <c r="J16" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I16 + (99.4 - MAX($I$2:$I$25)), I16)</f>
-        <v>80.799999999999983</v>
+        <f t="shared" si="4"/>
+        <v>76.949999999999989</v>
       </c>
       <c r="K16" s="1">
-        <f>IF(AND(OR(F16=100,G16=100),J16&gt;99.4),100,IF(AND(F16&lt;100,G16&lt;100,J16&gt;99.4),99.4,IF(AND(J16&gt;=57.5,J16&lt;=59.4),60,IF(OR(F16=0,G16=0),0,J16))))</f>
-        <v>80.799999999999983</v>
+        <f t="shared" si="5"/>
+        <v>76.949999999999989</v>
       </c>
       <c r="L16" s="1">
-        <f>ROUND(K16,0)</f>
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>77</v>
       </c>
       <c r="M16" s="1" t="str">
-        <f>IF(L16&gt;=90, "A+", IF(L16&gt;=86, "A", IF(L16&gt;=80, "A-", IF(L16&gt;=77, "B+", IF(L16&gt;=73, "B", IF(L16&gt;=70, "B-", IF(L16&gt;=67, "C+", IF(L16&gt;=63, "C", IF(L16&gt;=60, "C-", "F")))))))))</f>
-        <v>A-</v>
+        <f t="shared" si="2"/>
+        <v>B+</v>
       </c>
       <c r="O16" s="2"/>
     </row>
@@ -1368,27 +1367,27 @@
         <v>45</v>
       </c>
       <c r="H17" s="1">
-        <f xml:space="preserve"> ROUND((B17 * 0.05 + C17 * 0.05 + D17 * 0.05 + E17*0.05 + F17 * 0.4 + G17 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>51.6</v>
       </c>
       <c r="I17" s="1">
-        <f>H17 + (76.49 + 4.6 - $H$26)</f>
-        <v>76.399999999999991</v>
+        <f t="shared" si="3"/>
+        <v>72.55</v>
       </c>
       <c r="J17" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I17 + (99.4 - MAX($I$2:$I$25)), I17)</f>
-        <v>76.399999999999991</v>
+        <f t="shared" si="4"/>
+        <v>72.55</v>
       </c>
       <c r="K17" s="1">
-        <f>IF(AND(OR(F17=100,G17=100),J17&gt;99.4),100,IF(AND(F17&lt;100,G17&lt;100,J17&gt;99.4),99.4,IF(AND(J17&gt;=57.5,J17&lt;=59.4),60,IF(OR(F17=0,G17=0),0,J17))))</f>
-        <v>76.399999999999991</v>
+        <f t="shared" si="5"/>
+        <v>72.55</v>
       </c>
       <c r="L17" s="1">
-        <f>ROUND(K17,0)</f>
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="M17" s="1" t="str">
-        <f>IF(L17&gt;=90, "A+", IF(L17&gt;=86, "A", IF(L17&gt;=80, "A-", IF(L17&gt;=77, "B+", IF(L17&gt;=73, "B", IF(L17&gt;=70, "B-", IF(L17&gt;=67, "C+", IF(L17&gt;=63, "C", IF(L17&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
       <c r="O17" s="2"/>
@@ -1416,28 +1415,28 @@
         <v>57</v>
       </c>
       <c r="H18" s="1">
-        <f xml:space="preserve"> ROUND((B18 * 0.05 + C18 * 0.05 + D18 * 0.05 + E18*0.05 + F18 * 0.4 + G18 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>51.4</v>
       </c>
       <c r="I18" s="1">
-        <f>H18 + (76.49 + 4.6 - $H$26)</f>
-        <v>76.199999999999989</v>
+        <f t="shared" si="3"/>
+        <v>72.349999999999994</v>
       </c>
       <c r="J18" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I18 + (99.4 - MAX($I$2:$I$25)), I18)</f>
-        <v>76.199999999999989</v>
+        <f t="shared" si="4"/>
+        <v>72.349999999999994</v>
       </c>
       <c r="K18" s="1">
-        <f>IF(AND(OR(F18=100,G18=100),J18&gt;99.4),100,IF(AND(F18&lt;100,G18&lt;100,J18&gt;99.4),99.4,IF(AND(J18&gt;=57.5,J18&lt;=59.4),60,IF(OR(F18=0,G18=0),0,J18))))</f>
-        <v>76.199999999999989</v>
+        <f t="shared" si="5"/>
+        <v>72.349999999999994</v>
       </c>
       <c r="L18" s="1">
-        <f>ROUND(K18,0)</f>
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="M18" s="1" t="str">
-        <f>IF(L18&gt;=90, "A+", IF(L18&gt;=86, "A", IF(L18&gt;=80, "A-", IF(L18&gt;=77, "B+", IF(L18&gt;=73, "B", IF(L18&gt;=70, "B-", IF(L18&gt;=67, "C+", IF(L18&gt;=63, "C", IF(L18&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <f t="shared" si="2"/>
+        <v>B-</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -1464,28 +1463,28 @@
         <v>46</v>
       </c>
       <c r="H19" s="1">
-        <f xml:space="preserve"> ROUND((B19 * 0.05 + C19 * 0.05 + D19 * 0.05 + E19*0.05 + F19 * 0.4 + G19 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="I19" s="1">
-        <f>H19 + (76.49 + 4.6 - $H$26)</f>
-        <v>72.799999999999983</v>
+        <f t="shared" si="3"/>
+        <v>68.949999999999989</v>
       </c>
       <c r="J19" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I19 + (99.4 - MAX($I$2:$I$25)), I19)</f>
-        <v>72.799999999999983</v>
+        <f t="shared" si="4"/>
+        <v>68.949999999999989</v>
       </c>
       <c r="K19" s="1">
-        <f>IF(AND(OR(F19=100,G19=100),J19&gt;99.4),100,IF(AND(F19&lt;100,G19&lt;100,J19&gt;99.4),99.4,IF(AND(J19&gt;=57.5,J19&lt;=59.4),60,IF(OR(F19=0,G19=0),0,J19))))</f>
-        <v>72.799999999999983</v>
+        <f t="shared" si="5"/>
+        <v>68.949999999999989</v>
       </c>
       <c r="L19" s="1">
-        <f>ROUND(K19,0)</f>
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="M19" s="1" t="str">
-        <f>IF(L19&gt;=90, "A+", IF(L19&gt;=86, "A", IF(L19&gt;=80, "A-", IF(L19&gt;=77, "B+", IF(L19&gt;=73, "B", IF(L19&gt;=70, "B-", IF(L19&gt;=67, "C+", IF(L19&gt;=63, "C", IF(L19&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <f t="shared" si="2"/>
+        <v>C+</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -1512,28 +1511,28 @@
         <v>23</v>
       </c>
       <c r="H20" s="1">
-        <f xml:space="preserve"> ROUND((B20 * 0.05 + C20 * 0.05 + D20 * 0.05 + E20*0.05 + F20 * 0.4 + G20 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>47.2</v>
       </c>
       <c r="I20" s="1">
-        <f>H20 + (76.49 + 4.6 - $H$26)</f>
-        <v>72</v>
+        <f t="shared" si="3"/>
+        <v>68.150000000000006</v>
       </c>
       <c r="J20" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I20 + (99.4 - MAX($I$2:$I$25)), I20)</f>
-        <v>72</v>
+        <f t="shared" si="4"/>
+        <v>68.150000000000006</v>
       </c>
       <c r="K20" s="1">
-        <f>IF(AND(OR(F20=100,G20=100),J20&gt;99.4),100,IF(AND(F20&lt;100,G20&lt;100,J20&gt;99.4),99.4,IF(AND(J20&gt;=57.5,J20&lt;=59.4),60,IF(OR(F20=0,G20=0),0,J20))))</f>
-        <v>72</v>
+        <f t="shared" si="5"/>
+        <v>68.150000000000006</v>
       </c>
       <c r="L20" s="1">
-        <f>ROUND(K20,0)</f>
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="M20" s="1" t="str">
-        <f>IF(L20&gt;=90, "A+", IF(L20&gt;=86, "A", IF(L20&gt;=80, "A-", IF(L20&gt;=77, "B+", IF(L20&gt;=73, "B", IF(L20&gt;=70, "B-", IF(L20&gt;=67, "C+", IF(L20&gt;=63, "C", IF(L20&gt;=60, "C-", "F")))))))))</f>
-        <v>B-</v>
+        <f t="shared" si="2"/>
+        <v>C+</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1559,28 +1558,28 @@
         <v>36</v>
       </c>
       <c r="H21" s="1">
-        <f xml:space="preserve"> ROUND((B21 * 0.05 + C21 * 0.05 + D21 * 0.05 + E21*0.05 + F21 * 0.4 + G21 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>42.6</v>
       </c>
       <c r="I21" s="1">
-        <f>H21 + (76.49 + 4.6 - $H$26)</f>
-        <v>67.399999999999991</v>
+        <f t="shared" si="3"/>
+        <v>63.55</v>
       </c>
       <c r="J21" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I21 + (99.4 - MAX($I$2:$I$25)), I21)</f>
-        <v>67.399999999999991</v>
+        <f t="shared" si="4"/>
+        <v>63.55</v>
       </c>
       <c r="K21" s="1">
-        <f>IF(AND(OR(F21=100,G21=100),J21&gt;99.4),100,IF(AND(F21&lt;100,G21&lt;100,J21&gt;99.4),99.4,IF(AND(J21&gt;=57.5,J21&lt;=59.4),60,IF(OR(F21=0,G21=0),0,J21))))</f>
-        <v>67.399999999999991</v>
+        <f t="shared" si="5"/>
+        <v>63.55</v>
       </c>
       <c r="L21" s="1">
-        <f>ROUND(K21,0)</f>
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="M21" s="1" t="str">
-        <f>IF(L21&gt;=90, "A+", IF(L21&gt;=86, "A", IF(L21&gt;=80, "A-", IF(L21&gt;=77, "B+", IF(L21&gt;=73, "B", IF(L21&gt;=70, "B-", IF(L21&gt;=67, "C+", IF(L21&gt;=63, "C", IF(L21&gt;=60, "C-", "F")))))))))</f>
-        <v>C+</v>
+        <f t="shared" si="2"/>
+        <v>C</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1606,27 +1605,27 @@
         <v>23</v>
       </c>
       <c r="H22" s="1">
-        <f xml:space="preserve"> ROUND((B22 * 0.05 + C22 * 0.05 + D22 * 0.05 + E22*0.05 + F22 * 0.4 + G22 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
       <c r="I22" s="1">
-        <f>H22 + (76.49 + 4.6 - $H$26)</f>
-        <v>60.399999999999991</v>
+        <f t="shared" si="3"/>
+        <v>56.55</v>
       </c>
       <c r="J22" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I22 + (99.4 - MAX($I$2:$I$25)), I22)</f>
-        <v>60.399999999999991</v>
+        <f t="shared" si="4"/>
+        <v>56.55</v>
       </c>
       <c r="K22" s="1">
-        <f>IF(AND(OR(F22=100,G22=100),J22&gt;99.4),100,IF(AND(F22&lt;100,G22&lt;100,J22&gt;99.4),99.4,IF(AND(J22&gt;=57.5,J22&lt;=59.4),60,IF(OR(F22=0,G22=0),0,J22))))</f>
-        <v>60.399999999999991</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="L22" s="1">
-        <f>ROUND(K22,0)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f>IF(L22&gt;=90, "A+", IF(L22&gt;=86, "A", IF(L22&gt;=80, "A-", IF(L22&gt;=77, "B+", IF(L22&gt;=73, "B", IF(L22&gt;=70, "B-", IF(L22&gt;=67, "C+", IF(L22&gt;=63, "C", IF(L22&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
         <v>C-</v>
       </c>
     </row>
@@ -1653,27 +1652,27 @@
         <v>25</v>
       </c>
       <c r="H23" s="1">
-        <f xml:space="preserve"> ROUND((B23 * 0.05 + C23 * 0.05 + D23 * 0.05 + E23*0.05 + F23 * 0.4 + G23 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>35.200000000000003</v>
       </c>
       <c r="I23" s="1">
-        <f>H23 + (76.49 + 4.6 - $H$26)</f>
-        <v>59.999999999999993</v>
+        <f t="shared" si="3"/>
+        <v>56.15</v>
       </c>
       <c r="J23" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I23 + (99.4 - MAX($I$2:$I$25)), I23)</f>
-        <v>59.999999999999993</v>
+        <f t="shared" si="4"/>
+        <v>56.15</v>
       </c>
       <c r="K23" s="1">
-        <f>IF(AND(OR(F23=100,G23=100),J23&gt;99.4),100,IF(AND(F23&lt;100,G23&lt;100,J23&gt;99.4),99.4,IF(AND(J23&gt;=57.5,J23&lt;=59.4),60,IF(OR(F23=0,G23=0),0,J23))))</f>
-        <v>59.999999999999993</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="L23" s="1">
-        <f>ROUND(K23,0)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="M23" s="1" t="str">
-        <f>IF(L23&gt;=90, "A+", IF(L23&gt;=86, "A", IF(L23&gt;=80, "A-", IF(L23&gt;=77, "B+", IF(L23&gt;=73, "B", IF(L23&gt;=70, "B-", IF(L23&gt;=67, "C+", IF(L23&gt;=63, "C", IF(L23&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
         <v>C-</v>
       </c>
     </row>
@@ -1700,27 +1699,27 @@
         <v>24</v>
       </c>
       <c r="H24" s="1">
-        <f xml:space="preserve"> ROUND((B24 * 0.05 + C24 * 0.05 + D24 * 0.05 + E24*0.05 + F24 * 0.4 + G24 * 0.4), 2)</f>
+        <f t="shared" si="0"/>
         <v>32.9</v>
       </c>
       <c r="I24" s="1">
-        <f>H24 + (76.49 + 4.6 - $H$26)</f>
-        <v>57.699999999999989</v>
+        <f t="shared" si="3"/>
+        <v>53.849999999999994</v>
       </c>
       <c r="J24" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I24 + (99.4 - MAX($I$2:$I$25)), I24)</f>
-        <v>57.699999999999989</v>
+        <f t="shared" si="4"/>
+        <v>53.849999999999994</v>
       </c>
       <c r="K24" s="1">
-        <f>IF(AND(OR(F24=100,G24=100),J24&gt;99.4),100,IF(AND(F24&lt;100,G24&lt;100,J24&gt;99.4),99.4,IF(AND(J24&gt;=57.5,J24&lt;=59.4),60,IF(OR(F24=0,G24=0),0,J24))))</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="L24" s="1">
-        <f>ROUND(K24,0)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="M24" s="1" t="str">
-        <f>IF(L24&gt;=90, "A+", IF(L24&gt;=86, "A", IF(L24&gt;=80, "A-", IF(L24&gt;=77, "B+", IF(L24&gt;=73, "B", IF(L24&gt;=70, "B-", IF(L24&gt;=67, "C+", IF(L24&gt;=63, "C", IF(L24&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
         <v>C-</v>
       </c>
     </row>
@@ -1751,23 +1750,23 @@
         <v>15</v>
       </c>
       <c r="I25" s="1">
-        <f>H25 + (76.49 + 4.6 - $H$26)</f>
-        <v>39.79999999999999</v>
+        <f t="shared" si="3"/>
+        <v>35.949999999999996</v>
       </c>
       <c r="J25" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.4, I25 + (99.4 - MAX($I$2:$I$25)), I25)</f>
-        <v>39.79999999999999</v>
+        <f t="shared" si="4"/>
+        <v>35.949999999999996</v>
       </c>
       <c r="K25" s="1">
-        <f>IF(AND(OR(F25=100,G25=100),J25&gt;99.4),100,IF(AND(F25&lt;100,G25&lt;100,J25&gt;99.4),99.4,IF(AND(J25&gt;=57.5,J25&lt;=59.4),60,IF(OR(F25=0,G25=0),0,J25))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <f>ROUND(K25,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M25" s="1" t="str">
-        <f>IF(L25&gt;=90, "A+", IF(L25&gt;=86, "A", IF(L25&gt;=80, "A-", IF(L25&gt;=77, "B+", IF(L25&gt;=73, "B", IF(L25&gt;=70, "B-", IF(L25&gt;=67, "C+", IF(L25&gt;=63, "C", IF(L25&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
     </row>
@@ -1776,19 +1775,19 @@
         <v>13</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ref="B26:E26" si="0">ROUND(AVERAGE(B2:B25),2)</f>
+        <f t="shared" ref="B26:E26" si="6">ROUND(AVERAGE(B2:B25),2)</f>
         <v>87.5</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>89.58</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>93.75</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>97.92</v>
       </c>
       <c r="F26" s="1">
@@ -1797,35 +1796,35 @@
       </c>
       <c r="G26" s="1">
         <f>ROUND(AVERAGE(G2:G25),2)</f>
-        <v>50.5</v>
+        <v>51.13</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26:K26" si="1">ROUND(AVERAGE(H2:H25),2)</f>
-        <v>56.29</v>
+        <f t="shared" ref="H26:K26" si="7">ROUND(AVERAGE(H2:H25),2)</f>
+        <v>56.54</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="1"/>
-        <v>81.09</v>
+        <f t="shared" si="7"/>
+        <v>77.45</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="1"/>
-        <v>81.09</v>
+        <f t="shared" si="7"/>
+        <v>77.45</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="1"/>
-        <v>79.06</v>
+        <f t="shared" si="7"/>
+        <v>76.239999999999995</v>
       </c>
       <c r="L26" s="1">
         <f>ROUND(AVERAGE(L2:L25),2)</f>
-        <v>78.959999999999994</v>
+        <v>76.25</v>
       </c>
       <c r="M26" s="1" t="str">
-        <f t="shared" ref="M26" si="2">IF(L26&gt;=90, "A+", IF(L26&gt;=86, "A", IF(L26&gt;=80, "A-", IF(L26&gt;=77, "B+", IF(L26&gt;=73, "B", IF(L26&gt;=70, "B-", IF(L26&gt;=67, "C+", IF(L26&gt;=63, "C", IF(L26&gt;=60, "C-", "F")))))))))</f>
-        <v>B+</v>
+        <f t="shared" ref="M26" si="8">IF(L26&gt;=90, "A+", IF(L26&gt;=86, "A", IF(L26&gt;=80, "A-", IF(L26&gt;=77, "B+", IF(L26&gt;=73, "B", IF(L26&gt;=70, "B-", IF(L26&gt;=67, "C+", IF(L26&gt;=63, "C", IF(L26&gt;=60, "C-", "F")))))))))</f>
+        <v>B</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M25">
+  <sortState ref="A2:M25">
     <sortCondition descending="1" ref="H2:H25"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A7C5D2-2B90-B245-AABE-F15170DAC8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="1400" yWindow="600" windowWidth="24840" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10002"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,29 +158,13 @@
   </si>
   <si>
     <t>423__23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Week 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Week 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Week 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Week 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -567,58 +552,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1"/>
-    <col min="2" max="2" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="8.77734375" style="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="8.83203125" style="1"/>
+    <col min="14" max="14" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3"/>
@@ -629,45 +602,33 @@
         <v>29</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B2 * 0.5 + C2 * 0.5), 2)</f>
+        <v>82.5</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <f>D2 + (IF($D$26 &lt; 77.49, 77.49, $D$26) - $D$26)</f>
+        <v>112.35999999999999</v>
       </c>
       <c r="F2" s="1">
-        <v>78</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E2 + (99.4 - MAX($E$2:$E$25)), E2)</f>
+        <v>112.35999999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>87</v>
+        <f>IF(AND(OR(B2=100,C2=100),F2&gt;99.49),100,IF(AND(B2&lt;100,C2&lt;100,F2&gt;99.49),99.49,IF(AND(F2&gt;=54.5,F2&lt;=59.4),60,IF(OR(B2=0,C2=0),0,F2))))</f>
+        <v>99.49</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H24" si="0" xml:space="preserve"> ROUND((B2 * 0.05 + C2 * 0.05 + D2 * 0.05 + E2*0.05 + F2 * 0.4 + G2 * 0.4), 2)</f>
-        <v>86</v>
-      </c>
-      <c r="I2" s="1">
-        <f>H2 + (IF($H$26 &lt; 76.49, 76.49, $H$26) - $H$26)</f>
-        <v>105.94999999999999</v>
-      </c>
-      <c r="J2" s="1">
-        <f>IF(MAX($I$2:$I$25) &lt; 99.49, I2 + (99.4 - MAX($I$2:$I$25)), I2)</f>
-        <v>105.94999999999999</v>
-      </c>
-      <c r="K2" s="1">
-        <f>IF(AND(OR(F2=100,G2=100),J2&gt;99.49),100,IF(AND(F2&lt;100,G2&lt;100,J2&gt;99.49),99.49,IF(AND(J2&gt;=53.5,J2&lt;=59.4),60,IF(OR(F2=0,G2=0),0,J2))))</f>
-        <v>99.49</v>
-      </c>
-      <c r="L2" s="1">
-        <f t="shared" ref="L2:L25" si="1">ROUND(K2,0)</f>
+        <f>ROUND(G2,0)</f>
         <v>99</v>
       </c>
-      <c r="M2" s="1" t="str">
-        <f t="shared" ref="M2:M25" si="2">IF(L2&gt;=90, "A+", IF(L2&gt;=86, "A", IF(L2&gt;=80, "A-", IF(L2&gt;=77, "B+", IF(L2&gt;=73, "B", IF(L2&gt;=70, "B-", IF(L2&gt;=67, "C+", IF(L2&gt;=63, "C", IF(L2&gt;=60, "C-", "F")))))))))</f>
+      <c r="I2" s="1" t="str">
+        <f>IF(H2&gt;=90, "A+", IF(H2&gt;=86, "A", IF(H2&gt;=80, "A-", IF(H2&gt;=77, "B+", IF(H2&gt;=73, "B", IF(H2&gt;=70, "B-", IF(H2&gt;=67, "C+", IF(H2&gt;=63, "C", IF(H2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O2" s="2"/>
@@ -677,45 +638,33 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B3 * 0.5 + C3 * 0.5), 2)</f>
+        <v>73</v>
       </c>
       <c r="E3" s="1">
-        <v>100</v>
+        <f t="shared" ref="E3:E25" si="0">D3 + (IF($D$26 &lt; 77.49, 77.49, $D$26) - $D$26)</f>
+        <v>102.85999999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>74</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E3 + (99.4 - MAX($E$2:$E$25)), E3)</f>
+        <v>102.85999999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>72</v>
+        <f t="shared" ref="G3:G25" si="1">IF(AND(OR(B3=100,C3=100),F3&gt;99.49),100,IF(AND(B3&lt;100,C3&lt;100,F3&gt;99.49),99.49,IF(AND(F3&gt;=54.5,F3&lt;=59.4),60,IF(OR(B3=0,C3=0),0,F3))))</f>
+        <v>99.49</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" si="0"/>
-        <v>78.400000000000006</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I25" si="3">H3 + (76.49 + 1 - $H$26)</f>
-        <v>99.35</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J25" si="4">IF(MAX($I$2:$I$25) &lt; 99.49, I3 + (99.4 - MAX($I$2:$I$25)), I3)</f>
-        <v>99.35</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3:K25" si="5">IF(AND(OR(F3=100,G3=100),J3&gt;99.49),100,IF(AND(F3&lt;100,G3&lt;100,J3&gt;99.49),99.49,IF(AND(J3&gt;=53.5,J3&lt;=59.4),60,IF(OR(F3=0,G3=0),0,J3))))</f>
-        <v>99.35</v>
-      </c>
-      <c r="L3" s="1">
-        <f t="shared" si="1"/>
+        <f>ROUND(G3,0)</f>
         <v>99</v>
       </c>
-      <c r="M3" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I3" s="1" t="str">
+        <f>IF(H3&gt;=90, "A+", IF(H3&gt;=86, "A", IF(H3&gt;=80, "A-", IF(H3&gt;=77, "B+", IF(H3&gt;=73, "B", IF(H3&gt;=70, "B-", IF(H3&gt;=67, "C+", IF(H3&gt;=63, "C", IF(H3&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O3" s="2"/>
@@ -725,45 +674,33 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B4 * 0.5 + C4 * 0.5), 2)</f>
+        <v>70.5</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>100.35999999999999</v>
       </c>
       <c r="F4" s="1">
-        <v>54</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E4 + (99.4 - MAX($E$2:$E$25)), E4)</f>
+        <v>100.35999999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>99.49</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>76.400000000000006</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="3"/>
-        <v>97.35</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="4"/>
-        <v>97.35</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="5"/>
-        <v>97.35</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="M4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>ROUND(G4,0)</f>
+        <v>99</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>IF(H4&gt;=90, "A+", IF(H4&gt;=86, "A", IF(H4&gt;=80, "A-", IF(H4&gt;=77, "B+", IF(H4&gt;=73, "B", IF(H4&gt;=70, "B-", IF(H4&gt;=67, "C+", IF(H4&gt;=63, "C", IF(H4&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O4" s="2"/>
@@ -773,236 +710,176 @@
         <v>22</v>
       </c>
       <c r="B5" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B5 * 0.5 + C5 * 0.5), 2)</f>
+        <v>68.5</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>98.359999999999985</v>
       </c>
       <c r="F5" s="1">
-        <v>65</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E5 + (99.4 - MAX($E$2:$E$25)), E5)</f>
+        <v>98.359999999999985</v>
       </c>
       <c r="G5" s="1">
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>98.359999999999985</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>74.8</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="3"/>
-        <v>95.75</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="4"/>
-        <v>95.75</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="5"/>
-        <v>95.75</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="M5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>ROUND(G5,0)</f>
+        <v>98</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>IF(H5&gt;=90, "A+", IF(H5&gt;=86, "A", IF(H5&gt;=80, "A-", IF(H5&gt;=77, "B+", IF(H5&gt;=73, "B", IF(H5&gt;=70, "B-", IF(H5&gt;=67, "C+", IF(H5&gt;=63, "C", IF(H5&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B6 * 0.5 + C6 * 0.5), 2)</f>
+        <v>65.5</v>
       </c>
       <c r="E6" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>95.359999999999985</v>
       </c>
       <c r="F6" s="1">
-        <v>62</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E6 + (99.4 - MAX($E$2:$E$25)), E6)</f>
+        <v>95.359999999999985</v>
       </c>
       <c r="G6" s="1">
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>95.359999999999985</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>71.599999999999994</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="3"/>
-        <v>92.549999999999983</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="4"/>
-        <v>92.549999999999983</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="5"/>
-        <v>92.549999999999983</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="M6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>ROUND(G6,0)</f>
+        <v>95</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>IF(H6&gt;=90, "A+", IF(H6&gt;=86, "A", IF(H6&gt;=80, "A-", IF(H6&gt;=77, "B+", IF(H6&gt;=73, "B", IF(H6&gt;=70, "B-", IF(H6&gt;=67, "C+", IF(H6&gt;=63, "C", IF(H6&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B7 * 0.5 + C7 * 0.5), 2)</f>
+        <v>64.5</v>
       </c>
       <c r="E7" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>94.359999999999985</v>
       </c>
       <c r="F7" s="1">
-        <v>53</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E7 + (99.4 - MAX($E$2:$E$25)), E7)</f>
+        <v>94.359999999999985</v>
       </c>
       <c r="G7" s="1">
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>94.359999999999985</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>90.949999999999989</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="4"/>
-        <v>90.949999999999989</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="5"/>
-        <v>90.949999999999989</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="M7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>ROUND(G7,0)</f>
+        <v>94</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f>IF(H7&gt;=90, "A+", IF(H7&gt;=86, "A", IF(H7&gt;=80, "A-", IF(H7&gt;=77, "B+", IF(H7&gt;=73, "B", IF(H7&gt;=70, "B-", IF(H7&gt;=67, "C+", IF(H7&gt;=63, "C", IF(H7&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B8 * 0.5 + C8 * 0.5), 2)</f>
+        <v>62.5</v>
       </c>
       <c r="E8" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>92.359999999999985</v>
       </c>
       <c r="F8" s="1">
-        <v>64</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E8 + (99.4 - MAX($E$2:$E$25)), E8)</f>
+        <v>92.359999999999985</v>
       </c>
       <c r="G8" s="1">
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>92.359999999999985</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>67.400000000000006</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="3"/>
-        <v>88.35</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="4"/>
-        <v>88.35</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="5"/>
-        <v>88.35</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="M8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16.2">
+        <f>ROUND(G8,0)</f>
+        <v>92</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f>IF(H8&gt;=90, "A+", IF(H8&gt;=86, "A", IF(H8&gt;=80, "A-", IF(H8&gt;=77, "B+", IF(H8&gt;=73, "B", IF(H8&gt;=70, "B-", IF(H8&gt;=67, "C+", IF(H8&gt;=63, "C", IF(H8&gt;=60, "C-", "F")))))))))</f>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B9 * 0.5 + C9 * 0.5), 2)</f>
+        <v>56.5</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>86.359999999999985</v>
       </c>
       <c r="F9" s="1">
-        <v>56</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E9 + (99.4 - MAX($E$2:$E$25)), E9)</f>
+        <v>86.359999999999985</v>
       </c>
       <c r="G9" s="1">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>86.359999999999985</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>65.2</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="3"/>
-        <v>86.15</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="4"/>
-        <v>86.15</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="5"/>
-        <v>86.15</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="1"/>
+        <f>ROUND(G9,0)</f>
         <v>86</v>
       </c>
-      <c r="M9" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I9" s="1" t="str">
+        <f>IF(H9&gt;=90, "A+", IF(H9&gt;=86, "A", IF(H9&gt;=80, "A-", IF(H9&gt;=77, "B+", IF(H9&gt;=73, "B", IF(H9&gt;=70, "B-", IF(H9&gt;=67, "C+", IF(H9&gt;=63, "C", IF(H9&gt;=60, "C-", "F")))))))))</f>
         <v>A</v>
       </c>
       <c r="N9" s="3"/>
@@ -1010,240 +887,180 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B10 * 0.5 + C10 * 0.5), 2)</f>
+        <v>54</v>
       </c>
       <c r="E10" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>83.859999999999985</v>
       </c>
       <c r="F10" s="1">
-        <v>43</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E10 + (99.4 - MAX($E$2:$E$25)), E10)</f>
+        <v>83.859999999999985</v>
       </c>
       <c r="G10" s="1">
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>83.859999999999985</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>59.6</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="3"/>
-        <v>80.55</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="4"/>
-        <v>80.55</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="5"/>
-        <v>80.55</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="M10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>ROUND(G10,0)</f>
+        <v>84</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f>IF(H10&gt;=90, "A+", IF(H10&gt;=86, "A", IF(H10&gt;=80, "A-", IF(H10&gt;=77, "B+", IF(H10&gt;=73, "B", IF(H10&gt;=70, "B-", IF(H10&gt;=67, "C+", IF(H10&gt;=63, "C", IF(H10&gt;=60, "C-", "F")))))))))</f>
         <v>A-</v>
       </c>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B11 * 0.5 + C11 * 0.5), 2)</f>
+        <v>51.5</v>
       </c>
       <c r="E11" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>81.359999999999985</v>
       </c>
       <c r="F11" s="1">
-        <v>42</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E11 + (99.4 - MAX($E$2:$E$25)), E11)</f>
+        <v>81.359999999999985</v>
       </c>
       <c r="G11" s="1">
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>81.359999999999985</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>59.2</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="3"/>
-        <v>80.150000000000006</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="4"/>
-        <v>80.150000000000006</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="5"/>
-        <v>80.150000000000006</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="M11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>ROUND(G11,0)</f>
+        <v>81</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f>IF(H11&gt;=90, "A+", IF(H11&gt;=86, "A", IF(H11&gt;=80, "A-", IF(H11&gt;=77, "B+", IF(H11&gt;=73, "B", IF(H11&gt;=70, "B-", IF(H11&gt;=67, "C+", IF(H11&gt;=63, "C", IF(H11&gt;=60, "C-", "F")))))))))</f>
         <v>A-</v>
       </c>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B12 * 0.5 + C12 * 0.5), 2)</f>
+        <v>49.5</v>
       </c>
       <c r="E12" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>79.359999999999985</v>
       </c>
       <c r="F12" s="1">
-        <v>46</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E12 + (99.4 - MAX($E$2:$E$25)), E12)</f>
+        <v>79.359999999999985</v>
       </c>
       <c r="G12" s="1">
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>79.359999999999985</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>59.2</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="3"/>
-        <v>80.150000000000006</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="4"/>
-        <v>80.150000000000006</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="5"/>
-        <v>80.150000000000006</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="M12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>A-</v>
+        <f>ROUND(G12,0)</f>
+        <v>79</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f>IF(H12&gt;=90, "A+", IF(H12&gt;=86, "A", IF(H12&gt;=80, "A-", IF(H12&gt;=77, "B+", IF(H12&gt;=73, "B", IF(H12&gt;=70, "B-", IF(H12&gt;=67, "C+", IF(H12&gt;=63, "C", IF(H12&gt;=60, "C-", "F")))))))))</f>
+        <v>B+</v>
       </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B13 * 0.5 + C13 * 0.5), 2)</f>
+        <v>49</v>
       </c>
       <c r="E13" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>78.859999999999985</v>
       </c>
       <c r="F13" s="1">
-        <v>53</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E13 + (99.4 - MAX($E$2:$E$25)), E13)</f>
+        <v>78.859999999999985</v>
       </c>
       <c r="G13" s="1">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>78.859999999999985</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>58.7</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="3"/>
-        <v>79.650000000000006</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="4"/>
-        <v>79.650000000000006</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="5"/>
-        <v>79.650000000000006</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="M13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>A-</v>
+        <f>ROUND(G13,0)</f>
+        <v>79</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f>IF(H13&gt;=90, "A+", IF(H13&gt;=86, "A", IF(H13&gt;=80, "A-", IF(H13&gt;=77, "B+", IF(H13&gt;=73, "B", IF(H13&gt;=70, "B-", IF(H13&gt;=67, "C+", IF(H13&gt;=63, "C", IF(H13&gt;=60, "C-", "F")))))))))</f>
+        <v>B+</v>
       </c>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B14 * 0.5 + C14 * 0.5), 2)</f>
+        <v>49</v>
       </c>
       <c r="E14" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>78.859999999999985</v>
       </c>
       <c r="F14" s="1">
-        <v>55</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E14 + (99.4 - MAX($E$2:$E$25)), E14)</f>
+        <v>78.859999999999985</v>
       </c>
       <c r="G14" s="1">
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>78.859999999999985</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
-        <v>58.2</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="3"/>
-        <v>79.150000000000006</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="4"/>
-        <v>79.150000000000006</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="5"/>
-        <v>79.150000000000006</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="1"/>
+        <f>ROUND(G14,0)</f>
         <v>79</v>
       </c>
-      <c r="M14" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I14" s="1" t="str">
+        <f>IF(H14&gt;=90, "A+", IF(H14&gt;=86, "A", IF(H14&gt;=80, "A-", IF(H14&gt;=77, "B+", IF(H14&gt;=73, "B", IF(H14&gt;=70, "B-", IF(H14&gt;=67, "C+", IF(H14&gt;=63, "C", IF(H14&gt;=60, "C-", "F")))))))))</f>
         <v>B+</v>
       </c>
       <c r="O14" s="2"/>
@@ -1253,45 +1070,33 @@
         <v>21</v>
       </c>
       <c r="B15" s="1">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1">
-        <v>50</v>
+        <f xml:space="preserve"> ROUND(( B15 * 0.5 + C15 * 0.5), 2)</f>
+        <v>49</v>
       </c>
       <c r="E15" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>78.859999999999985</v>
       </c>
       <c r="F15" s="1">
-        <v>45</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E15 + (99.4 - MAX($E$2:$E$25)), E15)</f>
+        <v>78.859999999999985</v>
       </c>
       <c r="G15" s="1">
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>78.859999999999985</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
-        <v>56.7</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="3"/>
-        <v>77.650000000000006</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="4"/>
-        <v>77.650000000000006</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="5"/>
-        <v>77.650000000000006</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="M15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>ROUND(G15,0)</f>
+        <v>79</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f>IF(H15&gt;=90, "A+", IF(H15&gt;=86, "A", IF(H15&gt;=80, "A-", IF(H15&gt;=77, "B+", IF(H15&gt;=73, "B", IF(H15&gt;=70, "B-", IF(H15&gt;=67, "C+", IF(H15&gt;=63, "C", IF(H15&gt;=60, "C-", "F")))))))))</f>
         <v>B+</v>
       </c>
       <c r="O15" s="2"/>
@@ -1301,142 +1106,106 @@
         <v>25</v>
       </c>
       <c r="B16" s="1">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B16 * 0.5 + C16 * 0.5), 2)</f>
+        <v>45</v>
       </c>
       <c r="E16" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>74.859999999999985</v>
       </c>
       <c r="F16" s="1">
-        <v>43</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E16 + (99.4 - MAX($E$2:$E$25)), E16)</f>
+        <v>74.859999999999985</v>
       </c>
       <c r="G16" s="1">
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>74.859999999999985</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="3"/>
-        <v>76.949999999999989</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="4"/>
-        <v>76.949999999999989</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="5"/>
-        <v>76.949999999999989</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="M16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>B+</v>
+        <f>ROUND(G16,0)</f>
+        <v>75</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f>IF(H16&gt;=90, "A+", IF(H16&gt;=86, "A", IF(H16&gt;=80, "A-", IF(H16&gt;=77, "B+", IF(H16&gt;=73, "B", IF(H16&gt;=70, "B-", IF(H16&gt;=67, "C+", IF(H16&gt;=63, "C", IF(H16&gt;=60, "C-", "F")))))))))</f>
+        <v>B</v>
       </c>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B17 * 0.5 + C17 * 0.5), 2)</f>
+        <v>45.5</v>
       </c>
       <c r="E17" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>75.359999999999985</v>
       </c>
       <c r="F17" s="1">
-        <v>34</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E17 + (99.4 - MAX($E$2:$E$25)), E17)</f>
+        <v>75.359999999999985</v>
       </c>
       <c r="G17" s="1">
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>75.359999999999985</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
-        <v>51.6</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="3"/>
-        <v>72.55</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="4"/>
-        <v>72.55</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="5"/>
-        <v>72.55</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="M17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>ROUND(G17,0)</f>
+        <v>75</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f>IF(H17&gt;=90, "A+", IF(H17&gt;=86, "A", IF(H17&gt;=80, "A-", IF(H17&gt;=77, "B+", IF(H17&gt;=73, "B", IF(H17&gt;=70, "B-", IF(H17&gt;=67, "C+", IF(H17&gt;=63, "C", IF(H17&gt;=60, "C-", "F")))))))))</f>
         <v>B</v>
       </c>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <f xml:space="preserve"> ROUND(( B18 * 0.5 + C18 * 0.5), 2)</f>
+        <v>39.5</v>
       </c>
       <c r="E18" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>69.359999999999985</v>
       </c>
       <c r="F18" s="1">
-        <v>34</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E18 + (99.4 - MAX($E$2:$E$25)), E18)</f>
+        <v>69.359999999999985</v>
       </c>
       <c r="G18" s="1">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>69.359999999999985</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
-        <v>51.4</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="3"/>
-        <v>72.349999999999994</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="4"/>
-        <v>72.349999999999994</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="5"/>
-        <v>72.349999999999994</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="M18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>B-</v>
+        <f>ROUND(G18,0)</f>
+        <v>69</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f>IF(H18&gt;=90, "A+", IF(H18&gt;=86, "A", IF(H18&gt;=80, "A-", IF(H18&gt;=77, "B+", IF(H18&gt;=73, "B", IF(H18&gt;=70, "B-", IF(H18&gt;=67, "C+", IF(H18&gt;=63, "C", IF(H18&gt;=60, "C-", "F")))))))))</f>
+        <v>C+</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -1445,46 +1214,34 @@
         <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B19 * 0.5 + C19 * 0.5), 2)</f>
+        <v>35</v>
       </c>
       <c r="E19" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>64.859999999999985</v>
       </c>
       <c r="F19" s="1">
-        <v>24</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E19 + (99.4 - MAX($E$2:$E$25)), E19)</f>
+        <v>64.859999999999985</v>
       </c>
       <c r="G19" s="1">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>64.859999999999985</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="3"/>
-        <v>68.949999999999989</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="4"/>
-        <v>68.949999999999989</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="5"/>
-        <v>68.949999999999989</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="M19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>C+</v>
+        <f>ROUND(G19,0)</f>
+        <v>65</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f>IF(H19&gt;=90, "A+", IF(H19&gt;=86, "A", IF(H19&gt;=80, "A-", IF(H19&gt;=77, "B+", IF(H19&gt;=73, "B", IF(H19&gt;=70, "B-", IF(H19&gt;=67, "C+", IF(H19&gt;=63, "C", IF(H19&gt;=60, "C-", "F")))))))))</f>
+        <v>C</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -1493,46 +1250,34 @@
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B20 * 0.5 + C20 * 0.5), 2)</f>
+        <v>34</v>
       </c>
       <c r="E20" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>63.859999999999992</v>
       </c>
       <c r="F20" s="1">
-        <v>45</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E20 + (99.4 - MAX($E$2:$E$25)), E20)</f>
+        <v>63.859999999999992</v>
       </c>
       <c r="G20" s="1">
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>63.859999999999992</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
-        <v>47.2</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="3"/>
-        <v>68.150000000000006</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="4"/>
-        <v>68.150000000000006</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="5"/>
-        <v>68.150000000000006</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="M20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>C+</v>
+        <f>ROUND(G20,0)</f>
+        <v>64</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f>IF(H20&gt;=90, "A+", IF(H20&gt;=86, "A", IF(H20&gt;=80, "A-", IF(H20&gt;=77, "B+", IF(H20&gt;=73, "B", IF(H20&gt;=70, "B-", IF(H20&gt;=67, "C+", IF(H20&gt;=63, "C", IF(H20&gt;=60, "C-", "F")))))))))</f>
+        <v>C</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1540,187 +1285,139 @@
         <v>28</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B21 * 0.5 + C21 * 0.5), 2)</f>
+        <v>34.5</v>
       </c>
       <c r="E21" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>64.359999999999985</v>
       </c>
       <c r="F21" s="1">
-        <v>33</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E21 + (99.4 - MAX($E$2:$E$25)), E21)</f>
+        <v>64.359999999999985</v>
       </c>
       <c r="G21" s="1">
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>64.359999999999985</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
-        <v>42.6</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="3"/>
-        <v>63.55</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="4"/>
-        <v>63.55</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="5"/>
-        <v>63.55</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="1"/>
+        <f>ROUND(G21,0)</f>
         <v>64</v>
       </c>
-      <c r="M21" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I21" s="1" t="str">
+        <f>IF(H21&gt;=90, "A+", IF(H21&gt;=86, "A", IF(H21&gt;=80, "A-", IF(H21&gt;=77, "B+", IF(H21&gt;=73, "B", IF(H21&gt;=70, "B-", IF(H21&gt;=67, "C+", IF(H21&gt;=63, "C", IF(H21&gt;=60, "C-", "F")))))))))</f>
         <v>C</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B22 * 0.5 + C22 * 0.5), 2)</f>
+        <v>25.5</v>
       </c>
       <c r="E22" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>55.359999999999992</v>
       </c>
       <c r="F22" s="1">
-        <v>16</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E22 + (99.4 - MAX($E$2:$E$25)), E22)</f>
+        <v>55.359999999999992</v>
       </c>
       <c r="G22" s="1">
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
-        <v>35.6</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="3"/>
-        <v>56.55</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="4"/>
-        <v>56.55</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="5"/>
+        <f>ROUND(G22,0)</f>
         <v>60</v>
       </c>
-      <c r="L22" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I22" s="1" t="str">
+        <f>IF(H22&gt;=90, "A+", IF(H22&gt;=86, "A", IF(H22&gt;=80, "A-", IF(H22&gt;=77, "B+", IF(H22&gt;=73, "B", IF(H22&gt;=70, "B-", IF(H22&gt;=67, "C+", IF(H22&gt;=63, "C", IF(H22&gt;=60, "C-", "F")))))))))</f>
         <v>C-</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B23 * 0.5 + C23 * 0.5), 2)</f>
+        <v>19.5</v>
       </c>
       <c r="E23" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>49.359999999999992</v>
       </c>
       <c r="F23" s="1">
-        <v>13</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E23 + (99.4 - MAX($E$2:$E$25)), E23)</f>
+        <v>49.359999999999992</v>
       </c>
       <c r="G23" s="1">
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>49.359999999999992</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="3"/>
-        <v>56.15</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="4"/>
-        <v>56.15</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="L23" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="M23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>C-</v>
+        <f>ROUND(G23,0)</f>
+        <v>49</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f>IF(H23&gt;=90, "A+", IF(H23&gt;=86, "A", IF(H23&gt;=80, "A-", IF(H23&gt;=77, "B+", IF(H23&gt;=73, "B", IF(H23&gt;=70, "B-", IF(H23&gt;=67, "C+", IF(H23&gt;=63, "C", IF(H23&gt;=60, "C-", "F")))))))))</f>
+        <v>F</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B24 * 0.5 + C24 * 0.5), 2)</f>
+        <v>19</v>
       </c>
       <c r="E24" s="1">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>48.859999999999992</v>
       </c>
       <c r="F24" s="1">
-        <v>27</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E24 + (99.4 - MAX($E$2:$E$25)), E24)</f>
+        <v>48.859999999999992</v>
       </c>
       <c r="G24" s="1">
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>48.859999999999992</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
-        <v>32.9</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="3"/>
-        <v>53.849999999999994</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="4"/>
-        <v>53.849999999999994</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="M24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>C-</v>
+        <f>ROUND(G24,0)</f>
+        <v>49</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f>IF(H24&gt;=90, "A+", IF(H24&gt;=86, "A", IF(H24&gt;=80, "A-", IF(H24&gt;=77, "B+", IF(H24&gt;=73, "B", IF(H24&gt;=70, "B-", IF(H24&gt;=67, "C+", IF(H24&gt;=63, "C", IF(H24&gt;=60, "C-", "F")))))))))</f>
+        <v>F</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1731,42 +1428,30 @@
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>100</v>
+        <f xml:space="preserve"> ROUND(( B25 * 0.5 + C25 * 0.5), 2)</f>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>29.859999999999992</v>
       </c>
       <c r="F25" s="1">
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E25 + (99.4 - MAX($E$2:$E$25)), E25)</f>
+        <v>29.859999999999992</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
+        <f>ROUND(G25,0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="1">
-        <f xml:space="preserve"> ROUND((B25 * 0.05 + C25 * 0.05 + D25 * 0.05 + E25*0.05 + F25 * 0.35 + G25 * 0.35), 2)</f>
-        <v>15</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="3"/>
-        <v>35.949999999999996</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="4"/>
-        <v>35.949999999999996</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I25" s="1" t="str">
+        <f>IF(H25&gt;=90, "A+", IF(H25&gt;=86, "A", IF(H25&gt;=80, "A-", IF(H25&gt;=77, "B+", IF(H25&gt;=73, "B", IF(H25&gt;=70, "B-", IF(H25&gt;=67, "C+", IF(H25&gt;=63, "C", IF(H25&gt;=60, "C-", "F")))))))))</f>
         <v>F</v>
       </c>
     </row>
@@ -1775,56 +1460,40 @@
         <v>13</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ref="B26:E26" si="6">ROUND(AVERAGE(B2:B25),2)</f>
-        <v>87.5</v>
+        <f>ROUND(AVERAGE(B2:B25),2)</f>
+        <v>44.13</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
-        <v>89.58</v>
+        <f>ROUND(AVERAGE(C2:C25),2)</f>
+        <v>51.13</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
-        <v>93.75</v>
+        <f t="shared" ref="D26:G26" si="2">ROUND(AVERAGE(D2:D25),2)</f>
+        <v>47.63</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="6"/>
-        <v>97.92</v>
+        <f t="shared" si="2"/>
+        <v>77.48</v>
       </c>
       <c r="F26" s="1">
-        <f>ROUND(AVERAGE(F2:F25),2)</f>
-        <v>44.13</v>
+        <f t="shared" si="2"/>
+        <v>77.48</v>
       </c>
       <c r="G26" s="1">
-        <f>ROUND(AVERAGE(G2:G25),2)</f>
-        <v>51.13</v>
+        <f t="shared" si="2"/>
+        <v>75.72</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26:K26" si="7">ROUND(AVERAGE(H2:H25),2)</f>
-        <v>56.54</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="7"/>
-        <v>77.45</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="7"/>
-        <v>77.45</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="7"/>
-        <v>76.239999999999995</v>
-      </c>
-      <c r="L26" s="1">
-        <f>ROUND(AVERAGE(L2:L25),2)</f>
-        <v>76.25</v>
-      </c>
-      <c r="M26" s="1" t="str">
-        <f t="shared" ref="M26" si="8">IF(L26&gt;=90, "A+", IF(L26&gt;=86, "A", IF(L26&gt;=80, "A-", IF(L26&gt;=77, "B+", IF(L26&gt;=73, "B", IF(L26&gt;=70, "B-", IF(L26&gt;=67, "C+", IF(L26&gt;=63, "C", IF(L26&gt;=60, "C-", "F")))))))))</f>
+        <f>ROUND(AVERAGE(H2:H25),2)</f>
+        <v>75.540000000000006</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" ref="I26" si="3">IF(H26&gt;=90, "A+", IF(H26&gt;=86, "A", IF(H26&gt;=80, "A-", IF(H26&gt;=77, "B+", IF(H26&gt;=73, "B", IF(H26&gt;=70, "B-", IF(H26&gt;=67, "C+", IF(H26&gt;=63, "C", IF(H26&gt;=60, "C-", "F")))))))))</f>
         <v>B</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I25">
     <sortCondition descending="1" ref="H2:H25"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1833,14 +1502,14 @@
       <formula>G27&lt;59.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L26">
+  <conditionalFormatting sqref="H2:H26">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>K2&lt;59.5</formula>
+      <formula>G2&lt;59.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M26 J27:J80">
+  <conditionalFormatting sqref="I2:I26 J27:J80">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>I2&lt;60</formula>
+      <formula>H2&lt;60</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A7C5D2-2B90-B245-AABE-F15170DAC8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCCF54BE-1509-C54C-976D-6567A4E87765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="600" windowWidth="24840" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,7 +555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
@@ -602,25 +604,25 @@
         <v>29</v>
       </c>
       <c r="B2" s="1">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1">
         <f xml:space="preserve"> ROUND(( B2 * 0.5 + C2 * 0.5), 2)</f>
-        <v>82.5</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1">
-        <f>D2 + (IF($D$26 &lt; 77.49, 77.49, $D$26) - $D$26)</f>
-        <v>112.35999999999999</v>
+        <f>D2 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>120.8</v>
       </c>
       <c r="F2" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E2 + (99.4 - MAX($E$2:$E$25)), E2)</f>
-        <v>112.35999999999999</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E2 + (99.49 - MAX($E$2:$E$25)), E2)</f>
+        <v>120.8</v>
       </c>
       <c r="G2" s="1">
-        <f>IF(AND(OR(B2=100,C2=100),F2&gt;99.49),100,IF(AND(B2&lt;100,C2&lt;100,F2&gt;99.49),99.49,IF(AND(F2&gt;=54.5,F2&lt;=59.4),60,IF(OR(B2=0,C2=0),0,F2))))</f>
+        <f>IF(AND(OR(B2=100,C2=100),F2&gt;99.49),100,IF(AND(B2&lt;100,C2&lt;100,F2&gt;99.49),99.49,IF(AND(F2&gt;=56.5,F2&lt;=59.4),60,IF(OR(B2=0,C2=0),0,F2))))</f>
         <v>99.49</v>
       </c>
       <c r="H2" s="1">
@@ -638,25 +640,25 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1">
         <f xml:space="preserve"> ROUND(( B3 * 0.5 + C3 * 0.5), 2)</f>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E25" si="0">D3 + (IF($D$26 &lt; 77.49, 77.49, $D$26) - $D$26)</f>
-        <v>102.85999999999999</v>
+        <f>D3 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>116.8</v>
       </c>
       <c r="F3" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E3 + (99.4 - MAX($E$2:$E$25)), E3)</f>
-        <v>102.85999999999999</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E3 + (99.49 - MAX($E$2:$E$25)), E3)</f>
+        <v>116.8</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G25" si="1">IF(AND(OR(B3=100,C3=100),F3&gt;99.49),100,IF(AND(B3&lt;100,C3&lt;100,F3&gt;99.49),99.49,IF(AND(F3&gt;=54.5,F3&lt;=59.4),60,IF(OR(B3=0,C3=0),0,F3))))</f>
+        <f t="shared" ref="G3:G25" si="0">IF(AND(OR(B3=100,C3=100),F3&gt;99.49),100,IF(AND(B3&lt;100,C3&lt;100,F3&gt;99.49),99.49,IF(AND(F3&gt;=56.5,F3&lt;=59.4),60,IF(OR(B3=0,C3=0),0,F3))))</f>
         <v>99.49</v>
       </c>
       <c r="H3" s="1">
@@ -674,25 +676,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1">
         <v>87</v>
       </c>
       <c r="D4" s="1">
         <f xml:space="preserve"> ROUND(( B4 * 0.5 + C4 * 0.5), 2)</f>
-        <v>70.5</v>
+        <v>91</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>100.35999999999999</v>
+        <f>D4 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>113.8</v>
       </c>
       <c r="F4" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E4 + (99.4 - MAX($E$2:$E$25)), E4)</f>
-        <v>100.35999999999999</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E4 + (99.49 - MAX($E$2:$E$25)), E4)</f>
+        <v>113.8</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>99.49</v>
       </c>
       <c r="H4" s="1">
@@ -710,30 +712,30 @@
         <v>22</v>
       </c>
       <c r="B5" s="1">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1">
         <v>72</v>
       </c>
       <c r="D5" s="1">
         <f xml:space="preserve"> ROUND(( B5 * 0.5 + C5 * 0.5), 2)</f>
-        <v>68.5</v>
+        <v>79.5</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>98.359999999999985</v>
+        <f>D5 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>102.3</v>
       </c>
       <c r="F5" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E5 + (99.4 - MAX($E$2:$E$25)), E5)</f>
-        <v>98.359999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E5 + (99.49 - MAX($E$2:$E$25)), E5)</f>
+        <v>102.3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>98.359999999999985</v>
+        <f t="shared" si="0"/>
+        <v>99.49</v>
       </c>
       <c r="H5" s="1">
         <f>ROUND(G5,0)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>IF(H5&gt;=90, "A+", IF(H5&gt;=86, "A", IF(H5&gt;=80, "A-", IF(H5&gt;=77, "B+", IF(H5&gt;=73, "B", IF(H5&gt;=70, "B-", IF(H5&gt;=67, "C+", IF(H5&gt;=63, "C", IF(H5&gt;=60, "C-", "F")))))))))</f>
@@ -746,30 +748,30 @@
         <v>24</v>
       </c>
       <c r="B6" s="1">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1">
         <v>67</v>
       </c>
       <c r="D6" s="1">
         <f xml:space="preserve"> ROUND(( B6 * 0.5 + C6 * 0.5), 2)</f>
-        <v>65.5</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>95.359999999999985</v>
+        <f>D6 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>97.8</v>
       </c>
       <c r="F6" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E6 + (99.4 - MAX($E$2:$E$25)), E6)</f>
-        <v>95.359999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E6 + (99.49 - MAX($E$2:$E$25)), E6)</f>
+        <v>97.8</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
-        <v>95.359999999999985</v>
+        <f t="shared" si="0"/>
+        <v>97.8</v>
       </c>
       <c r="H6" s="1">
         <f>ROUND(G6,0)</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>IF(H6&gt;=90, "A+", IF(H6&gt;=86, "A", IF(H6&gt;=80, "A-", IF(H6&gt;=77, "B+", IF(H6&gt;=73, "B", IF(H6&gt;=70, "B-", IF(H6&gt;=67, "C+", IF(H6&gt;=63, "C", IF(H6&gt;=60, "C-", "F")))))))))</f>
@@ -782,26 +784,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1">
         <f xml:space="preserve"> ROUND(( B7 * 0.5 + C7 * 0.5), 2)</f>
-        <v>64.5</v>
+        <v>71.5</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>94.359999999999985</v>
+        <f>D7 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>94.3</v>
       </c>
       <c r="F7" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E7 + (99.4 - MAX($E$2:$E$25)), E7)</f>
-        <v>94.359999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E7 + (99.49 - MAX($E$2:$E$25)), E7)</f>
+        <v>94.3</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>94.359999999999985</v>
+        <f t="shared" si="0"/>
+        <v>94.3</v>
       </c>
       <c r="H7" s="1">
         <f>ROUND(G7,0)</f>
@@ -828,24 +830,24 @@
         <v>62.5</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>92.359999999999985</v>
+        <f>D8 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>85.3</v>
       </c>
       <c r="F8" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E8 + (99.4 - MAX($E$2:$E$25)), E8)</f>
-        <v>92.359999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E8 + (99.49 - MAX($E$2:$E$25)), E8)</f>
+        <v>85.3</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>92.359999999999985</v>
+        <f t="shared" si="0"/>
+        <v>85.3</v>
       </c>
       <c r="H8" s="1">
         <f>ROUND(G8,0)</f>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>IF(H8&gt;=90, "A+", IF(H8&gt;=86, "A", IF(H8&gt;=80, "A-", IF(H8&gt;=77, "B+", IF(H8&gt;=73, "B", IF(H8&gt;=70, "B-", IF(H8&gt;=67, "C+", IF(H8&gt;=63, "C", IF(H8&gt;=60, "C-", "F")))))))))</f>
-        <v>A+</v>
+        <v>A-</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -863,24 +865,24 @@
         <v>56.5</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>86.359999999999985</v>
+        <f>D9 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>79.3</v>
       </c>
       <c r="F9" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E9 + (99.4 - MAX($E$2:$E$25)), E9)</f>
-        <v>86.359999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E9 + (99.49 - MAX($E$2:$E$25)), E9)</f>
+        <v>79.3</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>86.359999999999985</v>
+        <f t="shared" si="0"/>
+        <v>79.3</v>
       </c>
       <c r="H9" s="1">
         <f>ROUND(G9,0)</f>
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>IF(H9&gt;=90, "A+", IF(H9&gt;=86, "A", IF(H9&gt;=80, "A-", IF(H9&gt;=77, "B+", IF(H9&gt;=73, "B", IF(H9&gt;=70, "B-", IF(H9&gt;=67, "C+", IF(H9&gt;=63, "C", IF(H9&gt;=60, "C-", "F")))))))))</f>
-        <v>A</v>
+        <v>B+</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -900,24 +902,24 @@
         <v>54</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>83.859999999999985</v>
+        <f>D10 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>76.8</v>
       </c>
       <c r="F10" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E10 + (99.4 - MAX($E$2:$E$25)), E10)</f>
-        <v>83.859999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E10 + (99.49 - MAX($E$2:$E$25)), E10)</f>
+        <v>76.8</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>83.859999999999985</v>
+        <f t="shared" si="0"/>
+        <v>76.8</v>
       </c>
       <c r="H10" s="1">
         <f>ROUND(G10,0)</f>
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>IF(H10&gt;=90, "A+", IF(H10&gt;=86, "A", IF(H10&gt;=80, "A-", IF(H10&gt;=77, "B+", IF(H10&gt;=73, "B", IF(H10&gt;=70, "B-", IF(H10&gt;=67, "C+", IF(H10&gt;=63, "C", IF(H10&gt;=60, "C-", "F")))))))))</f>
-        <v>A-</v>
+        <v>B+</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -936,24 +938,24 @@
         <v>51.5</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>81.359999999999985</v>
+        <f>D11 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>74.3</v>
       </c>
       <c r="F11" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E11 + (99.4 - MAX($E$2:$E$25)), E11)</f>
-        <v>81.359999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E11 + (99.49 - MAX($E$2:$E$25)), E11)</f>
+        <v>74.3</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>81.359999999999985</v>
+        <f t="shared" si="0"/>
+        <v>74.3</v>
       </c>
       <c r="H11" s="1">
         <f>ROUND(G11,0)</f>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>IF(H11&gt;=90, "A+", IF(H11&gt;=86, "A", IF(H11&gt;=80, "A-", IF(H11&gt;=77, "B+", IF(H11&gt;=73, "B", IF(H11&gt;=70, "B-", IF(H11&gt;=67, "C+", IF(H11&gt;=63, "C", IF(H11&gt;=60, "C-", "F")))))))))</f>
-        <v>A-</v>
+        <v>B</v>
       </c>
       <c r="O11" s="2"/>
     </row>
@@ -972,24 +974,24 @@
         <v>49.5</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>79.359999999999985</v>
+        <f>D12 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>72.3</v>
       </c>
       <c r="F12" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E12 + (99.4 - MAX($E$2:$E$25)), E12)</f>
-        <v>79.359999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E12 + (99.49 - MAX($E$2:$E$25)), E12)</f>
+        <v>72.3</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>79.359999999999985</v>
+        <f t="shared" si="0"/>
+        <v>72.3</v>
       </c>
       <c r="H12" s="1">
         <f>ROUND(G12,0)</f>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>IF(H12&gt;=90, "A+", IF(H12&gt;=86, "A", IF(H12&gt;=80, "A-", IF(H12&gt;=77, "B+", IF(H12&gt;=73, "B", IF(H12&gt;=70, "B-", IF(H12&gt;=67, "C+", IF(H12&gt;=63, "C", IF(H12&gt;=60, "C-", "F")))))))))</f>
-        <v>B+</v>
+        <v>B-</v>
       </c>
       <c r="O12" s="2"/>
     </row>
@@ -1008,24 +1010,24 @@
         <v>49</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>78.859999999999985</v>
+        <f>D13 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>71.8</v>
       </c>
       <c r="F13" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E13 + (99.4 - MAX($E$2:$E$25)), E13)</f>
-        <v>78.859999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E13 + (99.49 - MAX($E$2:$E$25)), E13)</f>
+        <v>71.8</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>78.859999999999985</v>
+        <f t="shared" si="0"/>
+        <v>71.8</v>
       </c>
       <c r="H13" s="1">
         <f>ROUND(G13,0)</f>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>IF(H13&gt;=90, "A+", IF(H13&gt;=86, "A", IF(H13&gt;=80, "A-", IF(H13&gt;=77, "B+", IF(H13&gt;=73, "B", IF(H13&gt;=70, "B-", IF(H13&gt;=67, "C+", IF(H13&gt;=63, "C", IF(H13&gt;=60, "C-", "F")))))))))</f>
-        <v>B+</v>
+        <v>B-</v>
       </c>
       <c r="O13" s="2"/>
     </row>
@@ -1044,24 +1046,24 @@
         <v>49</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>78.859999999999985</v>
+        <f>D14 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>71.8</v>
       </c>
       <c r="F14" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E14 + (99.4 - MAX($E$2:$E$25)), E14)</f>
-        <v>78.859999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E14 + (99.49 - MAX($E$2:$E$25)), E14)</f>
+        <v>71.8</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>78.859999999999985</v>
+        <f t="shared" si="0"/>
+        <v>71.8</v>
       </c>
       <c r="H14" s="1">
         <f>ROUND(G14,0)</f>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>IF(H14&gt;=90, "A+", IF(H14&gt;=86, "A", IF(H14&gt;=80, "A-", IF(H14&gt;=77, "B+", IF(H14&gt;=73, "B", IF(H14&gt;=70, "B-", IF(H14&gt;=67, "C+", IF(H14&gt;=63, "C", IF(H14&gt;=60, "C-", "F")))))))))</f>
-        <v>B+</v>
+        <v>B-</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -1080,96 +1082,96 @@
         <v>49</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>78.859999999999985</v>
+        <f>D15 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>71.8</v>
       </c>
       <c r="F15" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E15 + (99.4 - MAX($E$2:$E$25)), E15)</f>
-        <v>78.859999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E15 + (99.49 - MAX($E$2:$E$25)), E15)</f>
+        <v>71.8</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>78.859999999999985</v>
+        <f t="shared" si="0"/>
+        <v>71.8</v>
       </c>
       <c r="H15" s="1">
         <f>ROUND(G15,0)</f>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>IF(H15&gt;=90, "A+", IF(H15&gt;=86, "A", IF(H15&gt;=80, "A-", IF(H15&gt;=77, "B+", IF(H15&gt;=73, "B", IF(H15&gt;=70, "B-", IF(H15&gt;=67, "C+", IF(H15&gt;=63, "C", IF(H15&gt;=60, "C-", "F")))))))))</f>
-        <v>B+</v>
+        <v>B-</v>
       </c>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1">
         <f xml:space="preserve"> ROUND(( B16 * 0.5 + C16 * 0.5), 2)</f>
-        <v>45</v>
+        <v>45.5</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>74.859999999999985</v>
+        <f>D16 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>68.3</v>
       </c>
       <c r="F16" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E16 + (99.4 - MAX($E$2:$E$25)), E16)</f>
-        <v>74.859999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E16 + (99.49 - MAX($E$2:$E$25)), E16)</f>
+        <v>68.3</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>74.859999999999985</v>
+        <f t="shared" si="0"/>
+        <v>68.3</v>
       </c>
       <c r="H16" s="1">
         <f>ROUND(G16,0)</f>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>IF(H16&gt;=90, "A+", IF(H16&gt;=86, "A", IF(H16&gt;=80, "A-", IF(H16&gt;=77, "B+", IF(H16&gt;=73, "B", IF(H16&gt;=70, "B-", IF(H16&gt;=67, "C+", IF(H16&gt;=63, "C", IF(H16&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <v>C+</v>
       </c>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1">
         <f xml:space="preserve"> ROUND(( B17 * 0.5 + C17 * 0.5), 2)</f>
-        <v>45.5</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>75.359999999999985</v>
+        <f>D17 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>67.8</v>
       </c>
       <c r="F17" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E17 + (99.4 - MAX($E$2:$E$25)), E17)</f>
-        <v>75.359999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E17 + (99.49 - MAX($E$2:$E$25)), E17)</f>
+        <v>67.8</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>75.359999999999985</v>
+        <f t="shared" si="0"/>
+        <v>67.8</v>
       </c>
       <c r="H17" s="1">
         <f>ROUND(G17,0)</f>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>IF(H17&gt;=90, "A+", IF(H17&gt;=86, "A", IF(H17&gt;=80, "A-", IF(H17&gt;=77, "B+", IF(H17&gt;=73, "B", IF(H17&gt;=70, "B-", IF(H17&gt;=67, "C+", IF(H17&gt;=63, "C", IF(H17&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <v>C+</v>
       </c>
       <c r="O17" s="2"/>
     </row>
@@ -1188,24 +1190,24 @@
         <v>39.5</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>69.359999999999985</v>
+        <f>D18 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>62.3</v>
       </c>
       <c r="F18" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E18 + (99.4 - MAX($E$2:$E$25)), E18)</f>
-        <v>69.359999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E18 + (99.49 - MAX($E$2:$E$25)), E18)</f>
+        <v>62.3</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>69.359999999999985</v>
+        <f t="shared" si="0"/>
+        <v>62.3</v>
       </c>
       <c r="H18" s="1">
         <f>ROUND(G18,0)</f>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I18" s="1" t="str">
         <f>IF(H18&gt;=90, "A+", IF(H18&gt;=86, "A", IF(H18&gt;=80, "A-", IF(H18&gt;=77, "B+", IF(H18&gt;=73, "B", IF(H18&gt;=70, "B-", IF(H18&gt;=67, "C+", IF(H18&gt;=63, "C", IF(H18&gt;=60, "C-", "F")))))))))</f>
-        <v>C+</v>
+        <v>C-</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -1224,60 +1226,60 @@
         <v>35</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>64.859999999999985</v>
+        <f>D19 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>57.8</v>
       </c>
       <c r="F19" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E19 + (99.4 - MAX($E$2:$E$25)), E19)</f>
-        <v>64.859999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E19 + (99.49 - MAX($E$2:$E$25)), E19)</f>
+        <v>57.8</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>64.859999999999985</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="H19" s="1">
         <f>ROUND(G19,0)</f>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>IF(H19&gt;=90, "A+", IF(H19&gt;=86, "A", IF(H19&gt;=80, "A-", IF(H19&gt;=77, "B+", IF(H19&gt;=73, "B", IF(H19&gt;=70, "B-", IF(H19&gt;=67, "C+", IF(H19&gt;=63, "C", IF(H19&gt;=60, "C-", "F")))))))))</f>
-        <v>C</v>
+        <v>C-</v>
       </c>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1">
         <f xml:space="preserve"> ROUND(( B20 * 0.5 + C20 * 0.5), 2)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>63.859999999999992</v>
+        <f>D20 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>57.8</v>
       </c>
       <c r="F20" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E20 + (99.4 - MAX($E$2:$E$25)), E20)</f>
-        <v>63.859999999999992</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E20 + (99.49 - MAX($E$2:$E$25)), E20)</f>
+        <v>57.8</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>63.859999999999992</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="H20" s="1">
         <f>ROUND(G20,0)</f>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I20" s="1" t="str">
         <f>IF(H20&gt;=90, "A+", IF(H20&gt;=86, "A", IF(H20&gt;=80, "A-", IF(H20&gt;=77, "B+", IF(H20&gt;=73, "B", IF(H20&gt;=70, "B-", IF(H20&gt;=67, "C+", IF(H20&gt;=63, "C", IF(H20&gt;=60, "C-", "F")))))))))</f>
-        <v>C</v>
+        <v>C-</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1295,50 +1297,50 @@
         <v>34.5</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>64.359999999999985</v>
+        <f>D21 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>57.3</v>
       </c>
       <c r="F21" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E21 + (99.4 - MAX($E$2:$E$25)), E21)</f>
-        <v>64.359999999999985</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E21 + (99.49 - MAX($E$2:$E$25)), E21)</f>
+        <v>57.3</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>64.359999999999985</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="H21" s="1">
         <f>ROUND(G21,0)</f>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>IF(H21&gt;=90, "A+", IF(H21&gt;=86, "A", IF(H21&gt;=80, "A-", IF(H21&gt;=77, "B+", IF(H21&gt;=73, "B", IF(H21&gt;=70, "B-", IF(H21&gt;=67, "C+", IF(H21&gt;=63, "C", IF(H21&gt;=60, "C-", "F")))))))))</f>
-        <v>C</v>
+        <v>C-</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1">
         <f xml:space="preserve"> ROUND(( B22 * 0.5 + C22 * 0.5), 2)</f>
-        <v>25.5</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>55.359999999999992</v>
+        <f>D22 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>56.8</v>
       </c>
       <c r="F22" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E22 + (99.4 - MAX($E$2:$E$25)), E22)</f>
-        <v>55.359999999999992</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E22 + (99.49 - MAX($E$2:$E$25)), E22)</f>
+        <v>56.8</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="H22" s="1">
@@ -1365,20 +1367,20 @@
         <v>19.5</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>49.359999999999992</v>
+        <f>D23 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>42.3</v>
       </c>
       <c r="F23" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E23 + (99.4 - MAX($E$2:$E$25)), E23)</f>
-        <v>49.359999999999992</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E23 + (99.49 - MAX($E$2:$E$25)), E23)</f>
+        <v>42.3</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>49.359999999999992</v>
+        <f t="shared" si="0"/>
+        <v>42.3</v>
       </c>
       <c r="H23" s="1">
         <f>ROUND(G23,0)</f>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I23" s="1" t="str">
         <f>IF(H23&gt;=90, "A+", IF(H23&gt;=86, "A", IF(H23&gt;=80, "A-", IF(H23&gt;=77, "B+", IF(H23&gt;=73, "B", IF(H23&gt;=70, "B-", IF(H23&gt;=67, "C+", IF(H23&gt;=63, "C", IF(H23&gt;=60, "C-", "F")))))))))</f>
@@ -1400,20 +1402,20 @@
         <v>19</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>48.859999999999992</v>
+        <f>D24 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>41.8</v>
       </c>
       <c r="F24" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E24 + (99.4 - MAX($E$2:$E$25)), E24)</f>
-        <v>48.859999999999992</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E24 + (99.49 - MAX($E$2:$E$25)), E24)</f>
+        <v>41.8</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>48.859999999999992</v>
+        <f t="shared" si="0"/>
+        <v>41.8</v>
       </c>
       <c r="H24" s="1">
         <f>ROUND(G24,0)</f>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>IF(H24&gt;=90, "A+", IF(H24&gt;=86, "A", IF(H24&gt;=80, "A-", IF(H24&gt;=77, "B+", IF(H24&gt;=73, "B", IF(H24&gt;=70, "B-", IF(H24&gt;=67, "C+", IF(H24&gt;=63, "C", IF(H24&gt;=60, "C-", "F")))))))))</f>
@@ -1425,25 +1427,25 @@
         <v>15</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
         <f xml:space="preserve"> ROUND(( B25 * 0.5 + C25 * 0.5), 2)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>29.859999999999992</v>
+        <f>D25 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
+        <v>26.299999999999997</v>
       </c>
       <c r="F25" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E25 + (99.4 - MAX($E$2:$E$25)), E25)</f>
-        <v>29.859999999999992</v>
+        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E25 + (99.49 - MAX($E$2:$E$25)), E25)</f>
+        <v>26.299999999999997</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="1">
@@ -1461,55 +1463,55 @@
       </c>
       <c r="B26" s="1">
         <f>ROUND(AVERAGE(B2:B25),2)</f>
-        <v>44.13</v>
+        <v>50.29</v>
       </c>
       <c r="C26" s="1">
         <f>ROUND(AVERAGE(C2:C25),2)</f>
-        <v>51.13</v>
+        <v>53.08</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:G26" si="2">ROUND(AVERAGE(D2:D25),2)</f>
-        <v>47.63</v>
+        <f t="shared" ref="D26:G26" si="1">ROUND(AVERAGE(D2:D25),2)</f>
+        <v>51.69</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="2"/>
-        <v>77.48</v>
+        <f t="shared" si="1"/>
+        <v>74.489999999999995</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="2"/>
-        <v>77.48</v>
+        <f t="shared" si="1"/>
+        <v>74.489999999999995</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="2"/>
-        <v>75.72</v>
+        <f t="shared" si="1"/>
+        <v>71.5</v>
       </c>
       <c r="H26" s="1">
         <f>ROUND(AVERAGE(H2:H25),2)</f>
-        <v>75.540000000000006</v>
+        <v>71.38</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f t="shared" ref="I26" si="3">IF(H26&gt;=90, "A+", IF(H26&gt;=86, "A", IF(H26&gt;=80, "A-", IF(H26&gt;=77, "B+", IF(H26&gt;=73, "B", IF(H26&gt;=70, "B-", IF(H26&gt;=67, "C+", IF(H26&gt;=63, "C", IF(H26&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <f t="shared" ref="I26" si="2">IF(H26&gt;=90, "A+", IF(H26&gt;=86, "A", IF(H26&gt;=80, "A-", IF(H26&gt;=77, "B+", IF(H26&gt;=73, "B", IF(H26&gt;=70, "B-", IF(H26&gt;=67, "C+", IF(H26&gt;=63, "C", IF(H26&gt;=60, "C-", "F")))))))))</f>
+        <v>B-</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I25">
-    <sortCondition descending="1" ref="H2:H25"/>
+    <sortCondition descending="1" ref="D2:D25"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I27:I80">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>G27&lt;59.5</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H2:H26">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>G2&lt;59.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I26 J27:J80">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>H2&lt;60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I80">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>G27&lt;59.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCCF54BE-1509-C54C-976D-6567A4E87765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8333B3D7-06F2-E34B-9AA7-FA070793A811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="600" windowWidth="24840" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,14 @@
   </si>
   <si>
     <t>423__23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423__25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,12 +210,6 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF7030A0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,9 +247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -610,27 +609,27 @@
         <v>97</v>
       </c>
       <c r="D2" s="1">
-        <f xml:space="preserve"> ROUND(( B2 * 0.5 + C2 * 0.5), 2)</f>
+        <f t="shared" ref="D2:D27" si="0" xml:space="preserve"> ROUND(( B2 * 0.5 + C2 * 0.5), 2)</f>
         <v>98</v>
       </c>
       <c r="E2" s="1">
-        <f>D2 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>120.8</v>
+        <f t="shared" ref="E2:E27" si="1">D2 + (IF($D$28 &lt; 75.65, 75.65, $D$28) - $D$28)</f>
+        <v>119.63</v>
       </c>
       <c r="F2" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E2 + (99.49 - MAX($E$2:$E$25)), E2)</f>
-        <v>120.8</v>
+        <f t="shared" ref="F2:F27" si="2">IF(MAX($E$2:$E$25) &lt; 99.49, E2 + (99.49 - MAX($E$2:$E$25)), E2)</f>
+        <v>119.63</v>
       </c>
       <c r="G2" s="1">
-        <f>IF(AND(OR(B2=100,C2=100),F2&gt;99.49),100,IF(AND(B2&lt;100,C2&lt;100,F2&gt;99.49),99.49,IF(AND(F2&gt;=56.5,F2&lt;=59.4),60,IF(OR(B2=0,C2=0),0,F2))))</f>
-        <v>99.49</v>
+        <f t="shared" ref="G2:G27" si="3">IF(AND(OR(B2=100, C2=100), F2&gt;99.49), 100, IF(AND(B2&lt;100, C2&lt;100, F2&gt;99.49), 99,  IF(OR(AND(F2&gt;=54.5, F2&lt;=59.4), F2&gt;=60), IF(F2&gt;=60, IF(F2+1&gt;99.49, 99, F2+1), 60), IF(OR(B2=0, C2=0), 0, F2))))</f>
+        <v>99</v>
       </c>
       <c r="H2" s="1">
-        <f>ROUND(G2,0)</f>
+        <f t="shared" ref="H2:H27" si="4">ROUND(G2,0)</f>
         <v>99</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF(H2&gt;=90, "A+", IF(H2&gt;=86, "A", IF(H2&gt;=80, "A-", IF(H2&gt;=77, "B+", IF(H2&gt;=73, "B", IF(H2&gt;=70, "B-", IF(H2&gt;=67, "C+", IF(H2&gt;=63, "C", IF(H2&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" ref="I2:I28" si="5">IF(H2&gt;=90, "A+", IF(H2&gt;=86, "A", IF(H2&gt;=80, "A-", IF(H2&gt;=77, "B+", IF(H2&gt;=73, "B", IF(H2&gt;=70, "B-", IF(H2&gt;=67, "C+", IF(H2&gt;=63, "C", IF(H2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O2" s="2"/>
@@ -646,27 +645,27 @@
         <v>96</v>
       </c>
       <c r="D3" s="1">
-        <f xml:space="preserve"> ROUND(( B3 * 0.5 + C3 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="E3" s="1">
-        <f>D3 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>116.8</v>
+        <f t="shared" si="1"/>
+        <v>115.63</v>
       </c>
       <c r="F3" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E3 + (99.49 - MAX($E$2:$E$25)), E3)</f>
-        <v>116.8</v>
+        <f t="shared" si="2"/>
+        <v>115.63</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G25" si="0">IF(AND(OR(B3=100,C3=100),F3&gt;99.49),100,IF(AND(B3&lt;100,C3&lt;100,F3&gt;99.49),99.49,IF(AND(F3&gt;=56.5,F3&lt;=59.4),60,IF(OR(B3=0,C3=0),0,F3))))</f>
-        <v>99.49</v>
+        <f t="shared" si="3"/>
+        <v>99</v>
       </c>
       <c r="H3" s="1">
-        <f>ROUND(G3,0)</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF(H3&gt;=90, "A+", IF(H3&gt;=86, "A", IF(H3&gt;=80, "A-", IF(H3&gt;=77, "B+", IF(H3&gt;=73, "B", IF(H3&gt;=70, "B-", IF(H3&gt;=67, "C+", IF(H3&gt;=63, "C", IF(H3&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>A+</v>
       </c>
       <c r="O3" s="2"/>
@@ -682,27 +681,27 @@
         <v>87</v>
       </c>
       <c r="D4" s="1">
-        <f xml:space="preserve"> ROUND(( B4 * 0.5 + C4 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="E4" s="1">
-        <f>D4 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>113.8</v>
+        <f t="shared" si="1"/>
+        <v>112.63</v>
       </c>
       <c r="F4" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E4 + (99.49 - MAX($E$2:$E$25)), E4)</f>
-        <v>113.8</v>
+        <f t="shared" si="2"/>
+        <v>112.63</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>99.49</v>
+        <f t="shared" si="3"/>
+        <v>99</v>
       </c>
       <c r="H4" s="1">
-        <f>ROUND(G4,0)</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IF(H4&gt;=90, "A+", IF(H4&gt;=86, "A", IF(H4&gt;=80, "A-", IF(H4&gt;=77, "B+", IF(H4&gt;=73, "B", IF(H4&gt;=70, "B-", IF(H4&gt;=67, "C+", IF(H4&gt;=63, "C", IF(H4&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>A+</v>
       </c>
       <c r="O4" s="2"/>
@@ -718,27 +717,27 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <f xml:space="preserve"> ROUND(( B5 * 0.5 + C5 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>79.5</v>
       </c>
       <c r="E5" s="1">
-        <f>D5 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>102.3</v>
+        <f t="shared" si="1"/>
+        <v>101.13</v>
       </c>
       <c r="F5" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E5 + (99.49 - MAX($E$2:$E$25)), E5)</f>
-        <v>102.3</v>
+        <f t="shared" si="2"/>
+        <v>101.13</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>99.49</v>
+        <f t="shared" si="3"/>
+        <v>99</v>
       </c>
       <c r="H5" s="1">
-        <f>ROUND(G5,0)</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>IF(H5&gt;=90, "A+", IF(H5&gt;=86, "A", IF(H5&gt;=80, "A-", IF(H5&gt;=77, "B+", IF(H5&gt;=73, "B", IF(H5&gt;=70, "B-", IF(H5&gt;=67, "C+", IF(H5&gt;=63, "C", IF(H5&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>A+</v>
       </c>
       <c r="O5" s="2"/>
@@ -754,27 +753,27 @@
         <v>67</v>
       </c>
       <c r="D6" s="1">
-        <f xml:space="preserve"> ROUND(( B6 * 0.5 + C6 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="E6" s="1">
-        <f>D6 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>97.8</v>
+        <f t="shared" si="1"/>
+        <v>96.63</v>
       </c>
       <c r="F6" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E6 + (99.49 - MAX($E$2:$E$25)), E6)</f>
-        <v>97.8</v>
+        <f t="shared" si="2"/>
+        <v>96.63</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>97.8</v>
+        <f t="shared" si="3"/>
+        <v>97.63</v>
       </c>
       <c r="H6" s="1">
-        <f>ROUND(G6,0)</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF(H6&gt;=90, "A+", IF(H6&gt;=86, "A", IF(H6&gt;=80, "A-", IF(H6&gt;=77, "B+", IF(H6&gt;=73, "B", IF(H6&gt;=70, "B-", IF(H6&gt;=67, "C+", IF(H6&gt;=63, "C", IF(H6&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>A+</v>
       </c>
       <c r="O6" s="2"/>
@@ -790,27 +789,27 @@
         <v>69</v>
       </c>
       <c r="D7" s="1">
-        <f xml:space="preserve"> ROUND(( B7 * 0.5 + C7 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>71.5</v>
       </c>
       <c r="E7" s="1">
-        <f>D7 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>94.3</v>
+        <f t="shared" si="1"/>
+        <v>93.13</v>
       </c>
       <c r="F7" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E7 + (99.49 - MAX($E$2:$E$25)), E7)</f>
-        <v>94.3</v>
+        <f t="shared" si="2"/>
+        <v>93.13</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>94.3</v>
+        <f t="shared" si="3"/>
+        <v>94.13</v>
       </c>
       <c r="H7" s="1">
-        <f>ROUND(G7,0)</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF(H7&gt;=90, "A+", IF(H7&gt;=86, "A", IF(H7&gt;=80, "A-", IF(H7&gt;=77, "B+", IF(H7&gt;=73, "B", IF(H7&gt;=70, "B-", IF(H7&gt;=67, "C+", IF(H7&gt;=63, "C", IF(H7&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>A+</v>
       </c>
       <c r="O7" s="2"/>
@@ -826,32 +825,32 @@
         <v>72</v>
       </c>
       <c r="D8" s="1">
-        <f xml:space="preserve"> ROUND(( B8 * 0.5 + C8 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
       <c r="E8" s="1">
-        <f>D8 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>85.3</v>
+        <f t="shared" si="1"/>
+        <v>84.13</v>
       </c>
       <c r="F8" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E8 + (99.49 - MAX($E$2:$E$25)), E8)</f>
-        <v>85.3</v>
+        <f t="shared" si="2"/>
+        <v>84.13</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>85.3</v>
+        <f t="shared" si="3"/>
+        <v>85.13</v>
       </c>
       <c r="H8" s="1">
-        <f>ROUND(G8,0)</f>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF(H8&gt;=90, "A+", IF(H8&gt;=86, "A", IF(H8&gt;=80, "A-", IF(H8&gt;=77, "B+", IF(H8&gt;=73, "B", IF(H8&gt;=70, "B-", IF(H8&gt;=67, "C+", IF(H8&gt;=63, "C", IF(H8&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>A-</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1">
@@ -861,27 +860,27 @@
         <v>57</v>
       </c>
       <c r="D9" s="1">
-        <f xml:space="preserve"> ROUND(( B9 * 0.5 + C9 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
       <c r="E9" s="1">
-        <f>D9 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>79.3</v>
+        <f t="shared" si="1"/>
+        <v>78.13</v>
       </c>
       <c r="F9" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E9 + (99.49 - MAX($E$2:$E$25)), E9)</f>
-        <v>79.3</v>
+        <f t="shared" si="2"/>
+        <v>78.13</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>79.3</v>
+        <f t="shared" si="3"/>
+        <v>79.13</v>
       </c>
       <c r="H9" s="1">
-        <f>ROUND(G9,0)</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF(H9&gt;=90, "A+", IF(H9&gt;=86, "A", IF(H9&gt;=80, "A-", IF(H9&gt;=77, "B+", IF(H9&gt;=73, "B", IF(H9&gt;=70, "B-", IF(H9&gt;=67, "C+", IF(H9&gt;=63, "C", IF(H9&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>B+</v>
       </c>
       <c r="N9" s="3"/>
@@ -898,27 +897,27 @@
         <v>53</v>
       </c>
       <c r="D10" s="1">
-        <f xml:space="preserve"> ROUND(( B10 * 0.5 + C10 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="E10" s="1">
-        <f>D10 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>76.8</v>
+        <f t="shared" si="1"/>
+        <v>75.63</v>
       </c>
       <c r="F10" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E10 + (99.49 - MAX($E$2:$E$25)), E10)</f>
-        <v>76.8</v>
+        <f t="shared" si="2"/>
+        <v>75.63</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>76.8</v>
+        <f t="shared" si="3"/>
+        <v>76.63</v>
       </c>
       <c r="H10" s="1">
-        <f>ROUND(G10,0)</f>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF(H10&gt;=90, "A+", IF(H10&gt;=86, "A", IF(H10&gt;=80, "A-", IF(H10&gt;=77, "B+", IF(H10&gt;=73, "B", IF(H10&gt;=70, "B-", IF(H10&gt;=67, "C+", IF(H10&gt;=63, "C", IF(H10&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>B+</v>
       </c>
       <c r="O10" s="2"/>
@@ -934,27 +933,27 @@
         <v>50</v>
       </c>
       <c r="D11" s="1">
-        <f xml:space="preserve"> ROUND(( B11 * 0.5 + C11 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>51.5</v>
       </c>
       <c r="E11" s="1">
-        <f>D11 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>74.3</v>
+        <f t="shared" si="1"/>
+        <v>73.13</v>
       </c>
       <c r="F11" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E11 + (99.49 - MAX($E$2:$E$25)), E11)</f>
-        <v>74.3</v>
+        <f t="shared" si="2"/>
+        <v>73.13</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>74.3</v>
+        <f t="shared" si="3"/>
+        <v>74.13</v>
       </c>
       <c r="H11" s="1">
-        <f>ROUND(G11,0)</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF(H11&gt;=90, "A+", IF(H11&gt;=86, "A", IF(H11&gt;=80, "A-", IF(H11&gt;=77, "B+", IF(H11&gt;=73, "B", IF(H11&gt;=70, "B-", IF(H11&gt;=67, "C+", IF(H11&gt;=63, "C", IF(H11&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="O11" s="2"/>
@@ -970,27 +969,27 @@
         <v>56</v>
       </c>
       <c r="D12" s="1">
-        <f xml:space="preserve"> ROUND(( B12 * 0.5 + C12 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>49.5</v>
       </c>
       <c r="E12" s="1">
-        <f>D12 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>72.3</v>
+        <f t="shared" si="1"/>
+        <v>71.13</v>
       </c>
       <c r="F12" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E12 + (99.49 - MAX($E$2:$E$25)), E12)</f>
-        <v>72.3</v>
+        <f t="shared" si="2"/>
+        <v>71.13</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>72.3</v>
+        <f t="shared" si="3"/>
+        <v>72.13</v>
       </c>
       <c r="H12" s="1">
-        <f>ROUND(G12,0)</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF(H12&gt;=90, "A+", IF(H12&gt;=86, "A", IF(H12&gt;=80, "A-", IF(H12&gt;=77, "B+", IF(H12&gt;=73, "B", IF(H12&gt;=70, "B-", IF(H12&gt;=67, "C+", IF(H12&gt;=63, "C", IF(H12&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>B-</v>
       </c>
       <c r="O12" s="2"/>
@@ -1006,27 +1005,27 @@
         <v>56</v>
       </c>
       <c r="D13" s="1">
-        <f xml:space="preserve"> ROUND(( B13 * 0.5 + C13 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E13" s="1">
-        <f>D13 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>71.8</v>
+        <f t="shared" si="1"/>
+        <v>70.63</v>
       </c>
       <c r="F13" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E13 + (99.49 - MAX($E$2:$E$25)), E13)</f>
-        <v>71.8</v>
+        <f t="shared" si="2"/>
+        <v>70.63</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>71.8</v>
+        <f t="shared" si="3"/>
+        <v>71.63</v>
       </c>
       <c r="H13" s="1">
-        <f>ROUND(G13,0)</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF(H13&gt;=90, "A+", IF(H13&gt;=86, "A", IF(H13&gt;=80, "A-", IF(H13&gt;=77, "B+", IF(H13&gt;=73, "B", IF(H13&gt;=70, "B-", IF(H13&gt;=67, "C+", IF(H13&gt;=63, "C", IF(H13&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>B-</v>
       </c>
       <c r="O13" s="2"/>
@@ -1042,27 +1041,27 @@
         <v>52</v>
       </c>
       <c r="D14" s="1">
-        <f xml:space="preserve"> ROUND(( B14 * 0.5 + C14 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E14" s="1">
-        <f>D14 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>71.8</v>
+        <f t="shared" si="1"/>
+        <v>70.63</v>
       </c>
       <c r="F14" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E14 + (99.49 - MAX($E$2:$E$25)), E14)</f>
-        <v>71.8</v>
+        <f t="shared" si="2"/>
+        <v>70.63</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>71.8</v>
+        <f t="shared" si="3"/>
+        <v>71.63</v>
       </c>
       <c r="H14" s="1">
-        <f>ROUND(G14,0)</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF(H14&gt;=90, "A+", IF(H14&gt;=86, "A", IF(H14&gt;=80, "A-", IF(H14&gt;=77, "B+", IF(H14&gt;=73, "B", IF(H14&gt;=70, "B-", IF(H14&gt;=67, "C+", IF(H14&gt;=63, "C", IF(H14&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>B-</v>
       </c>
       <c r="O14" s="2"/>
@@ -1078,438 +1077,508 @@
         <v>53</v>
       </c>
       <c r="D15" s="1">
-        <f xml:space="preserve"> ROUND(( B15 * 0.5 + C15 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E15" s="1">
-        <f>D15 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>71.8</v>
+        <f t="shared" si="1"/>
+        <v>70.63</v>
       </c>
       <c r="F15" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E15 + (99.49 - MAX($E$2:$E$25)), E15)</f>
-        <v>71.8</v>
+        <f t="shared" si="2"/>
+        <v>70.63</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>71.8</v>
+        <f t="shared" si="3"/>
+        <v>71.63</v>
       </c>
       <c r="H15" s="1">
-        <f>ROUND(G15,0)</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF(H15&gt;=90, "A+", IF(H15&gt;=86, "A", IF(H15&gt;=80, "A-", IF(H15&gt;=77, "B+", IF(H15&gt;=73, "B", IF(H15&gt;=70, "B-", IF(H15&gt;=67, "C+", IF(H15&gt;=63, "C", IF(H15&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>B-</v>
       </c>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1">
-        <f xml:space="preserve"> ROUND(( B16 * 0.5 + C16 * 0.5), 2)</f>
-        <v>45.5</v>
+        <f t="shared" si="0"/>
+        <v>47.5</v>
       </c>
       <c r="E16" s="1">
-        <f>D16 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>68.3</v>
+        <f t="shared" si="1"/>
+        <v>69.13</v>
       </c>
       <c r="F16" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E16 + (99.49 - MAX($E$2:$E$25)), E16)</f>
-        <v>68.3</v>
+        <f t="shared" si="2"/>
+        <v>69.13</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>68.3</v>
+        <f t="shared" si="3"/>
+        <v>70.13</v>
       </c>
       <c r="H16" s="1">
-        <f>ROUND(G16,0)</f>
-        <v>68</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF(H16&gt;=90, "A+", IF(H16&gt;=86, "A", IF(H16&gt;=80, "A-", IF(H16&gt;=77, "B+", IF(H16&gt;=73, "B", IF(H16&gt;=70, "B-", IF(H16&gt;=67, "C+", IF(H16&gt;=63, "C", IF(H16&gt;=60, "C-", "F")))))))))</f>
-        <v>C+</v>
+        <f t="shared" si="5"/>
+        <v>B-</v>
       </c>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1">
-        <f xml:space="preserve"> ROUND(( B17 * 0.5 + C17 * 0.5), 2)</f>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>45.5</v>
       </c>
       <c r="E17" s="1">
-        <f>D17 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>67.8</v>
+        <f t="shared" si="1"/>
+        <v>67.13</v>
       </c>
       <c r="F17" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E17 + (99.49 - MAX($E$2:$E$25)), E17)</f>
-        <v>67.8</v>
+        <f t="shared" si="2"/>
+        <v>67.13</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>67.8</v>
+        <f t="shared" si="3"/>
+        <v>68.13</v>
       </c>
       <c r="H17" s="1">
-        <f>ROUND(G17,0)</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF(H17&gt;=90, "A+", IF(H17&gt;=86, "A", IF(H17&gt;=80, "A-", IF(H17&gt;=77, "B+", IF(H17&gt;=73, "B", IF(H17&gt;=70, "B-", IF(H17&gt;=67, "C+", IF(H17&gt;=63, "C", IF(H17&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>C+</v>
       </c>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1">
         <v>45</v>
       </c>
       <c r="D18" s="1">
-        <f xml:space="preserve"> ROUND(( B18 * 0.5 + C18 * 0.5), 2)</f>
-        <v>39.5</v>
+        <f t="shared" si="0"/>
+        <v>45.5</v>
       </c>
       <c r="E18" s="1">
-        <f>D18 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>62.3</v>
+        <f t="shared" si="1"/>
+        <v>67.13</v>
       </c>
       <c r="F18" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E18 + (99.49 - MAX($E$2:$E$25)), E18)</f>
-        <v>62.3</v>
+        <f t="shared" si="2"/>
+        <v>67.13</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>62.3</v>
+        <f t="shared" si="3"/>
+        <v>68.13</v>
       </c>
       <c r="H18" s="1">
-        <f>ROUND(G18,0)</f>
-        <v>62</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF(H18&gt;=90, "A+", IF(H18&gt;=86, "A", IF(H18&gt;=80, "A-", IF(H18&gt;=77, "B+", IF(H18&gt;=73, "B", IF(H18&gt;=70, "B-", IF(H18&gt;=67, "C+", IF(H18&gt;=63, "C", IF(H18&gt;=60, "C-", "F")))))))))</f>
-        <v>C-</v>
+        <f t="shared" si="5"/>
+        <v>C+</v>
       </c>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1">
-        <f xml:space="preserve"> ROUND(( B19 * 0.5 + C19 * 0.5), 2)</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E19" s="1">
-        <f>D19 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>57.8</v>
+        <f t="shared" si="1"/>
+        <v>66.63</v>
       </c>
       <c r="F19" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E19 + (99.49 - MAX($E$2:$E$25)), E19)</f>
-        <v>57.8</v>
+        <f t="shared" si="2"/>
+        <v>66.63</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>67.63</v>
       </c>
       <c r="H19" s="1">
-        <f>ROUND(G19,0)</f>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF(H19&gt;=90, "A+", IF(H19&gt;=86, "A", IF(H19&gt;=80, "A-", IF(H19&gt;=77, "B+", IF(H19&gt;=73, "B", IF(H19&gt;=70, "B-", IF(H19&gt;=67, "C+", IF(H19&gt;=63, "C", IF(H19&gt;=60, "C-", "F")))))))))</f>
-        <v>C-</v>
+        <f t="shared" si="5"/>
+        <v>C+</v>
       </c>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1">
-        <f xml:space="preserve"> ROUND(( B20 * 0.5 + C20 * 0.5), 2)</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="E20" s="1">
-        <f>D20 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>57.8</v>
+        <f t="shared" si="1"/>
+        <v>62.63</v>
       </c>
       <c r="F20" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E20 + (99.49 - MAX($E$2:$E$25)), E20)</f>
-        <v>57.8</v>
+        <f t="shared" si="2"/>
+        <v>62.63</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>63.63</v>
       </c>
       <c r="H20" s="1">
-        <f>ROUND(G20,0)</f>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>64</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF(H20&gt;=90, "A+", IF(H20&gt;=86, "A", IF(H20&gt;=80, "A-", IF(H20&gt;=77, "B+", IF(H20&gt;=73, "B", IF(H20&gt;=70, "B-", IF(H20&gt;=67, "C+", IF(H20&gt;=63, "C", IF(H20&gt;=60, "C-", "F")))))))))</f>
-        <v>C-</v>
+        <f t="shared" si="5"/>
+        <v>C</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1">
-        <f xml:space="preserve"> ROUND(( B21 * 0.5 + C21 * 0.5), 2)</f>
-        <v>34.5</v>
+        <f t="shared" si="0"/>
+        <v>39.5</v>
       </c>
       <c r="E21" s="1">
-        <f>D21 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>57.3</v>
+        <f t="shared" si="1"/>
+        <v>61.13</v>
       </c>
       <c r="F21" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E21 + (99.49 - MAX($E$2:$E$25)), E21)</f>
-        <v>57.3</v>
+        <f t="shared" si="2"/>
+        <v>61.13</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>62.13</v>
       </c>
       <c r="H21" s="1">
-        <f>ROUND(G21,0)</f>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>62</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF(H21&gt;=90, "A+", IF(H21&gt;=86, "A", IF(H21&gt;=80, "A-", IF(H21&gt;=77, "B+", IF(H21&gt;=73, "B", IF(H21&gt;=70, "B-", IF(H21&gt;=67, "C+", IF(H21&gt;=63, "C", IF(H21&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>C-</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D22" s="1">
-        <f xml:space="preserve"> ROUND(( B22 * 0.5 + C22 * 0.5), 2)</f>
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>36.5</v>
       </c>
       <c r="E22" s="1">
-        <f>D22 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>56.8</v>
+        <f t="shared" si="1"/>
+        <v>58.13</v>
       </c>
       <c r="F22" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E22 + (99.49 - MAX($E$2:$E$25)), E22)</f>
-        <v>56.8</v>
+        <f t="shared" si="2"/>
+        <v>58.13</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H22" s="1">
-        <f>ROUND(G22,0)</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF(H22&gt;=90, "A+", IF(H22&gt;=86, "A", IF(H22&gt;=80, "A-", IF(H22&gt;=77, "B+", IF(H22&gt;=73, "B", IF(H22&gt;=70, "B-", IF(H22&gt;=67, "C+", IF(H22&gt;=63, "C", IF(H22&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>C-</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1">
-        <f xml:space="preserve"> ROUND(( B23 * 0.5 + C23 * 0.5), 2)</f>
-        <v>19.5</v>
+        <f t="shared" si="0"/>
+        <v>35.5</v>
       </c>
       <c r="E23" s="1">
-        <f>D23 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>42.3</v>
+        <f t="shared" si="1"/>
+        <v>57.13</v>
       </c>
       <c r="F23" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E23 + (99.49 - MAX($E$2:$E$25)), E23)</f>
-        <v>42.3</v>
+        <f t="shared" si="2"/>
+        <v>57.13</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>42.3</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="H23" s="1">
-        <f>ROUND(G23,0)</f>
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF(H23&gt;=90, "A+", IF(H23&gt;=86, "A", IF(H23&gt;=80, "A-", IF(H23&gt;=77, "B+", IF(H23&gt;=73, "B", IF(H23&gt;=70, "B-", IF(H23&gt;=67, "C+", IF(H23&gt;=63, "C", IF(H23&gt;=60, "C-", "F")))))))))</f>
-        <v>F</v>
+        <f t="shared" si="5"/>
+        <v>C-</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1">
-        <f xml:space="preserve"> ROUND(( B24 * 0.5 + C24 * 0.5), 2)</f>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="E24" s="1">
-        <f>D24 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>41.8</v>
+        <f t="shared" si="1"/>
+        <v>56.63</v>
       </c>
       <c r="F24" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E24 + (99.49 - MAX($E$2:$E$25)), E24)</f>
-        <v>41.8</v>
+        <f t="shared" si="2"/>
+        <v>56.63</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>41.8</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="H24" s="1">
-        <f>ROUND(G24,0)</f>
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF(H24&gt;=90, "A+", IF(H24&gt;=86, "A", IF(H24&gt;=80, "A-", IF(H24&gt;=77, "B+", IF(H24&gt;=73, "B", IF(H24&gt;=70, "B-", IF(H24&gt;=67, "C+", IF(H24&gt;=63, "C", IF(H24&gt;=60, "C-", "F")))))))))</f>
-        <v>F</v>
+        <f t="shared" si="5"/>
+        <v>C-</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1">
-        <f xml:space="preserve"> ROUND(( B25 * 0.5 + C25 * 0.5), 2)</f>
-        <v>3.5</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="E25" s="1">
-        <f>D25 + (IF($D$26 &lt; 74.49, 74.49, $D$26) - $D$26)</f>
-        <v>26.299999999999997</v>
+        <f t="shared" si="1"/>
+        <v>56.63</v>
       </c>
       <c r="F25" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E25 + (99.49 - MAX($E$2:$E$25)), E25)</f>
-        <v>26.299999999999997</v>
+        <f t="shared" si="2"/>
+        <v>56.63</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="H25" s="1">
-        <f>ROUND(G25,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>IF(H25&gt;=90, "A+", IF(H25&gt;=86, "A", IF(H25&gt;=80, "A-", IF(H25&gt;=77, "B+", IF(H25&gt;=73, "B", IF(H25&gt;=70, "B-", IF(H25&gt;=67, "C+", IF(H25&gt;=63, "C", IF(H25&gt;=60, "C-", "F")))))))))</f>
-        <v>F</v>
+        <f t="shared" si="5"/>
+        <v>C-</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>56.13</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>56.13</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>C-</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>55.63</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>55.63</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>C-</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="1">
-        <f>ROUND(AVERAGE(B2:B25),2)</f>
-        <v>50.29</v>
-      </c>
-      <c r="C26" s="1">
-        <f>ROUND(AVERAGE(C2:C25),2)</f>
-        <v>53.08</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" ref="D26:G26" si="1">ROUND(AVERAGE(D2:D25),2)</f>
-        <v>51.69</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>74.489999999999995</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="1"/>
-        <v>74.489999999999995</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>71.5</v>
-      </c>
-      <c r="H26" s="1">
-        <f>ROUND(AVERAGE(H2:H25),2)</f>
-        <v>71.38</v>
-      </c>
-      <c r="I26" s="1" t="str">
-        <f t="shared" ref="I26" si="2">IF(H26&gt;=90, "A+", IF(H26&gt;=86, "A", IF(H26&gt;=80, "A-", IF(H26&gt;=77, "B+", IF(H26&gt;=73, "B", IF(H26&gt;=70, "B-", IF(H26&gt;=67, "C+", IF(H26&gt;=63, "C", IF(H26&gt;=60, "C-", "F")))))))))</f>
-        <v>B-</v>
+      <c r="B28" s="1">
+        <f>ROUND(AVERAGE(B2:B27),2)</f>
+        <v>53.12</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:H28" si="6">ROUND(AVERAGE(C2:C27),2)</f>
+        <v>54.92</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="6"/>
+        <v>54.02</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="6"/>
+        <v>75.650000000000006</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="6"/>
+        <v>75.650000000000006</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="6"/>
+        <v>74.98</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="6"/>
+        <v>75.040000000000006</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I25">
-    <sortCondition descending="1" ref="D2:D25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I27">
+    <sortCondition descending="1" ref="D2:D27"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H26">
+  <conditionalFormatting sqref="H2:H25">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>G2&lt;59.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I26 J27:J80">
+  <conditionalFormatting sqref="I2:I25 J27:J80 I28">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>H2&lt;60</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I80">
+  <conditionalFormatting sqref="I27 I29:I80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>G27&lt;59.5</formula>
     </cfRule>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8333B3D7-06F2-E34B-9AA7-FA070793A811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B53D11C-5755-7C41-8F56-351B2B7B9CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,23 +613,23 @@
         <v>98</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E27" si="1">D2 + (IF($D$28 &lt; 75.65, 75.65, $D$28) - $D$28)</f>
-        <v>119.63</v>
+        <f>D2 + (IF($D$28 &lt; 78.02, 78.02, $D$28) - $D$28)</f>
+        <v>122</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F27" si="2">IF(MAX($E$2:$E$25) &lt; 99.49, E2 + (99.49 - MAX($E$2:$E$25)), E2)</f>
-        <v>119.63</v>
+        <f t="shared" ref="F2:F27" si="1">IF(MAX($E$2:$E$25) &lt; 99.49, E2 + (99.49 - MAX($E$2:$E$25)), E2)</f>
+        <v>122</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G27" si="3">IF(AND(OR(B2=100, C2=100), F2&gt;99.49), 100, IF(AND(B2&lt;100, C2&lt;100, F2&gt;99.49), 99,  IF(OR(AND(F2&gt;=54.5, F2&lt;=59.4), F2&gt;=60), IF(F2&gt;=60, IF(F2+1&gt;99.49, 99, F2+1), 60), IF(OR(B2=0, C2=0), 0, F2))))</f>
+        <f>IF(AND(OR(B2=100, C2=100), F2&gt;99.49), 100, IF(AND(B2&lt;100, C2&lt;100, F2&gt;99.49), 99,  IF(OR(AND(F2&gt;=54.5, F2&lt;=59.4), F2&gt;=60), IF(F2&gt;=60, IF(F2+1&gt;99.49, 99, F2+1), 60), IF(OR(B2=0, C2=0), 0, F2))))</f>
         <v>99</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H27" si="4">ROUND(G2,0)</f>
+        <f t="shared" ref="H2:H27" si="2">ROUND(G2,0)</f>
         <v>99</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f t="shared" ref="I2:I28" si="5">IF(H2&gt;=90, "A+", IF(H2&gt;=86, "A", IF(H2&gt;=80, "A-", IF(H2&gt;=77, "B+", IF(H2&gt;=73, "B", IF(H2&gt;=70, "B-", IF(H2&gt;=67, "C+", IF(H2&gt;=63, "C", IF(H2&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" ref="I2:I28" si="3">IF(H2&gt;=90, "A+", IF(H2&gt;=86, "A", IF(H2&gt;=80, "A-", IF(H2&gt;=77, "B+", IF(H2&gt;=73, "B", IF(H2&gt;=70, "B-", IF(H2&gt;=67, "C+", IF(H2&gt;=63, "C", IF(H2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O2" s="2"/>
@@ -649,23 +649,23 @@
         <v>94</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="1"/>
-        <v>115.63</v>
+        <f t="shared" ref="E3:E27" si="4">D3 + (IF($D$28 &lt; 78.02, 78.02, $D$28) - $D$28)</f>
+        <v>118</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" si="2"/>
-        <v>115.63</v>
+        <f t="shared" si="1"/>
+        <v>118</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G3:G27" si="5">IF(AND(OR(B3=100, C3=100), F3&gt;99.49), 100, IF(AND(B3&lt;100, C3&lt;100, F3&gt;99.49), 99,  IF(OR(AND(F3&gt;=54.5, F3&lt;=59.4), F3&gt;=60), IF(F3&gt;=60, IF(F3+1&gt;99.49, 99, F3+1), 60), IF(OR(B3=0, C3=0), 0, F3))))</f>
         <v>99</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>A+</v>
       </c>
       <c r="O3" s="2"/>
@@ -685,23 +685,23 @@
         <v>91</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>112.63</v>
+        <f t="shared" si="4"/>
+        <v>115</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="2"/>
-        <v>112.63</v>
+        <f t="shared" si="1"/>
+        <v>115</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>A+</v>
       </c>
       <c r="O4" s="2"/>
@@ -721,23 +721,23 @@
         <v>79.5</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>101.13</v>
+        <f t="shared" si="4"/>
+        <v>103.5</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="2"/>
-        <v>101.13</v>
+        <f t="shared" si="1"/>
+        <v>103.5</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>A+</v>
       </c>
       <c r="O5" s="2"/>
@@ -757,23 +757,23 @@
         <v>75</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>96.63</v>
+        <f t="shared" si="4"/>
+        <v>99</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>96.63</v>
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="3"/>
-        <v>97.63</v>
+        <f t="shared" si="5"/>
+        <v>99</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <f t="shared" si="2"/>
+        <v>99</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>A+</v>
       </c>
       <c r="O6" s="2"/>
@@ -793,23 +793,23 @@
         <v>71.5</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>93.13</v>
+        <f t="shared" si="4"/>
+        <v>95.5</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="2"/>
-        <v>93.13</v>
+        <f t="shared" si="1"/>
+        <v>95.5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>94.13</v>
+        <f t="shared" si="5"/>
+        <v>96.5</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="4"/>
-        <v>94</v>
+        <f t="shared" si="2"/>
+        <v>97</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>A+</v>
       </c>
       <c r="O7" s="2"/>
@@ -829,24 +829,24 @@
         <v>62.5</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>84.13</v>
+        <f t="shared" si="4"/>
+        <v>86.5</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="2"/>
-        <v>84.13</v>
+        <f t="shared" si="1"/>
+        <v>86.5</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="3"/>
-        <v>85.13</v>
+        <f t="shared" si="5"/>
+        <v>87.5</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>88</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>A-</v>
+        <f t="shared" si="3"/>
+        <v>A</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -864,24 +864,24 @@
         <v>56.5</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>78.13</v>
+        <f t="shared" si="4"/>
+        <v>80.5</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="2"/>
-        <v>78.13</v>
+        <f t="shared" si="1"/>
+        <v>80.5</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="3"/>
-        <v>79.13</v>
+        <f t="shared" si="5"/>
+        <v>81.5</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="4"/>
-        <v>79</v>
+        <f t="shared" si="2"/>
+        <v>82</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B+</v>
+        <f t="shared" si="3"/>
+        <v>A-</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -901,23 +901,23 @@
         <v>54</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>75.63</v>
+        <f t="shared" si="4"/>
+        <v>78</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="2"/>
-        <v>75.63</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="3"/>
-        <v>76.63</v>
+        <f t="shared" si="5"/>
+        <v>79</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="4"/>
-        <v>77</v>
+        <f t="shared" si="2"/>
+        <v>79</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>B+</v>
       </c>
       <c r="O10" s="2"/>
@@ -937,24 +937,24 @@
         <v>51.5</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>73.13</v>
+        <f t="shared" si="4"/>
+        <v>75.5</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="2"/>
-        <v>73.13</v>
+        <f t="shared" si="1"/>
+        <v>75.5</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="3"/>
-        <v>74.13</v>
+        <f t="shared" si="5"/>
+        <v>76.5</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="4"/>
-        <v>74</v>
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
+        <f t="shared" si="3"/>
+        <v>B+</v>
       </c>
       <c r="O11" s="2"/>
     </row>
@@ -973,24 +973,24 @@
         <v>49.5</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>71.13</v>
+        <f t="shared" si="4"/>
+        <v>73.5</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="2"/>
-        <v>71.13</v>
+        <f t="shared" si="1"/>
+        <v>73.5</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="3"/>
-        <v>72.13</v>
+        <f t="shared" si="5"/>
+        <v>74.5</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="4"/>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B-</v>
+        <f t="shared" si="3"/>
+        <v>B</v>
       </c>
       <c r="O12" s="2"/>
     </row>
@@ -1009,24 +1009,24 @@
         <v>49</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>70.63</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="2"/>
-        <v>70.63</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="3"/>
-        <v>71.63</v>
+        <f t="shared" si="5"/>
+        <v>74</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="4"/>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B-</v>
+        <f t="shared" si="3"/>
+        <v>B</v>
       </c>
       <c r="O13" s="2"/>
     </row>
@@ -1045,24 +1045,24 @@
         <v>49</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>70.63</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="2"/>
-        <v>70.63</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="3"/>
-        <v>71.63</v>
+        <f t="shared" si="5"/>
+        <v>74</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="4"/>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B-</v>
+        <f t="shared" si="3"/>
+        <v>B</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -1081,24 +1081,24 @@
         <v>49</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>70.63</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>70.63</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="3"/>
-        <v>71.63</v>
+        <f t="shared" si="5"/>
+        <v>74</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="4"/>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B-</v>
+        <f t="shared" si="3"/>
+        <v>B</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -1117,24 +1117,24 @@
         <v>47.5</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>69.13</v>
+        <f t="shared" si="4"/>
+        <v>71.5</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
-        <v>69.13</v>
+        <f t="shared" si="1"/>
+        <v>71.5</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="3"/>
-        <v>70.13</v>
+        <f t="shared" si="5"/>
+        <v>72.5</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>73</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B-</v>
+        <f t="shared" si="3"/>
+        <v>B</v>
       </c>
       <c r="O16" s="2"/>
     </row>
@@ -1153,24 +1153,24 @@
         <v>45.5</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>67.13</v>
+        <f t="shared" si="4"/>
+        <v>69.5</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>67.13</v>
+        <f t="shared" si="1"/>
+        <v>69.5</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="3"/>
-        <v>68.13</v>
+        <f t="shared" si="5"/>
+        <v>70.5</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <f t="shared" si="2"/>
+        <v>71</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C+</v>
+        <f t="shared" si="3"/>
+        <v>B-</v>
       </c>
       <c r="O17" s="2"/>
     </row>
@@ -1189,24 +1189,24 @@
         <v>45.5</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>67.13</v>
+        <f t="shared" si="4"/>
+        <v>69.5</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>67.13</v>
+        <f t="shared" si="1"/>
+        <v>69.5</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="3"/>
-        <v>68.13</v>
+        <f t="shared" si="5"/>
+        <v>70.5</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <f t="shared" si="2"/>
+        <v>71</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C+</v>
+        <f t="shared" si="3"/>
+        <v>B-</v>
       </c>
       <c r="O18" s="2"/>
     </row>
@@ -1225,24 +1225,24 @@
         <v>45</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>66.63</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>66.63</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="3"/>
-        <v>67.63</v>
+        <f t="shared" si="5"/>
+        <v>70</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C+</v>
+        <f t="shared" si="3"/>
+        <v>B-</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -1261,23 +1261,23 @@
         <v>41</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>62.63</v>
+        <f t="shared" si="4"/>
+        <v>65</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="2"/>
-        <v>62.63</v>
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="3"/>
-        <v>63.63</v>
+        <f t="shared" si="5"/>
+        <v>66</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="4"/>
-        <v>64</v>
+        <f t="shared" si="2"/>
+        <v>66</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
@@ -1296,24 +1296,24 @@
         <v>39.5</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>61.13</v>
+        <f t="shared" si="4"/>
+        <v>63.499999999999993</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="2"/>
-        <v>61.13</v>
+        <f t="shared" si="1"/>
+        <v>63.499999999999993</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="3"/>
-        <v>62.13</v>
+        <f t="shared" si="5"/>
+        <v>64.5</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="4"/>
-        <v>62</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C-</v>
+        <f t="shared" si="3"/>
+        <v>C</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1331,23 +1331,23 @@
         <v>36.5</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>58.13</v>
+        <f t="shared" si="4"/>
+        <v>60.499999999999993</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="2"/>
-        <v>58.13</v>
+        <f t="shared" si="1"/>
+        <v>60.499999999999993</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="3"/>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>61.499999999999993</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>62</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>C-</v>
       </c>
     </row>
@@ -1366,23 +1366,23 @@
         <v>35.5</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>57.13</v>
+        <f t="shared" si="4"/>
+        <v>59.499999999999993</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="2"/>
-        <v>57.13</v>
+        <f t="shared" si="1"/>
+        <v>59.499999999999993</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>59.499999999999993</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="H23" s="1">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
       <c r="I23" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>C-</v>
       </c>
     </row>
@@ -1401,23 +1401,23 @@
         <v>35</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>56.63</v>
+        <f t="shared" si="4"/>
+        <v>58.999999999999993</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="2"/>
-        <v>56.63</v>
+        <f t="shared" si="1"/>
+        <v>58.999999999999993</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>C-</v>
       </c>
     </row>
@@ -1436,23 +1436,23 @@
         <v>35</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>56.63</v>
+        <f t="shared" si="4"/>
+        <v>58.999999999999993</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
-        <v>56.63</v>
+        <f t="shared" si="1"/>
+        <v>58.999999999999993</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>C-</v>
       </c>
     </row>
@@ -1471,23 +1471,23 @@
         <v>34.5</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>56.13</v>
+        <f t="shared" si="4"/>
+        <v>58.499999999999993</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="2"/>
-        <v>56.13</v>
+        <f t="shared" si="1"/>
+        <v>58.499999999999993</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>C-</v>
       </c>
     </row>
@@ -1506,23 +1506,23 @@
         <v>34</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>55.63</v>
+        <f t="shared" si="4"/>
+        <v>57.999999999999993</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="2"/>
-        <v>55.63</v>
+        <f t="shared" si="1"/>
+        <v>57.999999999999993</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>C-</v>
       </c>
     </row>
@@ -1544,22 +1544,22 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="6"/>
-        <v>75.650000000000006</v>
+        <v>78.02</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="6"/>
-        <v>75.650000000000006</v>
+        <v>78.02</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="6"/>
-        <v>74.98</v>
+        <v>76.44</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="6"/>
-        <v>75.040000000000006</v>
+        <v>76.650000000000006</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>B</v>
       </c>
     </row>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CE1462E-D7E4-A749-BAB0-29559CDC2AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C84802-E1DB-404D-A431-B7D222178E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,27 +599,27 @@
         <v>86</v>
       </c>
       <c r="D2" s="1">
-        <f xml:space="preserve"> ROUND(( B2 * 0.5 + C2 * 0.5), 2)</f>
+        <f t="shared" ref="D2:D28" si="0" xml:space="preserve"> ROUND(( B2 * 0.5 + C2 * 0.5), 2)</f>
         <v>86</v>
       </c>
       <c r="E2" s="1">
-        <f>D2 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>111</v>
+        <f>D2 + (IF($D$29 &lt; 75, 75, $D$29) - $D$29)</f>
+        <v>109.43</v>
       </c>
       <c r="F2" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E2 + (99.49 - MAX($E$2:$E$25)), E2)</f>
-        <v>111</v>
+        <f t="shared" ref="F2:F28" si="1">IF(MAX($E$2:$E$25) &lt; 99.49, E2 + (99.49 - MAX($E$2:$E$25)), E2)</f>
+        <v>109.43</v>
       </c>
       <c r="G2" s="1">
-        <f>IF(AND(OR(B2=100, C2=100), F2&gt;99.49), 100, IF(AND(B2&lt;100, C2&lt;100, F2&gt;99.49), 99,  IF(OR(AND(F2&gt;=54.5, F2&lt;=59.49), F2&gt;=60), IF(F2&gt;=60, IF(F2+1&gt;99.49, 99, F2+1), 60), IF(OR(B2=0, C2=0), 0, F2))))</f>
+        <f>IF(AND(OR(B2=100, C2=100), F2&gt;99.49), 100, IF(AND(B2&lt;100, C2&lt;100, F2&gt;99.49), 99,  IF(OR(AND(F2&gt;=55.5, F2&lt;=59.49), F2&gt;=59.5), IF(F2&gt;=59.5, IF(F2+1&gt;99.49, 99, F2+1), 60), IF(OR(B2=0, C2=0), 0, F2))))</f>
         <v>99</v>
       </c>
       <c r="H2" s="1">
-        <f>ROUND(G2,0)</f>
+        <f t="shared" ref="H2:H28" si="2">ROUND(G2,0)</f>
         <v>99</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF(H2&gt;=96, "A+", IF(H2&gt;=88, "A", IF(H2&gt;=80, "A-", IF(H2&gt;=77, "B+", IF(H2&gt;=73, "B", IF(H2&gt;=70, "B-", IF(H2&gt;=67, "C+", IF(H2&gt;=63, "C", IF(H2&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" ref="I2:I28" si="3">IF(H2&gt;=96, "A+", IF(H2&gt;=88, "A", IF(H2&gt;=80, "A-", IF(H2&gt;=77, "B+", IF(H2&gt;=73, "B", IF(H2&gt;=70, "B-", IF(H2&gt;=67, "C+", IF(H2&gt;=63, "C", IF(H2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O2" s="3"/>
@@ -635,27 +635,27 @@
         <v>88</v>
       </c>
       <c r="D3" s="1">
-        <f xml:space="preserve"> ROUND(( B3 * 0.5 + C3 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>85.5</v>
       </c>
       <c r="E3" s="1">
-        <f>D3 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>110.5</v>
+        <f t="shared" ref="E3:E28" si="4">D3 + (IF($D$29 &lt; 75, 75, $D$29) - $D$29)</f>
+        <v>108.93</v>
       </c>
       <c r="F3" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E3 + (99.49 - MAX($E$2:$E$25)), E3)</f>
-        <v>110.5</v>
+        <f t="shared" si="1"/>
+        <v>108.93</v>
       </c>
       <c r="G3" s="1">
-        <f>IF(AND(OR(B3=100, C3=100), F3&gt;99.49), 100, IF(AND(B3&lt;100, C3&lt;100, F3&gt;99.49), 99,  IF(OR(AND(F3&gt;=54.5, F3&lt;=59.49), F3&gt;=60), IF(F3&gt;=60, IF(F3+1&gt;99.49, 99, F3+1), 60), IF(OR(B3=0, C3=0), 0, F3))))</f>
+        <f t="shared" ref="G3:G28" si="5">IF(AND(OR(B3=100, C3=100), F3&gt;99.49), 100, IF(AND(B3&lt;100, C3&lt;100, F3&gt;99.49), 99,  IF(OR(AND(F3&gt;=55.5, F3&lt;=59.49), F3&gt;=59.5), IF(F3&gt;=59.5, IF(F3+1&gt;99.49, 99, F3+1), 60), IF(OR(B3=0, C3=0), 0, F3))))</f>
         <v>99</v>
       </c>
       <c r="H3" s="1">
-        <f>ROUND(G3,0)</f>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF(H3&gt;=96, "A+", IF(H3&gt;=88, "A", IF(H3&gt;=80, "A-", IF(H3&gt;=77, "B+", IF(H3&gt;=73, "B", IF(H3&gt;=70, "B-", IF(H3&gt;=67, "C+", IF(H3&gt;=63, "C", IF(H3&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>A+</v>
       </c>
       <c r="O3" s="3"/>
@@ -671,27 +671,27 @@
         <v>87</v>
       </c>
       <c r="D4" s="1">
-        <f xml:space="preserve"> ROUND(( B4 * 0.5 + C4 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="E4" s="1">
-        <f>D4 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>106</v>
+        <f t="shared" si="4"/>
+        <v>104.43</v>
       </c>
       <c r="F4" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E4 + (99.49 - MAX($E$2:$E$25)), E4)</f>
-        <v>106</v>
+        <f t="shared" si="1"/>
+        <v>104.43</v>
       </c>
       <c r="G4" s="1">
-        <f>IF(AND(OR(B4=100, C4=100), F4&gt;99.49), 100, IF(AND(B4&lt;100, C4&lt;100, F4&gt;99.49), 99,  IF(OR(AND(F4&gt;=54.5, F4&lt;=59.49), F4&gt;=60), IF(F4&gt;=60, IF(F4+1&gt;99.49, 99, F4+1), 60), IF(OR(B4=0, C4=0), 0, F4))))</f>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="H4" s="1">
-        <f>ROUND(G4,0)</f>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IF(H4&gt;=96, "A+", IF(H4&gt;=88, "A", IF(H4&gt;=80, "A-", IF(H4&gt;=77, "B+", IF(H4&gt;=73, "B", IF(H4&gt;=70, "B-", IF(H4&gt;=67, "C+", IF(H4&gt;=63, "C", IF(H4&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>A+</v>
       </c>
       <c r="O4" s="3"/>
@@ -707,27 +707,27 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <f xml:space="preserve"> ROUND(( B5 * 0.5 + C5 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>79.5</v>
       </c>
       <c r="E5" s="1">
-        <f>D5 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>104.5</v>
+        <f t="shared" si="4"/>
+        <v>102.93</v>
       </c>
       <c r="F5" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E5 + (99.49 - MAX($E$2:$E$25)), E5)</f>
-        <v>104.5</v>
+        <f t="shared" si="1"/>
+        <v>102.93</v>
       </c>
       <c r="G5" s="1">
-        <f>IF(AND(OR(B5=100, C5=100), F5&gt;99.49), 100, IF(AND(B5&lt;100, C5&lt;100, F5&gt;99.49), 99,  IF(OR(AND(F5&gt;=54.5, F5&lt;=59.49), F5&gt;=60), IF(F5&gt;=60, IF(F5+1&gt;99.49, 99, F5+1), 60), IF(OR(B5=0, C5=0), 0, F5))))</f>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="H5" s="1">
-        <f>ROUND(G5,0)</f>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>IF(H5&gt;=96, "A+", IF(H5&gt;=88, "A", IF(H5&gt;=80, "A-", IF(H5&gt;=77, "B+", IF(H5&gt;=73, "B", IF(H5&gt;=70, "B-", IF(H5&gt;=67, "C+", IF(H5&gt;=63, "C", IF(H5&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>A+</v>
       </c>
       <c r="O5" s="3"/>
@@ -743,28 +743,28 @@
         <v>60</v>
       </c>
       <c r="D6" s="1">
-        <f xml:space="preserve"> ROUND(( B6 * 0.5 + C6 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="E6" s="1">
-        <f>D6 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>95</v>
+        <f t="shared" si="4"/>
+        <v>93.43</v>
       </c>
       <c r="F6" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E6 + (99.49 - MAX($E$2:$E$25)), E6)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>93.43</v>
       </c>
       <c r="G6" s="1">
-        <f>IF(AND(OR(B6=100, C6=100), F6&gt;99.49), 100, IF(AND(B6&lt;100, C6&lt;100, F6&gt;99.49), 99,  IF(OR(AND(F6&gt;=54.5, F6&lt;=59.49), F6&gt;=60), IF(F6&gt;=60, IF(F6+1&gt;99.49, 99, F6+1), 60), IF(OR(B6=0, C6=0), 0, F6))))</f>
-        <v>96</v>
+        <f t="shared" si="5"/>
+        <v>94.43</v>
       </c>
       <c r="H6" s="1">
-        <f>ROUND(G6,0)</f>
-        <v>96</v>
+        <f t="shared" si="2"/>
+        <v>94</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF(H6&gt;=96, "A+", IF(H6&gt;=88, "A", IF(H6&gt;=80, "A-", IF(H6&gt;=77, "B+", IF(H6&gt;=73, "B", IF(H6&gt;=70, "B-", IF(H6&gt;=67, "C+", IF(H6&gt;=63, "C", IF(H6&gt;=60, "C-", "F")))))))))</f>
-        <v>A+</v>
+        <f t="shared" si="3"/>
+        <v>A</v>
       </c>
       <c r="O6" s="3"/>
     </row>
@@ -779,28 +779,28 @@
         <v>72</v>
       </c>
       <c r="D7" s="1">
-        <f xml:space="preserve"> ROUND(( B7 * 0.5 + C7 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
       <c r="E7" s="1">
-        <f>D7 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>87.5</v>
+        <f t="shared" si="4"/>
+        <v>85.93</v>
       </c>
       <c r="F7" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E7 + (99.49 - MAX($E$2:$E$25)), E7)</f>
-        <v>87.5</v>
+        <f t="shared" si="1"/>
+        <v>85.93</v>
       </c>
       <c r="G7" s="1">
-        <f>IF(AND(OR(B7=100, C7=100), F7&gt;99.49), 100, IF(AND(B7&lt;100, C7&lt;100, F7&gt;99.49), 99,  IF(OR(AND(F7&gt;=54.5, F7&lt;=59.49), F7&gt;=60), IF(F7&gt;=60, IF(F7+1&gt;99.49, 99, F7+1), 60), IF(OR(B7=0, C7=0), 0, F7))))</f>
-        <v>88.5</v>
+        <f t="shared" si="5"/>
+        <v>86.93</v>
       </c>
       <c r="H7" s="1">
-        <f>ROUND(G7,0)</f>
-        <v>89</v>
+        <f t="shared" si="2"/>
+        <v>87</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF(H7&gt;=96, "A+", IF(H7&gt;=88, "A", IF(H7&gt;=80, "A-", IF(H7&gt;=77, "B+", IF(H7&gt;=73, "B", IF(H7&gt;=70, "B-", IF(H7&gt;=67, "C+", IF(H7&gt;=63, "C", IF(H7&gt;=60, "C-", "F")))))))))</f>
-        <v>A</v>
+        <f t="shared" si="3"/>
+        <v>A-</v>
       </c>
       <c r="O7" s="3"/>
     </row>
@@ -815,28 +815,28 @@
         <v>69</v>
       </c>
       <c r="D8" s="1">
-        <f xml:space="preserve"> ROUND(( B8 * 0.5 + C8 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
       <c r="E8" s="1">
-        <f>D8 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>86.5</v>
+        <f t="shared" si="4"/>
+        <v>84.93</v>
       </c>
       <c r="F8" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E8 + (99.49 - MAX($E$2:$E$25)), E8)</f>
-        <v>86.5</v>
+        <f t="shared" si="1"/>
+        <v>84.93</v>
       </c>
       <c r="G8" s="1">
-        <f>IF(AND(OR(B8=100, C8=100), F8&gt;99.49), 100, IF(AND(B8&lt;100, C8&lt;100, F8&gt;99.49), 99,  IF(OR(AND(F8&gt;=54.5, F8&lt;=59.49), F8&gt;=60), IF(F8&gt;=60, IF(F8+1&gt;99.49, 99, F8+1), 60), IF(OR(B8=0, C8=0), 0, F8))))</f>
-        <v>87.5</v>
+        <f t="shared" si="5"/>
+        <v>85.93</v>
       </c>
       <c r="H8" s="1">
-        <f>ROUND(G8,0)</f>
-        <v>88</v>
+        <f t="shared" si="2"/>
+        <v>86</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF(H8&gt;=96, "A+", IF(H8&gt;=88, "A", IF(H8&gt;=80, "A-", IF(H8&gt;=77, "B+", IF(H8&gt;=73, "B", IF(H8&gt;=70, "B-", IF(H8&gt;=67, "C+", IF(H8&gt;=63, "C", IF(H8&gt;=60, "C-", "F")))))))))</f>
-        <v>A</v>
+        <f t="shared" si="3"/>
+        <v>A-</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -850,27 +850,27 @@
         <v>57</v>
       </c>
       <c r="D9" s="1">
-        <f xml:space="preserve"> ROUND(( B9 * 0.5 + C9 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
       <c r="E9" s="1">
-        <f>D9 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>81.5</v>
+        <f t="shared" si="4"/>
+        <v>79.930000000000007</v>
       </c>
       <c r="F9" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E9 + (99.49 - MAX($E$2:$E$25)), E9)</f>
-        <v>81.5</v>
+        <f t="shared" si="1"/>
+        <v>79.930000000000007</v>
       </c>
       <c r="G9" s="1">
-        <f>IF(AND(OR(B9=100, C9=100), F9&gt;99.49), 100, IF(AND(B9&lt;100, C9&lt;100, F9&gt;99.49), 99,  IF(OR(AND(F9&gt;=54.5, F9&lt;=59.49), F9&gt;=60), IF(F9&gt;=60, IF(F9+1&gt;99.49, 99, F9+1), 60), IF(OR(B9=0, C9=0), 0, F9))))</f>
-        <v>82.5</v>
+        <f t="shared" si="5"/>
+        <v>80.930000000000007</v>
       </c>
       <c r="H9" s="1">
-        <f>ROUND(G9,0)</f>
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF(H9&gt;=96, "A+", IF(H9&gt;=88, "A", IF(H9&gt;=80, "A-", IF(H9&gt;=77, "B+", IF(H9&gt;=73, "B", IF(H9&gt;=70, "B-", IF(H9&gt;=67, "C+", IF(H9&gt;=63, "C", IF(H9&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>A-</v>
       </c>
       <c r="N9" s="2"/>
@@ -887,28 +887,28 @@
         <v>53</v>
       </c>
       <c r="D10" s="1">
-        <f xml:space="preserve"> ROUND(( B10 * 0.5 + C10 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="E10" s="1">
-        <f>D10 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>79</v>
+        <f t="shared" si="4"/>
+        <v>77.430000000000007</v>
       </c>
       <c r="F10" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E10 + (99.49 - MAX($E$2:$E$25)), E10)</f>
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>77.430000000000007</v>
       </c>
       <c r="G10" s="1">
-        <f>IF(AND(OR(B10=100, C10=100), F10&gt;99.49), 100, IF(AND(B10&lt;100, C10&lt;100, F10&gt;99.49), 99,  IF(OR(AND(F10&gt;=54.5, F10&lt;=59.49), F10&gt;=60), IF(F10&gt;=60, IF(F10+1&gt;99.49, 99, F10+1), 60), IF(OR(B10=0, C10=0), 0, F10))))</f>
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>78.430000000000007</v>
       </c>
       <c r="H10" s="1">
-        <f>ROUND(G10,0)</f>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>78</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF(H10&gt;=96, "A+", IF(H10&gt;=88, "A", IF(H10&gt;=80, "A-", IF(H10&gt;=77, "B+", IF(H10&gt;=73, "B", IF(H10&gt;=70, "B-", IF(H10&gt;=67, "C+", IF(H10&gt;=63, "C", IF(H10&gt;=60, "C-", "F")))))))))</f>
-        <v>A-</v>
+        <f t="shared" si="3"/>
+        <v>B+</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -923,28 +923,28 @@
         <v>50</v>
       </c>
       <c r="D11" s="1">
-        <f xml:space="preserve"> ROUND(( B11 * 0.5 + C11 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>51.5</v>
       </c>
       <c r="E11" s="1">
-        <f>D11 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>76.5</v>
+        <f t="shared" si="4"/>
+        <v>74.930000000000007</v>
       </c>
       <c r="F11" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E11 + (99.49 - MAX($E$2:$E$25)), E11)</f>
-        <v>76.5</v>
+        <f t="shared" si="1"/>
+        <v>74.930000000000007</v>
       </c>
       <c r="G11" s="1">
-        <f>IF(AND(OR(B11=100, C11=100), F11&gt;99.49), 100, IF(AND(B11&lt;100, C11&lt;100, F11&gt;99.49), 99,  IF(OR(AND(F11&gt;=54.5, F11&lt;=59.49), F11&gt;=60), IF(F11&gt;=60, IF(F11+1&gt;99.49, 99, F11+1), 60), IF(OR(B11=0, C11=0), 0, F11))))</f>
-        <v>77.5</v>
+        <f t="shared" si="5"/>
+        <v>75.930000000000007</v>
       </c>
       <c r="H11" s="1">
-        <f>ROUND(G11,0)</f>
-        <v>78</v>
+        <f t="shared" si="2"/>
+        <v>76</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF(H11&gt;=96, "A+", IF(H11&gt;=88, "A", IF(H11&gt;=80, "A-", IF(H11&gt;=77, "B+", IF(H11&gt;=73, "B", IF(H11&gt;=70, "B-", IF(H11&gt;=67, "C+", IF(H11&gt;=63, "C", IF(H11&gt;=60, "C-", "F")))))))))</f>
-        <v>B+</v>
+        <f t="shared" si="3"/>
+        <v>B</v>
       </c>
       <c r="O11" s="3"/>
     </row>
@@ -959,27 +959,27 @@
         <v>56</v>
       </c>
       <c r="D12" s="1">
-        <f xml:space="preserve"> ROUND(( B12 * 0.5 + C12 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>49.5</v>
       </c>
       <c r="E12" s="1">
-        <f>D12 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>74.5</v>
+        <f t="shared" si="4"/>
+        <v>72.930000000000007</v>
       </c>
       <c r="F12" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E12 + (99.49 - MAX($E$2:$E$25)), E12)</f>
-        <v>74.5</v>
+        <f t="shared" si="1"/>
+        <v>72.930000000000007</v>
       </c>
       <c r="G12" s="1">
-        <f>IF(AND(OR(B12=100, C12=100), F12&gt;99.49), 100, IF(AND(B12&lt;100, C12&lt;100, F12&gt;99.49), 99,  IF(OR(AND(F12&gt;=54.5, F12&lt;=59.49), F12&gt;=60), IF(F12&gt;=60, IF(F12+1&gt;99.49, 99, F12+1), 60), IF(OR(B12=0, C12=0), 0, F12))))</f>
-        <v>75.5</v>
+        <f t="shared" si="5"/>
+        <v>73.930000000000007</v>
       </c>
       <c r="H12" s="1">
-        <f>ROUND(G12,0)</f>
-        <v>76</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF(H12&gt;=96, "A+", IF(H12&gt;=88, "A", IF(H12&gt;=80, "A-", IF(H12&gt;=77, "B+", IF(H12&gt;=73, "B", IF(H12&gt;=70, "B-", IF(H12&gt;=67, "C+", IF(H12&gt;=63, "C", IF(H12&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="O12" s="3"/>
@@ -995,27 +995,27 @@
         <v>56</v>
       </c>
       <c r="D13" s="1">
-        <f xml:space="preserve"> ROUND(( B13 * 0.5 + C13 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E13" s="1">
-        <f>D13 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>74</v>
+        <f t="shared" si="4"/>
+        <v>72.430000000000007</v>
       </c>
       <c r="F13" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E13 + (99.49 - MAX($E$2:$E$25)), E13)</f>
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>72.430000000000007</v>
       </c>
       <c r="G13" s="1">
-        <f>IF(AND(OR(B13=100, C13=100), F13&gt;99.49), 100, IF(AND(B13&lt;100, C13&lt;100, F13&gt;99.49), 99,  IF(OR(AND(F13&gt;=54.5, F13&lt;=59.49), F13&gt;=60), IF(F13&gt;=60, IF(F13+1&gt;99.49, 99, F13+1), 60), IF(OR(B13=0, C13=0), 0, F13))))</f>
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>73.430000000000007</v>
       </c>
       <c r="H13" s="1">
-        <f>ROUND(G13,0)</f>
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>73</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF(H13&gt;=96, "A+", IF(H13&gt;=88, "A", IF(H13&gt;=80, "A-", IF(H13&gt;=77, "B+", IF(H13&gt;=73, "B", IF(H13&gt;=70, "B-", IF(H13&gt;=67, "C+", IF(H13&gt;=63, "C", IF(H13&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="O13" s="3"/>
@@ -1031,27 +1031,27 @@
         <v>52</v>
       </c>
       <c r="D14" s="1">
-        <f xml:space="preserve"> ROUND(( B14 * 0.5 + C14 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E14" s="1">
-        <f>D14 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>74</v>
+        <f t="shared" si="4"/>
+        <v>72.430000000000007</v>
       </c>
       <c r="F14" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E14 + (99.49 - MAX($E$2:$E$25)), E14)</f>
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>72.430000000000007</v>
       </c>
       <c r="G14" s="1">
-        <f>IF(AND(OR(B14=100, C14=100), F14&gt;99.49), 100, IF(AND(B14&lt;100, C14&lt;100, F14&gt;99.49), 99,  IF(OR(AND(F14&gt;=54.5, F14&lt;=59.49), F14&gt;=60), IF(F14&gt;=60, IF(F14+1&gt;99.49, 99, F14+1), 60), IF(OR(B14=0, C14=0), 0, F14))))</f>
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>73.430000000000007</v>
       </c>
       <c r="H14" s="1">
-        <f>ROUND(G14,0)</f>
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>73</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF(H14&gt;=96, "A+", IF(H14&gt;=88, "A", IF(H14&gt;=80, "A-", IF(H14&gt;=77, "B+", IF(H14&gt;=73, "B", IF(H14&gt;=70, "B-", IF(H14&gt;=67, "C+", IF(H14&gt;=63, "C", IF(H14&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="O14" s="3"/>
@@ -1067,27 +1067,27 @@
         <v>53</v>
       </c>
       <c r="D15" s="1">
-        <f xml:space="preserve"> ROUND(( B15 * 0.5 + C15 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E15" s="1">
-        <f>D15 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>74</v>
+        <f t="shared" si="4"/>
+        <v>72.430000000000007</v>
       </c>
       <c r="F15" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E15 + (99.49 - MAX($E$2:$E$25)), E15)</f>
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>72.430000000000007</v>
       </c>
       <c r="G15" s="1">
-        <f>IF(AND(OR(B15=100, C15=100), F15&gt;99.49), 100, IF(AND(B15&lt;100, C15&lt;100, F15&gt;99.49), 99,  IF(OR(AND(F15&gt;=54.5, F15&lt;=59.49), F15&gt;=60), IF(F15&gt;=60, IF(F15+1&gt;99.49, 99, F15+1), 60), IF(OR(B15=0, C15=0), 0, F15))))</f>
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>73.430000000000007</v>
       </c>
       <c r="H15" s="1">
-        <f>ROUND(G15,0)</f>
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>73</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF(H15&gt;=96, "A+", IF(H15&gt;=88, "A", IF(H15&gt;=80, "A-", IF(H15&gt;=77, "B+", IF(H15&gt;=73, "B", IF(H15&gt;=70, "B-", IF(H15&gt;=67, "C+", IF(H15&gt;=63, "C", IF(H15&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="O15" s="3"/>
@@ -1103,28 +1103,28 @@
         <v>48</v>
       </c>
       <c r="D16" s="1">
-        <f xml:space="preserve"> ROUND(( B16 * 0.5 + C16 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>47.5</v>
       </c>
       <c r="E16" s="1">
-        <f>D16 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>72.5</v>
+        <f t="shared" si="4"/>
+        <v>70.930000000000007</v>
       </c>
       <c r="F16" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E16 + (99.49 - MAX($E$2:$E$25)), E16)</f>
-        <v>72.5</v>
+        <f t="shared" si="1"/>
+        <v>70.930000000000007</v>
       </c>
       <c r="G16" s="1">
-        <f>IF(AND(OR(B16=100, C16=100), F16&gt;99.49), 100, IF(AND(B16&lt;100, C16&lt;100, F16&gt;99.49), 99,  IF(OR(AND(F16&gt;=54.5, F16&lt;=59.49), F16&gt;=60), IF(F16&gt;=60, IF(F16+1&gt;99.49, 99, F16+1), 60), IF(OR(B16=0, C16=0), 0, F16))))</f>
-        <v>73.5</v>
+        <f t="shared" si="5"/>
+        <v>71.930000000000007</v>
       </c>
       <c r="H16" s="1">
-        <f>ROUND(G16,0)</f>
-        <v>74</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF(H16&gt;=96, "A+", IF(H16&gt;=88, "A", IF(H16&gt;=80, "A-", IF(H16&gt;=77, "B+", IF(H16&gt;=73, "B", IF(H16&gt;=70, "B-", IF(H16&gt;=67, "C+", IF(H16&gt;=63, "C", IF(H16&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <f t="shared" si="3"/>
+        <v>B-</v>
       </c>
       <c r="O16" s="3"/>
     </row>
@@ -1139,27 +1139,27 @@
         <v>57</v>
       </c>
       <c r="D17" s="1">
-        <f xml:space="preserve"> ROUND(( B17 * 0.5 + C17 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>45.5</v>
       </c>
       <c r="E17" s="1">
-        <f>D17 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>70.5</v>
+        <f t="shared" si="4"/>
+        <v>68.930000000000007</v>
       </c>
       <c r="F17" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E17 + (99.49 - MAX($E$2:$E$25)), E17)</f>
-        <v>70.5</v>
+        <f t="shared" si="1"/>
+        <v>68.930000000000007</v>
       </c>
       <c r="G17" s="1">
-        <f>IF(AND(OR(B17=100, C17=100), F17&gt;99.49), 100, IF(AND(B17&lt;100, C17&lt;100, F17&gt;99.49), 99,  IF(OR(AND(F17&gt;=54.5, F17&lt;=59.49), F17&gt;=60), IF(F17&gt;=60, IF(F17+1&gt;99.49, 99, F17+1), 60), IF(OR(B17=0, C17=0), 0, F17))))</f>
-        <v>71.5</v>
+        <f t="shared" si="5"/>
+        <v>69.930000000000007</v>
       </c>
       <c r="H17" s="1">
-        <f>ROUND(G17,0)</f>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF(H17&gt;=96, "A+", IF(H17&gt;=88, "A", IF(H17&gt;=80, "A-", IF(H17&gt;=77, "B+", IF(H17&gt;=73, "B", IF(H17&gt;=70, "B-", IF(H17&gt;=67, "C+", IF(H17&gt;=63, "C", IF(H17&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>B-</v>
       </c>
       <c r="O17" s="3"/>
@@ -1175,27 +1175,27 @@
         <v>45</v>
       </c>
       <c r="D18" s="1">
-        <f xml:space="preserve"> ROUND(( B18 * 0.5 + C18 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>45.5</v>
       </c>
       <c r="E18" s="1">
-        <f>D18 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>70.5</v>
+        <f t="shared" si="4"/>
+        <v>68.930000000000007</v>
       </c>
       <c r="F18" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E18 + (99.49 - MAX($E$2:$E$25)), E18)</f>
-        <v>70.5</v>
+        <f t="shared" si="1"/>
+        <v>68.930000000000007</v>
       </c>
       <c r="G18" s="1">
-        <f>IF(AND(OR(B18=100, C18=100), F18&gt;99.49), 100, IF(AND(B18&lt;100, C18&lt;100, F18&gt;99.49), 99,  IF(OR(AND(F18&gt;=54.5, F18&lt;=59.49), F18&gt;=60), IF(F18&gt;=60, IF(F18+1&gt;99.49, 99, F18+1), 60), IF(OR(B18=0, C18=0), 0, F18))))</f>
-        <v>71.5</v>
+        <f t="shared" si="5"/>
+        <v>69.930000000000007</v>
       </c>
       <c r="H18" s="1">
-        <f>ROUND(G18,0)</f>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF(H18&gt;=96, "A+", IF(H18&gt;=88, "A", IF(H18&gt;=80, "A-", IF(H18&gt;=77, "B+", IF(H18&gt;=73, "B", IF(H18&gt;=70, "B-", IF(H18&gt;=67, "C+", IF(H18&gt;=63, "C", IF(H18&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>B-</v>
       </c>
       <c r="O18" s="3"/>
@@ -1211,28 +1211,28 @@
         <v>47</v>
       </c>
       <c r="D19" s="1">
-        <f xml:space="preserve"> ROUND(( B19 * 0.5 + C19 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E19" s="1">
-        <f>D19 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>70</v>
+        <f t="shared" si="4"/>
+        <v>68.430000000000007</v>
       </c>
       <c r="F19" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E19 + (99.49 - MAX($E$2:$E$25)), E19)</f>
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>68.430000000000007</v>
       </c>
       <c r="G19" s="1">
-        <f>IF(AND(OR(B19=100, C19=100), F19&gt;99.49), 100, IF(AND(B19&lt;100, C19&lt;100, F19&gt;99.49), 99,  IF(OR(AND(F19&gt;=54.5, F19&lt;=59.49), F19&gt;=60), IF(F19&gt;=60, IF(F19+1&gt;99.49, 99, F19+1), 60), IF(OR(B19=0, C19=0), 0, F19))))</f>
-        <v>71</v>
+        <f t="shared" si="5"/>
+        <v>69.430000000000007</v>
       </c>
       <c r="H19" s="1">
-        <f>ROUND(G19,0)</f>
-        <v>71</v>
+        <f t="shared" si="2"/>
+        <v>69</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF(H19&gt;=96, "A+", IF(H19&gt;=88, "A", IF(H19&gt;=80, "A-", IF(H19&gt;=77, "B+", IF(H19&gt;=73, "B", IF(H19&gt;=70, "B-", IF(H19&gt;=67, "C+", IF(H19&gt;=63, "C", IF(H19&gt;=60, "C-", "F")))))))))</f>
-        <v>B-</v>
+        <f t="shared" si="3"/>
+        <v>C+</v>
       </c>
       <c r="O19" s="3"/>
     </row>
@@ -1247,28 +1247,28 @@
         <v>40</v>
       </c>
       <c r="D20" s="1">
-        <f xml:space="preserve"> ROUND(( B20 * 0.5 + C20 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="E20" s="1">
-        <f>D20 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>66</v>
+        <f t="shared" si="4"/>
+        <v>64.430000000000007</v>
       </c>
       <c r="F20" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E20 + (99.49 - MAX($E$2:$E$25)), E20)</f>
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>64.430000000000007</v>
       </c>
       <c r="G20" s="1">
-        <f>IF(AND(OR(B20=100, C20=100), F20&gt;99.49), 100, IF(AND(B20&lt;100, C20&lt;100, F20&gt;99.49), 99,  IF(OR(AND(F20&gt;=54.5, F20&lt;=59.49), F20&gt;=60), IF(F20&gt;=60, IF(F20+1&gt;99.49, 99, F20+1), 60), IF(OR(B20=0, C20=0), 0, F20))))</f>
-        <v>67</v>
+        <f t="shared" si="5"/>
+        <v>65.430000000000007</v>
       </c>
       <c r="H20" s="1">
-        <f>ROUND(G20,0)</f>
-        <v>67</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF(H20&gt;=96, "A+", IF(H20&gt;=88, "A", IF(H20&gt;=80, "A-", IF(H20&gt;=77, "B+", IF(H20&gt;=73, "B", IF(H20&gt;=70, "B-", IF(H20&gt;=67, "C+", IF(H20&gt;=63, "C", IF(H20&gt;=60, "C-", "F")))))))))</f>
-        <v>C+</v>
+        <f t="shared" si="3"/>
+        <v>C</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1282,27 +1282,27 @@
         <v>45</v>
       </c>
       <c r="D21" s="1">
-        <f xml:space="preserve"> ROUND(( B21 * 0.5 + C21 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
       <c r="E21" s="1">
-        <f>D21 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>64.5</v>
+        <f t="shared" si="4"/>
+        <v>62.93</v>
       </c>
       <c r="F21" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E21 + (99.49 - MAX($E$2:$E$25)), E21)</f>
-        <v>64.5</v>
+        <f t="shared" si="1"/>
+        <v>62.93</v>
       </c>
       <c r="G21" s="1">
-        <f>IF(AND(OR(B21=100, C21=100), F21&gt;99.49), 100, IF(AND(B21&lt;100, C21&lt;100, F21&gt;99.49), 99,  IF(OR(AND(F21&gt;=54.5, F21&lt;=59.49), F21&gt;=60), IF(F21&gt;=60, IF(F21+1&gt;99.49, 99, F21+1), 60), IF(OR(B21=0, C21=0), 0, F21))))</f>
-        <v>65.5</v>
+        <f t="shared" si="5"/>
+        <v>63.93</v>
       </c>
       <c r="H21" s="1">
-        <f>ROUND(G21,0)</f>
-        <v>66</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF(H21&gt;=96, "A+", IF(H21&gt;=88, "A", IF(H21&gt;=80, "A-", IF(H21&gt;=77, "B+", IF(H21&gt;=73, "B", IF(H21&gt;=70, "B-", IF(H21&gt;=67, "C+", IF(H21&gt;=63, "C", IF(H21&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
@@ -1317,28 +1317,28 @@
         <v>35</v>
       </c>
       <c r="D22" s="1">
-        <f xml:space="preserve"> ROUND(( B22 * 0.5 + C22 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
       <c r="E22" s="1">
-        <f>D22 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>61.5</v>
+        <f t="shared" si="4"/>
+        <v>59.93</v>
       </c>
       <c r="F22" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E22 + (99.49 - MAX($E$2:$E$25)), E22)</f>
-        <v>61.5</v>
+        <f t="shared" si="1"/>
+        <v>59.93</v>
       </c>
       <c r="G22" s="1">
-        <f>IF(AND(OR(B22=100, C22=100), F22&gt;99.49), 100, IF(AND(B22&lt;100, C22&lt;100, F22&gt;99.49), 99,  IF(OR(AND(F22&gt;=54.5, F22&lt;=59.49), F22&gt;=60), IF(F22&gt;=60, IF(F22+1&gt;99.49, 99, F22+1), 60), IF(OR(B22=0, C22=0), 0, F22))))</f>
-        <v>62.5</v>
+        <f t="shared" si="5"/>
+        <v>60.93</v>
       </c>
       <c r="H22" s="1">
-        <f>ROUND(G22,0)</f>
-        <v>63</v>
+        <f t="shared" si="2"/>
+        <v>61</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF(H22&gt;=96, "A+", IF(H22&gt;=88, "A", IF(H22&gt;=80, "A-", IF(H22&gt;=77, "B+", IF(H22&gt;=73, "B", IF(H22&gt;=70, "B-", IF(H22&gt;=67, "C+", IF(H22&gt;=63, "C", IF(H22&gt;=60, "C-", "F")))))))))</f>
-        <v>C</v>
+        <f t="shared" si="3"/>
+        <v>C-</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1352,27 +1352,27 @@
         <v>34</v>
       </c>
       <c r="D23" s="1">
-        <f xml:space="preserve"> ROUND(( B23 * 0.5 + C23 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>35.5</v>
       </c>
       <c r="E23" s="1">
-        <f>D23 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>60.5</v>
+        <f t="shared" si="4"/>
+        <v>58.93</v>
       </c>
       <c r="F23" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E23 + (99.49 - MAX($E$2:$E$25)), E23)</f>
-        <v>60.5</v>
+        <f t="shared" si="1"/>
+        <v>58.93</v>
       </c>
       <c r="G23" s="1">
-        <f>IF(AND(OR(B23=100, C23=100), F23&gt;99.49), 100, IF(AND(B23&lt;100, C23&lt;100, F23&gt;99.49), 99,  IF(OR(AND(F23&gt;=54.5, F23&lt;=59.49), F23&gt;=60), IF(F23&gt;=60, IF(F23+1&gt;99.49, 99, F23+1), 60), IF(OR(B23=0, C23=0), 0, F23))))</f>
-        <v>61.5</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="H23" s="1">
-        <f>ROUND(G23,0)</f>
-        <v>62</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF(H23&gt;=96, "A+", IF(H23&gt;=88, "A", IF(H23&gt;=80, "A-", IF(H23&gt;=77, "B+", IF(H23&gt;=73, "B", IF(H23&gt;=70, "B-", IF(H23&gt;=67, "C+", IF(H23&gt;=63, "C", IF(H23&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>C-</v>
       </c>
     </row>
@@ -1387,27 +1387,27 @@
         <v>46</v>
       </c>
       <c r="D24" s="1">
-        <f xml:space="preserve"> ROUND(( B24 * 0.5 + C24 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E24" s="1">
-        <f>D24 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
+        <f t="shared" si="4"/>
+        <v>58.43</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>58.43</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="F24" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E24 + (99.49 - MAX($E$2:$E$25)), E24)</f>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="G24" s="1">
-        <f>IF(AND(OR(B24=100, C24=100), F24&gt;99.49), 100, IF(AND(B24&lt;100, C24&lt;100, F24&gt;99.49), 99,  IF(OR(AND(F24&gt;=54.5, F24&lt;=59.49), F24&gt;=60), IF(F24&gt;=60, IF(F24+1&gt;99.49, 99, F24+1), 60), IF(OR(B24=0, C24=0), 0, F24))))</f>
-        <v>61</v>
-      </c>
-      <c r="H24" s="1">
-        <f>ROUND(G24,0)</f>
-        <v>61</v>
-      </c>
       <c r="I24" s="1" t="str">
-        <f>IF(H24&gt;=96, "A+", IF(H24&gt;=88, "A", IF(H24&gt;=80, "A-", IF(H24&gt;=77, "B+", IF(H24&gt;=73, "B", IF(H24&gt;=70, "B-", IF(H24&gt;=67, "C+", IF(H24&gt;=63, "C", IF(H24&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>C-</v>
       </c>
     </row>
@@ -1422,27 +1422,27 @@
         <v>35</v>
       </c>
       <c r="D25" s="1">
-        <f xml:space="preserve"> ROUND(( B25 * 0.5 + C25 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E25" s="1">
-        <f>D25 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
+        <f t="shared" si="4"/>
+        <v>58.43</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>58.43</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="F25" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E25 + (99.49 - MAX($E$2:$E$25)), E25)</f>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="G25" s="1">
-        <f>IF(AND(OR(B25=100, C25=100), F25&gt;99.49), 100, IF(AND(B25&lt;100, C25&lt;100, F25&gt;99.49), 99,  IF(OR(AND(F25&gt;=54.5, F25&lt;=59.49), F25&gt;=60), IF(F25&gt;=60, IF(F25+1&gt;99.49, 99, F25+1), 60), IF(OR(B25=0, C25=0), 0, F25))))</f>
-        <v>61</v>
-      </c>
-      <c r="H25" s="1">
-        <f>ROUND(G25,0)</f>
-        <v>61</v>
-      </c>
       <c r="I25" s="1" t="str">
-        <f>IF(H25&gt;=96, "A+", IF(H25&gt;=88, "A", IF(H25&gt;=80, "A-", IF(H25&gt;=77, "B+", IF(H25&gt;=73, "B", IF(H25&gt;=70, "B-", IF(H25&gt;=67, "C+", IF(H25&gt;=63, "C", IF(H25&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>C-</v>
       </c>
     </row>
@@ -1457,27 +1457,27 @@
         <v>36</v>
       </c>
       <c r="D26" s="1">
-        <f xml:space="preserve"> ROUND(( B26 * 0.5 + C26 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
       <c r="E26" s="1">
-        <f>D26 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>59.5</v>
+        <f t="shared" si="4"/>
+        <v>57.93</v>
       </c>
       <c r="F26" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E26 + (99.49 - MAX($E$2:$E$25)), E26)</f>
-        <v>59.5</v>
+        <f t="shared" si="1"/>
+        <v>57.93</v>
       </c>
       <c r="G26" s="1">
-        <f>IF(AND(OR(B26=100, C26=100), F26&gt;99.49), 100, IF(AND(B26&lt;100, C26&lt;100, F26&gt;99.49), 99,  IF(OR(AND(F26&gt;=54.5, F26&lt;=59.49), F26&gt;=60), IF(F26&gt;=60, IF(F26+1&gt;99.49, 99, F26+1), 60), IF(OR(B26=0, C26=0), 0, F26))))</f>
-        <v>59.5</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="H26" s="1">
-        <f>ROUND(G26,0)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF(H26&gt;=96, "A+", IF(H26&gt;=88, "A", IF(H26&gt;=80, "A-", IF(H26&gt;=77, "B+", IF(H26&gt;=73, "B", IF(H26&gt;=70, "B-", IF(H26&gt;=67, "C+", IF(H26&gt;=63, "C", IF(H26&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>C-</v>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
         <v>23</v>
       </c>
       <c r="D27" s="1">
-        <f xml:space="preserve"> ROUND(( B27 * 0.5 + C27 * 0.5), 2)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="E27" s="1">
-        <f>D27 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>59</v>
+        <f t="shared" si="4"/>
+        <v>57.43</v>
       </c>
       <c r="F27" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E27 + (99.49 - MAX($E$2:$E$25)), E27)</f>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>57.43</v>
       </c>
       <c r="G27" s="1">
-        <f>IF(AND(OR(B27=100, C27=100), F27&gt;99.49), 100, IF(AND(B27&lt;100, C27&lt;100, F27&gt;99.49), 99,  IF(OR(AND(F27&gt;=54.5, F27&lt;=59.49), F27&gt;=60), IF(F27&gt;=60, IF(F27+1&gt;99.49, 99, F27+1), 60), IF(OR(B27=0, C27=0), 0, F27))))</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="H27" s="1">
-        <f>ROUND(G27,0)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>IF(H27&gt;=96, "A+", IF(H27&gt;=88, "A", IF(H27&gt;=80, "A-", IF(H27&gt;=77, "B+", IF(H27&gt;=73, "B", IF(H27&gt;=70, "B-", IF(H27&gt;=67, "C+", IF(H27&gt;=63, "C", IF(H27&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="3"/>
         <v>C-</v>
       </c>
     </row>
@@ -1521,34 +1521,34 @@
         <v>36</v>
       </c>
       <c r="B28" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1">
-        <f xml:space="preserve"> ROUND(( B28 * 0.5 + C28 * 0.5), 2)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>33.5</v>
       </c>
       <c r="E28" s="1">
-        <f>D28 + (IF($D$29 &lt; 75.7, 75.7, $D$29) - $D$29)</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>56.93</v>
       </c>
       <c r="F28" s="1">
-        <f>IF(MAX($E$2:$E$25) &lt; 99.49, E28 + (99.49 - MAX($E$2:$E$25)), E28)</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>56.93</v>
       </c>
       <c r="G28" s="1">
-        <f>IF(AND(OR(B28=100, C28=100), F28&gt;99.49), 100, IF(AND(B28&lt;100, C28&lt;100, F28&gt;99.49), 99,  IF(OR(AND(F28&gt;=54.5, F28&lt;=59.49), F28&gt;=60), IF(F28&gt;=60, IF(F28+1&gt;99.49, 99, F28+1), 60), IF(OR(B28=0, C28=0), 0, F28))))</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="H28" s="1">
-        <f>ROUND(G28,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>IF(H28&gt;=96, "A+", IF(H28&gt;=88, "A", IF(H28&gt;=80, "A-", IF(H28&gt;=77, "B+", IF(H28&gt;=73, "B", IF(H28&gt;=70, "B-", IF(H28&gt;=67, "C+", IF(H28&gt;=63, "C", IF(H28&gt;=60, "C-", "F")))))))))</f>
-        <v>F</v>
+        <f t="shared" si="3"/>
+        <v>C-</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1557,31 +1557,31 @@
       </c>
       <c r="B29" s="1">
         <f>ROUND(AVERAGE(B2:B28),2)</f>
-        <v>49.48</v>
+        <v>49.85</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ref="C29:H29" si="0">ROUND(AVERAGE(C2:C28),2)</f>
-        <v>51.93</v>
+        <f t="shared" ref="C29:H29" si="6">ROUND(AVERAGE(C2:C28),2)</f>
+        <v>53.3</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>50.7</v>
+        <f t="shared" si="6"/>
+        <v>51.57</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>75.7</v>
+        <f t="shared" si="6"/>
+        <v>75</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>75.7</v>
+        <f t="shared" si="6"/>
+        <v>75</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>73.849999999999994</v>
+        <f t="shared" si="6"/>
+        <v>74.97</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="0"/>
-        <v>74.069999999999993</v>
+        <f t="shared" si="6"/>
+        <v>74.89</v>
       </c>
       <c r="I29" s="1" t="str">
         <f>IF(H29&gt;=90, "A+", IF(H29&gt;=86, "A", IF(H29&gt;=80, "A-", IF(H29&gt;=77, "B+", IF(H29&gt;=73, "B", IF(H29&gt;=70, "B-", IF(H29&gt;=67, "C+", IF(H29&gt;=63, "C", IF(H29&gt;=60, "C-", "F")))))))))</f>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291A2F1-B56C-E445-B034-CEF4E1C83341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1956F9E0-E567-3A47-AD0B-96428DD9AF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,9 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
@@ -591,23 +589,23 @@
         <v>88</v>
       </c>
       <c r="C2" s="1">
-        <f xml:space="preserve"> ROUND((B2 * 1), 2)</f>
+        <f t="shared" ref="C2:C28" si="0" xml:space="preserve"> ROUND((B2 * 1), 2)</f>
         <v>88</v>
       </c>
       <c r="D2" s="1">
-        <f>C2 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>112.63</v>
+        <f t="shared" ref="D2:D28" si="1">C2 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
+        <v>112.41</v>
       </c>
       <c r="E2" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
-        <v>112.63</v>
+        <f t="shared" ref="E2:E28" si="2">IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
+        <v>112.41</v>
       </c>
       <c r="F2" s="1">
-        <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;49.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
+        <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;54.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
         <v>99</v>
       </c>
       <c r="G2" s="1">
-        <f>ROUND(F2,0)</f>
+        <f t="shared" ref="G2:G28" si="3">ROUND(F2,0)</f>
         <v>99</v>
       </c>
       <c r="H2" s="1" t="str">
@@ -624,27 +622,27 @@
         <v>87</v>
       </c>
       <c r="C3" s="1">
-        <f xml:space="preserve"> ROUND((B3 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="D3" s="1">
-        <f>C3 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>111.63</v>
+        <f t="shared" si="1"/>
+        <v>111.41</v>
       </c>
       <c r="E3" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D3 + (99.49 - MAX($D$2:$D$25)), D3)</f>
-        <v>111.63</v>
+        <f t="shared" si="2"/>
+        <v>111.41</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F28" si="0">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;49.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
+        <f t="shared" ref="F3:F28" si="4">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;54.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
         <v>99</v>
       </c>
       <c r="G3" s="1">
-        <f>ROUND(F3,0)</f>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H28" si="1">IF(G3&gt;=94, "A+", IF(G3&gt;=87, "A", IF(G3&gt;=80, "A-", IF(G3&gt;=77, "B+", IF(G3&gt;=73, "B", IF(G3&gt;=70, "B-", IF(G3&gt;=67, "C+", IF(G3&gt;=63, "C", IF(G3&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" ref="H3:H28" si="5">IF(G3&gt;=94, "A+", IF(G3&gt;=87, "A", IF(G3&gt;=80, "A-", IF(G3&gt;=77, "B+", IF(G3&gt;=73, "B", IF(G3&gt;=70, "B-", IF(G3&gt;=67, "C+", IF(G3&gt;=63, "C", IF(G3&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O3" s="3"/>
@@ -657,27 +655,27 @@
         <v>86</v>
       </c>
       <c r="C4" s="1">
-        <f xml:space="preserve"> ROUND((B4 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="D4" s="1">
-        <f>C4 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>110.63</v>
+        <f t="shared" si="1"/>
+        <v>110.41</v>
       </c>
       <c r="E4" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D4 + (99.49 - MAX($D$2:$D$25)), D4)</f>
-        <v>110.63</v>
+        <f t="shared" si="2"/>
+        <v>110.41</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="G4" s="1">
-        <f>ROUND(F4,0)</f>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>A+</v>
       </c>
       <c r="O4" s="3"/>
@@ -690,27 +688,27 @@
         <v>72</v>
       </c>
       <c r="C5" s="1">
-        <f xml:space="preserve"> ROUND((B5 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <f>C5 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>96.63</v>
+        <f t="shared" si="1"/>
+        <v>96.41</v>
       </c>
       <c r="E5" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D5 + (99.49 - MAX($D$2:$D$25)), D5)</f>
-        <v>96.63</v>
+        <f t="shared" si="2"/>
+        <v>96.41</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>97.63</v>
+        <f t="shared" si="4"/>
+        <v>97.41</v>
       </c>
       <c r="G5" s="1">
-        <f>ROUND(F5,0)</f>
-        <v>98</v>
+        <f t="shared" si="3"/>
+        <v>97</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>A+</v>
       </c>
       <c r="O5" s="3"/>
@@ -723,27 +721,27 @@
         <v>72</v>
       </c>
       <c r="C6" s="1">
-        <f xml:space="preserve"> ROUND((B6 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <f>C6 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>96.63</v>
+        <f t="shared" si="1"/>
+        <v>96.41</v>
       </c>
       <c r="E6" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D6 + (99.49 - MAX($D$2:$D$25)), D6)</f>
-        <v>96.63</v>
+        <f t="shared" si="2"/>
+        <v>96.41</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>97.63</v>
+        <f t="shared" si="4"/>
+        <v>97.41</v>
       </c>
       <c r="G6" s="1">
-        <f>ROUND(F6,0)</f>
-        <v>98</v>
+        <f t="shared" si="3"/>
+        <v>97</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>A+</v>
       </c>
       <c r="O6" s="3"/>
@@ -756,27 +754,27 @@
         <v>69</v>
       </c>
       <c r="C7" s="1">
-        <f xml:space="preserve"> ROUND((B7 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="D7" s="1">
-        <f>C7 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>93.63</v>
+        <f t="shared" si="1"/>
+        <v>93.41</v>
       </c>
       <c r="E7" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D7 + (99.49 - MAX($D$2:$D$25)), D7)</f>
-        <v>93.63</v>
+        <f t="shared" si="2"/>
+        <v>93.41</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>94.63</v>
+        <f t="shared" si="4"/>
+        <v>94.41</v>
       </c>
       <c r="G7" s="1">
-        <f>ROUND(F7,0)</f>
-        <v>95</v>
+        <f t="shared" si="3"/>
+        <v>94</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>A+</v>
       </c>
       <c r="O7" s="3"/>
@@ -789,27 +787,27 @@
         <v>60</v>
       </c>
       <c r="C8" s="1">
-        <f xml:space="preserve"> ROUND((B8 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D8" s="1">
-        <f>C8 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>84.63</v>
+        <f t="shared" si="1"/>
+        <v>84.41</v>
       </c>
       <c r="E8" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D8 + (99.49 - MAX($D$2:$D$25)), D8)</f>
-        <v>84.63</v>
+        <f t="shared" si="2"/>
+        <v>84.41</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>85.63</v>
+        <f t="shared" si="4"/>
+        <v>85.41</v>
       </c>
       <c r="G8" s="1">
-        <f>ROUND(F8,0)</f>
-        <v>86</v>
+        <f t="shared" si="3"/>
+        <v>85</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>A-</v>
       </c>
     </row>
@@ -821,27 +819,27 @@
         <v>57</v>
       </c>
       <c r="C9" s="1">
-        <f xml:space="preserve"> ROUND((B9 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="D9" s="1">
-        <f>C9 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>81.63</v>
+        <f t="shared" si="1"/>
+        <v>81.41</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D9 + (99.49 - MAX($D$2:$D$25)), D9)</f>
-        <v>81.63</v>
+        <f t="shared" si="2"/>
+        <v>81.41</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>82.63</v>
+        <f t="shared" si="4"/>
+        <v>82.41</v>
       </c>
       <c r="G9" s="1">
-        <f>ROUND(F9,0)</f>
-        <v>83</v>
+        <f t="shared" si="3"/>
+        <v>82</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>A-</v>
       </c>
       <c r="N9" s="2"/>
@@ -855,27 +853,27 @@
         <v>57</v>
       </c>
       <c r="C10" s="1">
-        <f xml:space="preserve"> ROUND((B10 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="D10" s="1">
-        <f>C10 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>81.63</v>
+        <f t="shared" si="1"/>
+        <v>81.41</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D10 + (99.49 - MAX($D$2:$D$25)), D10)</f>
-        <v>81.63</v>
+        <f t="shared" si="2"/>
+        <v>81.41</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>82.63</v>
+        <f t="shared" si="4"/>
+        <v>82.41</v>
       </c>
       <c r="G10" s="1">
-        <f>ROUND(F10,0)</f>
-        <v>83</v>
+        <f t="shared" si="3"/>
+        <v>82</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>A-</v>
       </c>
       <c r="O10" s="3"/>
@@ -888,27 +886,27 @@
         <v>56</v>
       </c>
       <c r="C11" s="1">
-        <f xml:space="preserve"> ROUND((B11 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D11" s="1">
-        <f>C11 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>80.63</v>
+        <f t="shared" si="1"/>
+        <v>80.41</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D11 + (99.49 - MAX($D$2:$D$25)), D11)</f>
-        <v>80.63</v>
+        <f t="shared" si="2"/>
+        <v>80.41</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>81.63</v>
+        <f t="shared" si="4"/>
+        <v>81.41</v>
       </c>
       <c r="G11" s="1">
-        <f>ROUND(F11,0)</f>
-        <v>82</v>
+        <f t="shared" si="3"/>
+        <v>81</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>A-</v>
       </c>
       <c r="O11" s="3"/>
@@ -921,27 +919,27 @@
         <v>56</v>
       </c>
       <c r="C12" s="1">
-        <f xml:space="preserve"> ROUND((B12 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D12" s="1">
-        <f>C12 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>80.63</v>
+        <f t="shared" si="1"/>
+        <v>80.41</v>
       </c>
       <c r="E12" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D12 + (99.49 - MAX($D$2:$D$25)), D12)</f>
-        <v>80.63</v>
+        <f t="shared" si="2"/>
+        <v>80.41</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>81.63</v>
+        <f t="shared" si="4"/>
+        <v>81.41</v>
       </c>
       <c r="G12" s="1">
-        <f>ROUND(F12,0)</f>
-        <v>82</v>
+        <f t="shared" si="3"/>
+        <v>81</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>A-</v>
       </c>
       <c r="O12" s="3"/>
@@ -954,27 +952,27 @@
         <v>53</v>
       </c>
       <c r="C13" s="1">
-        <f xml:space="preserve"> ROUND((B13 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="D13" s="1">
-        <f>C13 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>77.63</v>
+        <f t="shared" si="1"/>
+        <v>77.41</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D13 + (99.49 - MAX($D$2:$D$25)), D13)</f>
-        <v>77.63</v>
+        <f t="shared" si="2"/>
+        <v>77.41</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>78.63</v>
+        <f t="shared" si="4"/>
+        <v>78.41</v>
       </c>
       <c r="G13" s="1">
-        <f>ROUND(F13,0)</f>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>78</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>B+</v>
       </c>
       <c r="O13" s="3"/>
@@ -987,27 +985,27 @@
         <v>53</v>
       </c>
       <c r="C14" s="1">
-        <f xml:space="preserve"> ROUND((B14 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="D14" s="1">
-        <f>C14 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>77.63</v>
+        <f t="shared" si="1"/>
+        <v>77.41</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D14 + (99.49 - MAX($D$2:$D$25)), D14)</f>
-        <v>77.63</v>
+        <f t="shared" si="2"/>
+        <v>77.41</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>78.63</v>
+        <f t="shared" si="4"/>
+        <v>78.41</v>
       </c>
       <c r="G14" s="1">
-        <f>ROUND(F14,0)</f>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>78</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>B+</v>
       </c>
       <c r="O14" s="3"/>
@@ -1020,27 +1018,27 @@
         <v>52</v>
       </c>
       <c r="C15" s="1">
-        <f xml:space="preserve"> ROUND((B15 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="D15" s="1">
-        <f>C15 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>76.63</v>
+        <f t="shared" si="1"/>
+        <v>76.41</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D15 + (99.49 - MAX($D$2:$D$25)), D15)</f>
-        <v>76.63</v>
+        <f t="shared" si="2"/>
+        <v>76.41</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>77.63</v>
+        <f t="shared" si="4"/>
+        <v>77.41</v>
       </c>
       <c r="G15" s="1">
-        <f>ROUND(F15,0)</f>
-        <v>78</v>
+        <f t="shared" si="3"/>
+        <v>77</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>B+</v>
       </c>
       <c r="O15" s="3"/>
@@ -1053,27 +1051,27 @@
         <v>50</v>
       </c>
       <c r="C16" s="1">
-        <f xml:space="preserve"> ROUND((B16 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="D16" s="1">
-        <f>C16 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>74.63</v>
+        <f t="shared" si="1"/>
+        <v>74.41</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D16 + (99.49 - MAX($D$2:$D$25)), D16)</f>
-        <v>74.63</v>
+        <f t="shared" si="2"/>
+        <v>74.41</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>75.63</v>
+        <f t="shared" si="4"/>
+        <v>75.41</v>
       </c>
       <c r="G16" s="1">
-        <f>ROUND(F16,0)</f>
-        <v>76</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="O16" s="3"/>
@@ -1086,27 +1084,27 @@
         <v>48</v>
       </c>
       <c r="C17" s="1">
-        <f xml:space="preserve"> ROUND((B17 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="D17" s="1">
-        <f>C17 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>72.63</v>
+        <f t="shared" si="1"/>
+        <v>72.41</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D17 + (99.49 - MAX($D$2:$D$25)), D17)</f>
-        <v>72.63</v>
+        <f t="shared" si="2"/>
+        <v>72.41</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>73.63</v>
+        <f t="shared" si="4"/>
+        <v>73.41</v>
       </c>
       <c r="G17" s="1">
-        <f>ROUND(F17,0)</f>
-        <v>74</v>
+        <f t="shared" si="3"/>
+        <v>73</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="O17" s="3"/>
@@ -1119,28 +1117,28 @@
         <v>47</v>
       </c>
       <c r="C18" s="1">
-        <f xml:space="preserve"> ROUND((B18 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="D18" s="1">
-        <f>C18 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>71.63</v>
+        <f t="shared" si="1"/>
+        <v>71.41</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D18 + (99.49 - MAX($D$2:$D$25)), D18)</f>
-        <v>71.63</v>
+        <f t="shared" si="2"/>
+        <v>71.41</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>72.63</v>
+        <f t="shared" si="4"/>
+        <v>72.41</v>
       </c>
       <c r="G18" s="1">
-        <f>ROUND(F18,0)</f>
-        <v>73</v>
+        <f t="shared" si="3"/>
+        <v>72</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>B</v>
+        <f t="shared" si="5"/>
+        <v>B-</v>
       </c>
       <c r="O18" s="3"/>
     </row>
@@ -1152,27 +1150,27 @@
         <v>46</v>
       </c>
       <c r="C19" s="1">
-        <f xml:space="preserve"> ROUND((B19 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="D19" s="1">
-        <f>C19 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>70.63</v>
+        <f t="shared" si="1"/>
+        <v>70.41</v>
       </c>
       <c r="E19" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D19 + (99.49 - MAX($D$2:$D$25)), D19)</f>
-        <v>70.63</v>
+        <f t="shared" si="2"/>
+        <v>70.41</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>71.63</v>
+        <f t="shared" si="4"/>
+        <v>71.41</v>
       </c>
       <c r="G19" s="1">
-        <f>ROUND(F19,0)</f>
-        <v>72</v>
+        <f t="shared" si="3"/>
+        <v>71</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>B-</v>
       </c>
       <c r="O19" s="3"/>
@@ -1185,27 +1183,27 @@
         <v>45</v>
       </c>
       <c r="C20" s="1">
-        <f xml:space="preserve"> ROUND((B20 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="D20" s="1">
-        <f>C20 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>69.63</v>
+        <f t="shared" si="1"/>
+        <v>69.41</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D20 + (99.49 - MAX($D$2:$D$25)), D20)</f>
-        <v>69.63</v>
+        <f t="shared" si="2"/>
+        <v>69.41</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>70.63</v>
+        <f t="shared" si="4"/>
+        <v>70.41</v>
       </c>
       <c r="G20" s="1">
-        <f>ROUND(F20,0)</f>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>B-</v>
       </c>
     </row>
@@ -1217,27 +1215,27 @@
         <v>45</v>
       </c>
       <c r="C21" s="1">
-        <f xml:space="preserve"> ROUND((B21 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="D21" s="1">
-        <f>C21 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>69.63</v>
+        <f t="shared" si="1"/>
+        <v>69.41</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D21 + (99.49 - MAX($D$2:$D$25)), D21)</f>
-        <v>69.63</v>
+        <f t="shared" si="2"/>
+        <v>69.41</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>70.63</v>
+        <f t="shared" si="4"/>
+        <v>70.41</v>
       </c>
       <c r="G21" s="1">
-        <f>ROUND(F21,0)</f>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>B-</v>
       </c>
     </row>
@@ -1249,27 +1247,27 @@
         <v>40</v>
       </c>
       <c r="C22" s="1">
-        <f xml:space="preserve"> ROUND((B22 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D22" s="1">
-        <f>C22 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>64.63</v>
+        <f t="shared" si="1"/>
+        <v>64.41</v>
       </c>
       <c r="E22" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D22 + (99.49 - MAX($D$2:$D$25)), D22)</f>
-        <v>64.63</v>
+        <f t="shared" si="2"/>
+        <v>64.41</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>65.63</v>
+        <f t="shared" si="4"/>
+        <v>65.41</v>
       </c>
       <c r="G22" s="1">
-        <f>ROUND(F22,0)</f>
-        <v>66</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>C</v>
       </c>
     </row>
@@ -1281,28 +1279,28 @@
         <v>37</v>
       </c>
       <c r="C23" s="1">
-        <f xml:space="preserve"> ROUND((B23 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="D23" s="1">
-        <f>C23 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>61.63</v>
+        <f t="shared" si="1"/>
+        <v>61.41</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D23 + (99.49 - MAX($D$2:$D$25)), D23)</f>
-        <v>61.63</v>
+        <f t="shared" si="2"/>
+        <v>61.41</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>62.63</v>
+        <f t="shared" si="4"/>
+        <v>62.41</v>
       </c>
       <c r="G23" s="1">
-        <f>ROUND(F23,0)</f>
-        <v>63</v>
+        <f t="shared" si="3"/>
+        <v>62</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
+        <f t="shared" si="5"/>
+        <v>C-</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1313,27 +1311,27 @@
         <v>36</v>
       </c>
       <c r="C24" s="1">
-        <f xml:space="preserve"> ROUND((B24 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="D24" s="1">
-        <f>C24 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>60.63</v>
+        <f t="shared" si="1"/>
+        <v>60.41</v>
       </c>
       <c r="E24" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D24 + (99.49 - MAX($D$2:$D$25)), D24)</f>
-        <v>60.63</v>
+        <f t="shared" si="2"/>
+        <v>60.41</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>61.63</v>
+        <f t="shared" si="4"/>
+        <v>61.41</v>
       </c>
       <c r="G24" s="1">
-        <f>ROUND(F24,0)</f>
-        <v>62</v>
+        <f t="shared" si="3"/>
+        <v>61</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>C-</v>
       </c>
     </row>
@@ -1345,27 +1343,27 @@
         <v>35</v>
       </c>
       <c r="C25" s="1">
-        <f xml:space="preserve"> ROUND((B25 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D25" s="1">
-        <f>C25 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>59.63</v>
+        <f t="shared" si="1"/>
+        <v>59.41</v>
       </c>
       <c r="E25" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D25 + (99.49 - MAX($D$2:$D$25)), D25)</f>
-        <v>59.63</v>
+        <f t="shared" si="2"/>
+        <v>59.41</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>60.63</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G25" s="1">
-        <f>ROUND(F25,0)</f>
-        <v>61</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>C-</v>
       </c>
     </row>
@@ -1377,27 +1375,27 @@
         <v>35</v>
       </c>
       <c r="C26" s="1">
-        <f xml:space="preserve"> ROUND((B26 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D26" s="1">
-        <f>C26 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>59.63</v>
+        <f t="shared" si="1"/>
+        <v>59.41</v>
       </c>
       <c r="E26" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D26 + (99.49 - MAX($D$2:$D$25)), D26)</f>
-        <v>59.63</v>
+        <f t="shared" si="2"/>
+        <v>59.41</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>60.63</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G26" s="1">
-        <f>ROUND(F26,0)</f>
-        <v>61</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>C-</v>
       </c>
     </row>
@@ -1409,27 +1407,27 @@
         <v>34</v>
       </c>
       <c r="C27" s="1">
-        <f xml:space="preserve"> ROUND((B27 * 1), 2)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="D27" s="1">
-        <f>C27 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>58.63</v>
+        <f t="shared" si="1"/>
+        <v>58.41</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D27 + (99.49 - MAX($D$2:$D$25)), D27)</f>
-        <v>58.63</v>
+        <f t="shared" si="2"/>
+        <v>58.41</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="G27" s="1">
-        <f>ROUND(F27,0)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>C-</v>
       </c>
     </row>
@@ -1438,30 +1436,30 @@
         <v>14</v>
       </c>
       <c r="B28" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
-        <f xml:space="preserve"> ROUND((B28 * 1), 2)</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="D28" s="1">
-        <f>C28 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>49.63</v>
+        <f t="shared" si="1"/>
+        <v>55.41</v>
       </c>
       <c r="E28" s="1">
-        <f>IF(MAX($D$2:$D$25) &lt; 99.49, D28 + (99.49 - MAX($D$2:$D$25)), D28)</f>
-        <v>49.63</v>
+        <f t="shared" si="2"/>
+        <v>55.41</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="G28" s="1">
-        <f>ROUND(F28,0)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>C-</v>
       </c>
     </row>
@@ -1470,28 +1468,28 @@
         <v>11</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" ref="B29:G29" si="2">ROUND(AVERAGE(B2:B28),2)</f>
-        <v>53.37</v>
+        <f t="shared" ref="B29:G29" si="6">ROUND(AVERAGE(B2:B28),2)</f>
+        <v>53.59</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="2"/>
-        <v>53.37</v>
+        <f t="shared" si="6"/>
+        <v>53.59</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="2"/>
-        <v>77.849999999999994</v>
+        <f t="shared" si="6"/>
+        <v>77.64</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="2"/>
-        <v>78.150000000000006</v>
+        <f t="shared" si="6"/>
+        <v>77.33</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>IF(G29&gt;=90, "A+", IF(G29&gt;=86, "A", IF(G29&gt;=80, "A-", IF(G29&gt;=77, "B+", IF(G29&gt;=73, "B", IF(G29&gt;=70, "B-", IF(G29&gt;=67, "C+", IF(G29&gt;=63, "C", IF(G29&gt;=60, "C-", "F")))))))))</f>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1956F9E0-E567-3A47-AD0B-96428DD9AF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A9465A-6B8E-574C-A785-C54AE2BE761E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,7 +540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
@@ -593,23 +595,23 @@
         <v>88</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D28" si="1">C2 + (IF($C$29 &lt; 78, 78, $C$29) - $C$29)</f>
-        <v>112.41</v>
+        <f>C2 + (IF($C$29 &lt; 75, 75, $C$29) - $C$29)</f>
+        <v>109.15</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E28" si="2">IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
-        <v>112.41</v>
+        <f t="shared" ref="E2:E28" si="1">IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
+        <v>109.15</v>
       </c>
       <c r="F2" s="1">
         <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;54.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
         <v>99</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G28" si="3">ROUND(F2,0)</f>
+        <f t="shared" ref="G2:G28" si="2">ROUND(F2,0)</f>
         <v>99</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF(G2&gt;=94, "A+", IF(G2&gt;=87, "A", IF(G2&gt;=80, "A-", IF(G2&gt;=77, "B+", IF(G2&gt;=73, "B", IF(G2&gt;=70, "B-", IF(G2&gt;=67, "C+", IF(G2&gt;=63, "C", IF(G2&gt;=60, "C-", "F")))))))))</f>
+        <f>IF(G2&gt;=90, "A+", IF(G2&gt;=85, "A", IF(G2&gt;=80, "A-", IF(G2&gt;=77, "B+", IF(G2&gt;=73, "B", IF(G2&gt;=70, "B-", IF(G2&gt;=67, "C+", IF(G2&gt;=63, "C", IF(G2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O2" s="3"/>
@@ -626,23 +628,23 @@
         <v>87</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="1"/>
-        <v>111.41</v>
+        <f t="shared" ref="D3:D28" si="3">C3 + (IF($C$29 &lt; 75, 75, $C$29) - $C$29)</f>
+        <v>108.15</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="2"/>
-        <v>111.41</v>
+        <f t="shared" si="1"/>
+        <v>108.15</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F28" si="4">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;54.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
         <v>99</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H28" si="5">IF(G3&gt;=94, "A+", IF(G3&gt;=87, "A", IF(G3&gt;=80, "A-", IF(G3&gt;=77, "B+", IF(G3&gt;=73, "B", IF(G3&gt;=70, "B-", IF(G3&gt;=67, "C+", IF(G3&gt;=63, "C", IF(G3&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" ref="H3:H28" si="5">IF(G3&gt;=90, "A+", IF(G3&gt;=85, "A", IF(G3&gt;=80, "A-", IF(G3&gt;=77, "B+", IF(G3&gt;=73, "B", IF(G3&gt;=70, "B-", IF(G3&gt;=67, "C+", IF(G3&gt;=63, "C", IF(G3&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O3" s="3"/>
@@ -659,19 +661,19 @@
         <v>86</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="1"/>
-        <v>110.41</v>
+        <f t="shared" si="3"/>
+        <v>107.15</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="2"/>
-        <v>110.41</v>
+        <f t="shared" si="1"/>
+        <v>107.15</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="H4" s="1" t="str">
@@ -692,20 +694,20 @@
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
-        <v>96.41</v>
+        <f t="shared" si="3"/>
+        <v>93.15</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="2"/>
-        <v>96.41</v>
+        <f t="shared" si="1"/>
+        <v>93.15</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="4"/>
-        <v>97.41</v>
+        <v>94.15</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="3"/>
-        <v>97</v>
+        <f t="shared" si="2"/>
+        <v>94</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="5"/>
@@ -725,20 +727,20 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>96.41</v>
+        <f t="shared" si="3"/>
+        <v>93.15</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>96.41</v>
+        <f t="shared" si="1"/>
+        <v>93.15</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="4"/>
-        <v>97.41</v>
+        <v>94.15</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="3"/>
-        <v>97</v>
+        <f t="shared" si="2"/>
+        <v>94</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="5"/>
@@ -758,20 +760,20 @@
         <v>69</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>93.41</v>
+        <f t="shared" si="3"/>
+        <v>90.15</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="2"/>
-        <v>93.41</v>
+        <f t="shared" si="1"/>
+        <v>90.15</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="4"/>
-        <v>94.41</v>
+        <v>91.15</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="3"/>
-        <v>94</v>
+        <f t="shared" si="2"/>
+        <v>91</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="5"/>
@@ -784,31 +786,31 @@
         <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>84.41</v>
+        <f t="shared" si="3"/>
+        <v>88.15</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="2"/>
-        <v>84.41</v>
+        <f t="shared" si="1"/>
+        <v>88.15</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="4"/>
-        <v>85.41</v>
+        <v>89.15</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="3"/>
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>A-</v>
+        <v>A</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -823,24 +825,24 @@
         <v>57</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>81.41</v>
+        <f t="shared" si="3"/>
+        <v>78.150000000000006</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="2"/>
-        <v>81.41</v>
+        <f t="shared" si="1"/>
+        <v>78.150000000000006</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="4"/>
-        <v>82.41</v>
+        <v>79.150000000000006</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="3"/>
-        <v>82</v>
+        <f t="shared" si="2"/>
+        <v>79</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>A-</v>
+        <v>B+</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -857,24 +859,24 @@
         <v>57</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
-        <v>81.41</v>
+        <f t="shared" si="3"/>
+        <v>78.150000000000006</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="2"/>
-        <v>81.41</v>
+        <f t="shared" si="1"/>
+        <v>78.150000000000006</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="4"/>
-        <v>82.41</v>
+        <v>79.150000000000006</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="3"/>
-        <v>82</v>
+        <f t="shared" si="2"/>
+        <v>79</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>A-</v>
+        <v>B+</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -890,24 +892,24 @@
         <v>56</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>80.41</v>
+        <f t="shared" si="3"/>
+        <v>77.150000000000006</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
-        <v>80.41</v>
+        <f t="shared" si="1"/>
+        <v>77.150000000000006</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="4"/>
-        <v>81.41</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="3"/>
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>78</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>A-</v>
+        <v>B+</v>
       </c>
       <c r="O11" s="3"/>
     </row>
@@ -923,24 +925,24 @@
         <v>56</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>80.41</v>
+        <f t="shared" si="3"/>
+        <v>77.150000000000006</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
-        <v>80.41</v>
+        <f t="shared" si="1"/>
+        <v>77.150000000000006</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="4"/>
-        <v>81.41</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="3"/>
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>78</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>A-</v>
+        <v>B+</v>
       </c>
       <c r="O12" s="3"/>
     </row>
@@ -956,24 +958,24 @@
         <v>53</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
-        <v>77.41</v>
+        <f t="shared" si="3"/>
+        <v>74.150000000000006</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
-        <v>77.41</v>
+        <f t="shared" si="1"/>
+        <v>74.150000000000006</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="4"/>
-        <v>78.41</v>
+        <v>75.150000000000006</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="3"/>
-        <v>78</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="O13" s="3"/>
     </row>
@@ -989,24 +991,24 @@
         <v>53</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
-        <v>77.41</v>
+        <f t="shared" si="3"/>
+        <v>74.150000000000006</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
-        <v>77.41</v>
+        <f t="shared" si="1"/>
+        <v>74.150000000000006</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="4"/>
-        <v>78.41</v>
+        <v>75.150000000000006</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="3"/>
-        <v>78</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="O14" s="3"/>
     </row>
@@ -1022,24 +1024,24 @@
         <v>52</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>76.41</v>
+        <f t="shared" si="3"/>
+        <v>73.150000000000006</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="2"/>
-        <v>76.41</v>
+        <f t="shared" si="1"/>
+        <v>73.150000000000006</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="4"/>
-        <v>77.41</v>
+        <v>74.150000000000006</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="3"/>
-        <v>77</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="O15" s="3"/>
     </row>
@@ -1055,24 +1057,24 @@
         <v>50</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>74.41</v>
+        <f t="shared" si="3"/>
+        <v>71.150000000000006</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="2"/>
-        <v>74.41</v>
+        <f t="shared" si="1"/>
+        <v>71.150000000000006</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="4"/>
-        <v>75.41</v>
+        <v>72.150000000000006</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="3"/>
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>B-</v>
       </c>
       <c r="O16" s="3"/>
     </row>
@@ -1088,24 +1090,24 @@
         <v>48</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
-        <v>72.41</v>
+        <f t="shared" si="3"/>
+        <v>69.150000000000006</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="2"/>
-        <v>72.41</v>
+        <f t="shared" si="1"/>
+        <v>69.150000000000006</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="4"/>
-        <v>73.41</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="3"/>
-        <v>73</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>B-</v>
       </c>
       <c r="O17" s="3"/>
     </row>
@@ -1121,24 +1123,24 @@
         <v>47</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="1"/>
-        <v>71.41</v>
+        <f t="shared" si="3"/>
+        <v>68.150000000000006</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="2"/>
-        <v>71.41</v>
+        <f t="shared" si="1"/>
+        <v>68.150000000000006</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="4"/>
-        <v>72.41</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="3"/>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>69</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B-</v>
+        <v>C+</v>
       </c>
       <c r="O18" s="3"/>
     </row>
@@ -1154,24 +1156,24 @@
         <v>46</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="1"/>
-        <v>70.41</v>
+        <f t="shared" si="3"/>
+        <v>67.150000000000006</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>70.41</v>
+        <f t="shared" si="1"/>
+        <v>67.150000000000006</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="4"/>
-        <v>71.41</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="3"/>
-        <v>71</v>
+        <f t="shared" si="2"/>
+        <v>68</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B-</v>
+        <v>C+</v>
       </c>
       <c r="O19" s="3"/>
     </row>
@@ -1187,24 +1189,24 @@
         <v>45</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="1"/>
-        <v>69.41</v>
+        <f t="shared" si="3"/>
+        <v>66.150000000000006</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="2"/>
-        <v>69.41</v>
+        <f t="shared" si="1"/>
+        <v>66.150000000000006</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="4"/>
-        <v>70.41</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B-</v>
+        <v>C+</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1219,24 +1221,24 @@
         <v>45</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="1"/>
-        <v>69.41</v>
+        <f t="shared" si="3"/>
+        <v>66.150000000000006</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="2"/>
-        <v>69.41</v>
+        <f t="shared" si="1"/>
+        <v>66.150000000000006</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="4"/>
-        <v>70.41</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B-</v>
+        <v>C+</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1251,24 +1253,24 @@
         <v>40</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="1"/>
-        <v>64.41</v>
+        <f t="shared" si="3"/>
+        <v>61.15</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="2"/>
-        <v>64.41</v>
+        <f t="shared" si="1"/>
+        <v>61.15</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="4"/>
-        <v>65.41</v>
+        <v>62.15</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="3"/>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>62</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>C</v>
+        <v>C-</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1283,20 +1285,20 @@
         <v>37</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="1"/>
-        <v>61.41</v>
+        <f t="shared" si="3"/>
+        <v>58.15</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="2"/>
-        <v>61.41</v>
+        <f t="shared" si="1"/>
+        <v>58.15</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="4"/>
-        <v>62.41</v>
+        <v>60</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="3"/>
-        <v>62</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1315,20 +1317,20 @@
         <v>36</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="1"/>
-        <v>60.41</v>
+        <f t="shared" si="3"/>
+        <v>57.15</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
-        <v>60.41</v>
+        <f t="shared" si="1"/>
+        <v>57.15</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="4"/>
-        <v>61.41</v>
+        <v>60</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="3"/>
-        <v>61</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1347,19 +1349,19 @@
         <v>35</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="1"/>
-        <v>59.41</v>
+        <f t="shared" si="3"/>
+        <v>56.15</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
-        <v>59.41</v>
+        <f t="shared" si="1"/>
+        <v>56.15</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="H25" s="1" t="str">
@@ -1379,19 +1381,19 @@
         <v>35</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="1"/>
-        <v>59.41</v>
+        <f t="shared" si="3"/>
+        <v>56.15</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="2"/>
-        <v>59.41</v>
+        <f t="shared" si="1"/>
+        <v>56.15</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="H26" s="1" t="str">
@@ -1411,19 +1413,19 @@
         <v>34</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="1"/>
-        <v>58.41</v>
+        <f t="shared" si="3"/>
+        <v>55.15</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="2"/>
-        <v>58.41</v>
+        <f t="shared" si="1"/>
+        <v>55.15</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="H27" s="1" t="str">
@@ -1443,24 +1445,24 @@
         <v>31</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="1"/>
-        <v>55.41</v>
+        <f t="shared" si="3"/>
+        <v>52.15</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="2"/>
-        <v>55.41</v>
+        <f t="shared" si="1"/>
+        <v>52.15</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>52.15</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="3"/>
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>52</v>
       </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>C-</v>
+        <v>F</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1469,31 +1471,31 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ref="B29:G29" si="6">ROUND(AVERAGE(B2:B28),2)</f>
-        <v>53.59</v>
+        <v>53.85</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
-        <v>53.59</v>
+        <v>53.85</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="6"/>
-        <v>77.64</v>
+        <v>75.290000000000006</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="6"/>
-        <v>77.33</v>
+        <v>75.19</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>IF(G29&gt;=90, "A+", IF(G29&gt;=86, "A", IF(G29&gt;=80, "A-", IF(G29&gt;=77, "B+", IF(G29&gt;=73, "B", IF(G29&gt;=70, "B-", IF(G29&gt;=67, "C+", IF(G29&gt;=63, "C", IF(G29&gt;=60, "C-", "F")))))))))</f>
-        <v>B+</v>
+        <v>B</v>
       </c>
     </row>
   </sheetData>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A9465A-6B8E-574C-A785-C54AE2BE761E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B1DA45-4398-4243-BF95-DCF404576DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,6 +173,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -236,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +250,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,14 +547,16 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="8.83203125" style="1"/>
+    <col min="3" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
     <col min="11" max="11" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.83203125" style="1"/>
     <col min="14" max="14" width="10.5" style="1" bestFit="1" customWidth="1"/>
@@ -595,12 +603,12 @@
         <v>88</v>
       </c>
       <c r="D2" s="1">
-        <f>C2 + (IF($C$29 &lt; 75, 75, $C$29) - $C$29)</f>
-        <v>109.15</v>
+        <f>C2 + (IF($C$29 &lt; 76, 76, $C$29) - $C$29)</f>
+        <v>109.89</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E28" si="1">IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
-        <v>109.15</v>
+        <v>109.89</v>
       </c>
       <c r="F2" s="1">
         <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;54.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
@@ -614,6 +622,7 @@
         <f>IF(G2&gt;=90, "A+", IF(G2&gt;=85, "A", IF(G2&gt;=80, "A-", IF(G2&gt;=77, "B+", IF(G2&gt;=73, "B", IF(G2&gt;=70, "B-", IF(G2&gt;=67, "C+", IF(G2&gt;=63, "C", IF(G2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
+      <c r="I2" s="4"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
@@ -628,12 +637,12 @@
         <v>87</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D28" si="3">C3 + (IF($C$29 &lt; 75, 75, $C$29) - $C$29)</f>
-        <v>108.15</v>
+        <f t="shared" ref="D3:D28" si="3">C3 + (IF($C$29 &lt; 76, 76, $C$29) - $C$29)</f>
+        <v>108.89</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="1"/>
-        <v>108.15</v>
+        <v>108.89</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F28" si="4">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;54.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
@@ -662,11 +671,11 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="3"/>
-        <v>107.15</v>
+        <v>107.89</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>107.15</v>
+        <v>107.89</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="4"/>
@@ -695,19 +704,19 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="3"/>
-        <v>93.15</v>
+        <v>93.89</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>93.15</v>
+        <v>93.89</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="4"/>
-        <v>94.15</v>
+        <v>94.89</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="5"/>
@@ -728,19 +737,19 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="3"/>
-        <v>93.15</v>
+        <v>93.89</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>93.15</v>
+        <v>93.89</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="4"/>
-        <v>94.15</v>
+        <v>94.89</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="5"/>
@@ -761,19 +770,19 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>90.15</v>
+        <v>90.89</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>90.15</v>
+        <v>90.89</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="4"/>
-        <v>91.15</v>
+        <v>91.89</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="5"/>
@@ -794,23 +803,23 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="3"/>
-        <v>88.15</v>
+        <v>88.89</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>88.15</v>
+        <v>88.89</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="4"/>
-        <v>89.15</v>
+        <v>89.89</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>A</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -818,31 +827,31 @@
         <v>31</v>
       </c>
       <c r="B9" s="1">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="3"/>
-        <v>78.150000000000006</v>
+        <v>83.89</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>78.150000000000006</v>
+        <v>83.89</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="4"/>
-        <v>79.150000000000006</v>
+        <v>84.89</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B+</v>
+        <v>A</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -860,23 +869,23 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="3"/>
-        <v>78.150000000000006</v>
+        <v>78.89</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>78.150000000000006</v>
+        <v>78.89</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="4"/>
-        <v>79.150000000000006</v>
+        <v>79.89</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B+</v>
+        <v>A-</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -893,19 +902,19 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="3"/>
-        <v>77.150000000000006</v>
+        <v>77.89</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>77.150000000000006</v>
+        <v>77.89</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="4"/>
-        <v>78.150000000000006</v>
+        <v>78.89</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="5"/>
@@ -926,19 +935,19 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="3"/>
-        <v>77.150000000000006</v>
+        <v>77.89</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>77.150000000000006</v>
+        <v>77.89</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="4"/>
-        <v>78.150000000000006</v>
+        <v>78.89</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="5"/>
@@ -959,19 +968,19 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="3"/>
-        <v>74.150000000000006</v>
+        <v>74.89</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>74.150000000000006</v>
+        <v>74.89</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="4"/>
-        <v>75.150000000000006</v>
+        <v>75.89</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="5"/>
@@ -992,19 +1001,19 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="3"/>
-        <v>74.150000000000006</v>
+        <v>74.89</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>74.150000000000006</v>
+        <v>74.89</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="4"/>
-        <v>75.150000000000006</v>
+        <v>75.89</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1025,19 +1034,19 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="3"/>
-        <v>73.150000000000006</v>
+        <v>73.89</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>73.150000000000006</v>
+        <v>73.89</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="4"/>
-        <v>74.150000000000006</v>
+        <v>74.89</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1058,23 +1067,23 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="3"/>
-        <v>71.150000000000006</v>
+        <v>71.89</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>71.150000000000006</v>
+        <v>71.89</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="4"/>
-        <v>72.150000000000006</v>
+        <v>72.89</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B-</v>
+        <v>B</v>
       </c>
       <c r="O16" s="3"/>
     </row>
@@ -1091,19 +1100,19 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="3"/>
-        <v>69.150000000000006</v>
+        <v>69.89</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>69.150000000000006</v>
+        <v>69.89</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="4"/>
-        <v>70.150000000000006</v>
+        <v>70.89</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1124,23 +1133,23 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="3"/>
-        <v>68.150000000000006</v>
+        <v>68.89</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>68.150000000000006</v>
+        <v>68.89</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="4"/>
-        <v>69.150000000000006</v>
+        <v>69.89</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>C+</v>
+        <v>B-</v>
       </c>
       <c r="O18" s="3"/>
     </row>
@@ -1157,19 +1166,19 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="3"/>
-        <v>67.150000000000006</v>
+        <v>67.89</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>67.150000000000006</v>
+        <v>67.89</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="4"/>
-        <v>68.150000000000006</v>
+        <v>68.89</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1190,19 +1199,19 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="3"/>
-        <v>66.150000000000006</v>
+        <v>66.89</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>66.150000000000006</v>
+        <v>66.89</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="4"/>
-        <v>67.150000000000006</v>
+        <v>67.89</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1222,19 +1231,19 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="3"/>
-        <v>66.150000000000006</v>
+        <v>66.89</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>66.150000000000006</v>
+        <v>66.89</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="4"/>
-        <v>67.150000000000006</v>
+        <v>67.89</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1254,23 +1263,23 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="3"/>
-        <v>61.15</v>
+        <v>61.89</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>61.15</v>
+        <v>61.89</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="4"/>
-        <v>62.15</v>
+        <v>62.89</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>C-</v>
+        <v>C</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1286,11 +1295,11 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="3"/>
-        <v>58.15</v>
+        <v>58.89</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>58.15</v>
+        <v>58.89</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="4"/>
@@ -1318,11 +1327,11 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="3"/>
-        <v>57.15</v>
+        <v>57.89</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>57.15</v>
+        <v>57.89</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="4"/>
@@ -1350,11 +1359,11 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="3"/>
-        <v>56.15</v>
+        <v>56.89</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>56.15</v>
+        <v>56.89</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="4"/>
@@ -1382,11 +1391,11 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="3"/>
-        <v>56.15</v>
+        <v>56.89</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>56.15</v>
+        <v>56.89</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="4"/>
@@ -1414,11 +1423,11 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="3"/>
-        <v>55.15</v>
+        <v>55.89</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>55.15</v>
+        <v>55.89</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="4"/>
@@ -1438,31 +1447,31 @@
         <v>14</v>
       </c>
       <c r="B28" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="3"/>
-        <v>52.15</v>
+        <v>54.89</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>52.15</v>
+        <v>54.89</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="4"/>
-        <v>52.15</v>
+        <v>60</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>F</v>
+        <v>C-</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1471,27 +1480,27 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ref="B29:G29" si="6">ROUND(AVERAGE(B2:B28),2)</f>
-        <v>53.85</v>
+        <v>54.11</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
-        <v>53.85</v>
+        <v>54.11</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="6"/>
-        <v>75.290000000000006</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="6"/>
-        <v>75.19</v>
+        <v>76.33</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>IF(G29&gt;=90, "A+", IF(G29&gt;=86, "A", IF(G29&gt;=80, "A-", IF(G29&gt;=77, "B+", IF(G29&gt;=73, "B", IF(G29&gt;=70, "B-", IF(G29&gt;=67, "C+", IF(G29&gt;=63, "C", IF(G29&gt;=60, "C-", "F")))))))))</f>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B1DA45-4398-4243-BF95-DCF404576DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8856"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10002"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -172,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
@@ -543,27 +542,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.77734375" style="1"/>
     <col min="9" max="9" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="11" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="8.77734375" style="1"/>
+    <col min="11" max="11" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.77734375" style="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,12 +600,12 @@
         <v>88</v>
       </c>
       <c r="D2" s="1">
-        <f>C2 + (IF($C$29 &lt; 76, 76, $C$29) - $C$29)</f>
-        <v>109.89</v>
+        <f>C2 + (IF($C$29 &lt; 77, 77, $C$29) - $C$29)</f>
+        <v>110.89</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E28" si="1">IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
-        <v>109.89</v>
+        <v>110.89</v>
       </c>
       <c r="F2" s="1">
         <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;54.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
@@ -637,12 +634,12 @@
         <v>87</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D28" si="3">C3 + (IF($C$29 &lt; 76, 76, $C$29) - $C$29)</f>
-        <v>108.89</v>
+        <f t="shared" ref="D3:D28" si="3">C3 + (IF($C$29 &lt; 77, 77, $C$29) - $C$29)</f>
+        <v>109.89</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="1"/>
-        <v>108.89</v>
+        <v>109.89</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F28" si="4">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;54.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
@@ -671,11 +668,11 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="3"/>
-        <v>107.89</v>
+        <v>108.89</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>107.89</v>
+        <v>108.89</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="4"/>
@@ -704,19 +701,19 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="3"/>
-        <v>93.89</v>
+        <v>94.89</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>93.89</v>
+        <v>94.89</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="4"/>
-        <v>94.89</v>
+        <v>95.89</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="5"/>
@@ -737,19 +734,19 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="3"/>
-        <v>93.89</v>
+        <v>94.89</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>93.89</v>
+        <v>94.89</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="4"/>
-        <v>94.89</v>
+        <v>95.89</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="5"/>
@@ -770,19 +767,19 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>90.89</v>
+        <v>91.89</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>90.89</v>
+        <v>91.89</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="4"/>
-        <v>91.89</v>
+        <v>92.89</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="5"/>
@@ -803,26 +800,26 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="3"/>
-        <v>88.89</v>
+        <v>89.89</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>88.89</v>
+        <v>89.89</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="4"/>
-        <v>89.89</v>
+        <v>90.89</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="5"/>
         <v>A+</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="17.399999999999999">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -835,19 +832,19 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="3"/>
-        <v>83.89</v>
+        <v>84.89</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>83.89</v>
+        <v>84.89</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="4"/>
-        <v>84.89</v>
+        <v>85.89</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="5"/>
@@ -869,19 +866,19 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="3"/>
-        <v>78.89</v>
+        <v>79.89</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>78.89</v>
+        <v>79.89</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="4"/>
-        <v>79.89</v>
+        <v>80.89</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="5"/>
@@ -902,23 +899,23 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="3"/>
-        <v>77.89</v>
+        <v>78.89</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>77.89</v>
+        <v>78.89</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="4"/>
-        <v>78.89</v>
+        <v>79.89</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B+</v>
+        <v>A-</v>
       </c>
       <c r="O11" s="3"/>
     </row>
@@ -935,23 +932,23 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="3"/>
-        <v>77.89</v>
+        <v>78.89</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>77.89</v>
+        <v>78.89</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="4"/>
-        <v>78.89</v>
+        <v>79.89</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B+</v>
+        <v>A-</v>
       </c>
       <c r="O12" s="3"/>
     </row>
@@ -968,23 +965,23 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="3"/>
-        <v>74.89</v>
+        <v>75.89</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>74.89</v>
+        <v>75.89</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="4"/>
-        <v>75.89</v>
+        <v>76.89</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="O13" s="3"/>
     </row>
@@ -1001,23 +998,23 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="3"/>
-        <v>74.89</v>
+        <v>75.89</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>74.89</v>
+        <v>75.89</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="4"/>
-        <v>75.89</v>
+        <v>76.89</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>B+</v>
       </c>
       <c r="O14" s="3"/>
     </row>
@@ -1034,19 +1031,19 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="3"/>
-        <v>73.89</v>
+        <v>74.89</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>73.89</v>
+        <v>74.89</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="4"/>
-        <v>74.89</v>
+        <v>75.89</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1067,19 +1064,19 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="3"/>
-        <v>71.89</v>
+        <v>72.89</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>71.89</v>
+        <v>72.89</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="4"/>
-        <v>72.89</v>
+        <v>73.89</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1100,19 +1097,19 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="3"/>
-        <v>69.89</v>
+        <v>70.89</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>69.89</v>
+        <v>70.89</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="4"/>
-        <v>70.89</v>
+        <v>71.89</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1133,19 +1130,19 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="3"/>
-        <v>68.89</v>
+        <v>69.89</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>68.89</v>
+        <v>69.89</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="4"/>
-        <v>69.89</v>
+        <v>70.89</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1166,23 +1163,23 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="3"/>
-        <v>67.89</v>
+        <v>68.89</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>67.89</v>
+        <v>68.89</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="4"/>
-        <v>68.89</v>
+        <v>69.89</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>C+</v>
+        <v>B-</v>
       </c>
       <c r="O19" s="3"/>
     </row>
@@ -1199,19 +1196,19 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="3"/>
-        <v>66.89</v>
+        <v>67.89</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>66.89</v>
+        <v>67.89</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="4"/>
-        <v>67.89</v>
+        <v>68.89</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1231,19 +1228,19 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="3"/>
-        <v>66.89</v>
+        <v>67.89</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>66.89</v>
+        <v>67.89</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="4"/>
-        <v>67.89</v>
+        <v>68.89</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1263,19 +1260,19 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="3"/>
-        <v>61.89</v>
+        <v>62.89</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>61.89</v>
+        <v>62.89</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="4"/>
-        <v>62.89</v>
+        <v>63.89</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1295,19 +1292,19 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="3"/>
-        <v>58.89</v>
+        <v>59.89</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>58.89</v>
+        <v>59.89</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>60.89</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1327,11 +1324,11 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="3"/>
-        <v>57.89</v>
+        <v>58.89</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>57.89</v>
+        <v>58.89</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="4"/>
@@ -1359,11 +1356,11 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="3"/>
-        <v>56.89</v>
+        <v>57.89</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>56.89</v>
+        <v>57.89</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="4"/>
@@ -1391,11 +1388,11 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="3"/>
-        <v>56.89</v>
+        <v>57.89</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>56.89</v>
+        <v>57.89</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="4"/>
@@ -1423,11 +1420,11 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="3"/>
-        <v>55.89</v>
+        <v>56.89</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>55.89</v>
+        <v>56.89</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="4"/>
@@ -1455,11 +1452,11 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="3"/>
-        <v>54.89</v>
+        <v>55.89</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>54.89</v>
+        <v>55.89</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="4"/>
@@ -1488,27 +1485,27 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="6"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="6"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="6"/>
-        <v>76.260000000000005</v>
+        <v>76.959999999999994</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="6"/>
-        <v>76.33</v>
+        <v>77.040000000000006</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>IF(G29&gt;=90, "A+", IF(G29&gt;=86, "A", IF(G29&gt;=80, "A-", IF(G29&gt;=77, "B+", IF(G29&gt;=73, "B", IF(G29&gt;=70, "B-", IF(G29&gt;=67, "C+", IF(G29&gt;=63, "C", IF(G29&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <v>B+</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
+  <sortState ref="A2:H28">
     <sortCondition descending="1" ref="D2:D28"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A342AC3-D5FC-1E49-BAFE-80830664D941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8856"/>
+    <workbookView xWindow="1440" yWindow="600" windowWidth="23020" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10002"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -171,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
@@ -542,25 +543,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1"/>
-    <col min="2" max="2" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.83203125" style="1"/>
     <col min="9" max="9" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="1"/>
-    <col min="11" max="11" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.77734375" style="1"/>
-    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.83203125" style="1"/>
+    <col min="14" max="14" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.399999999999999">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,12 +603,12 @@
         <v>88</v>
       </c>
       <c r="D2" s="1">
-        <f>C2 + (IF($C$29 &lt; 77, 77, $C$29) - $C$29)</f>
-        <v>110.89</v>
+        <f>C2 + (IF($C$29 &lt; 76, 76, $C$29) - $C$29)</f>
+        <v>109.89</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E28" si="1">IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
-        <v>110.89</v>
+        <v>109.89</v>
       </c>
       <c r="F2" s="1">
         <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;54.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
@@ -634,12 +637,12 @@
         <v>87</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D28" si="3">C3 + (IF($C$29 &lt; 77, 77, $C$29) - $C$29)</f>
-        <v>109.89</v>
+        <f t="shared" ref="D3:D28" si="3">C3 + (IF($C$29 &lt; 76, 76, $C$29) - $C$29)</f>
+        <v>108.89</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="1"/>
-        <v>109.89</v>
+        <v>108.89</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F28" si="4">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;54.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
@@ -668,11 +671,11 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="3"/>
-        <v>108.89</v>
+        <v>107.89</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>108.89</v>
+        <v>107.89</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="4"/>
@@ -701,19 +704,19 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="3"/>
+        <v>93.89</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>93.89</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="4"/>
         <v>94.89</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>94.89</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="4"/>
-        <v>95.89</v>
-      </c>
       <c r="G5" s="1">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="5"/>
@@ -734,19 +737,19 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="3"/>
+        <v>93.89</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>93.89</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="4"/>
         <v>94.89</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>94.89</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="4"/>
-        <v>95.89</v>
-      </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="5"/>
@@ -767,19 +770,19 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
+        <v>90.89</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>90.89</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="4"/>
         <v>91.89</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>91.89</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="4"/>
-        <v>92.89</v>
-      </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="5"/>
@@ -800,26 +803,26 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="3"/>
+        <v>88.89</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>88.89</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="4"/>
         <v>89.89</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>89.89</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="4"/>
-        <v>90.89</v>
-      </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="5"/>
         <v>A+</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17.399999999999999">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -832,19 +835,19 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="3"/>
+        <v>83.89</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>83.89</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="4"/>
         <v>84.89</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>84.89</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="4"/>
-        <v>85.89</v>
-      </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="5"/>
@@ -866,19 +869,19 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="3"/>
+        <v>78.89</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>78.89</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="4"/>
         <v>79.89</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>79.89</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="4"/>
-        <v>80.89</v>
-      </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="5"/>
@@ -899,23 +902,23 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="3"/>
+        <v>77.89</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>77.89</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="4"/>
         <v>78.89</v>
       </c>
-      <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>78.89</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="4"/>
-        <v>79.89</v>
-      </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>A-</v>
+        <v>B+</v>
       </c>
       <c r="O11" s="3"/>
     </row>
@@ -932,23 +935,23 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="3"/>
+        <v>77.89</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>77.89</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="4"/>
         <v>78.89</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>78.89</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="4"/>
-        <v>79.89</v>
-      </c>
       <c r="G12" s="1">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>A-</v>
+        <v>B+</v>
       </c>
       <c r="O12" s="3"/>
     </row>
@@ -965,23 +968,23 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="3"/>
+        <v>74.89</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>74.89</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="4"/>
         <v>75.89</v>
       </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>75.89</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="4"/>
-        <v>76.89</v>
-      </c>
       <c r="G13" s="1">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="O13" s="3"/>
     </row>
@@ -998,23 +1001,23 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="3"/>
+        <v>74.89</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>74.89</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="4"/>
         <v>75.89</v>
       </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>75.89</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="4"/>
-        <v>76.89</v>
-      </c>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B+</v>
+        <v>B</v>
       </c>
       <c r="O14" s="3"/>
     </row>
@@ -1031,19 +1034,19 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="3"/>
+        <v>73.89</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>73.89</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="4"/>
         <v>74.89</v>
       </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>74.89</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="4"/>
-        <v>75.89</v>
-      </c>
       <c r="G15" s="1">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1064,19 +1067,19 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="3"/>
+        <v>71.89</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>71.89</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="4"/>
         <v>72.89</v>
       </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>72.89</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="4"/>
-        <v>73.89</v>
-      </c>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1097,19 +1100,19 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="3"/>
+        <v>69.89</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>69.89</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="4"/>
         <v>70.89</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>70.89</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="4"/>
-        <v>71.89</v>
-      </c>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1130,19 +1133,19 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="3"/>
+        <v>68.89</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>68.89</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="4"/>
         <v>69.89</v>
       </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>69.89</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="4"/>
-        <v>70.89</v>
-      </c>
       <c r="G18" s="1">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1163,23 +1166,23 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="3"/>
+        <v>67.89</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>67.89</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="4"/>
         <v>68.89</v>
       </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>68.89</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="4"/>
-        <v>69.89</v>
-      </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B-</v>
+        <v>C+</v>
       </c>
       <c r="O19" s="3"/>
     </row>
@@ -1196,19 +1199,19 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="3"/>
+        <v>66.89</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>66.89</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="4"/>
         <v>67.89</v>
       </c>
-      <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>67.89</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="4"/>
-        <v>68.89</v>
-      </c>
       <c r="G20" s="1">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1228,19 +1231,19 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="3"/>
+        <v>66.89</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>66.89</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="4"/>
         <v>67.89</v>
       </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>67.89</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="4"/>
-        <v>68.89</v>
-      </c>
       <c r="G21" s="1">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1260,19 +1263,19 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="3"/>
+        <v>61.89</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>61.89</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="4"/>
         <v>62.89</v>
       </c>
-      <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>62.89</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="4"/>
-        <v>63.89</v>
-      </c>
       <c r="G22" s="1">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1292,19 +1295,19 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="3"/>
-        <v>59.89</v>
+        <v>58.89</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>59.89</v>
+        <v>58.89</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="4"/>
-        <v>60.89</v>
+        <v>60</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1324,11 +1327,11 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="3"/>
-        <v>58.89</v>
+        <v>57.89</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>58.89</v>
+        <v>57.89</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="4"/>
@@ -1356,11 +1359,11 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="3"/>
-        <v>57.89</v>
+        <v>56.89</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>57.89</v>
+        <v>56.89</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="4"/>
@@ -1388,11 +1391,11 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="3"/>
-        <v>57.89</v>
+        <v>56.89</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>57.89</v>
+        <v>56.89</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="4"/>
@@ -1420,11 +1423,11 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="3"/>
-        <v>56.89</v>
+        <v>55.89</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>56.89</v>
+        <v>55.89</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="4"/>
@@ -1452,11 +1455,11 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="3"/>
-        <v>55.89</v>
+        <v>54.89</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>55.89</v>
+        <v>54.89</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="4"/>
@@ -1485,27 +1488,27 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="6"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="6"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="6"/>
-        <v>76.959999999999994</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="6"/>
-        <v>77.040000000000006</v>
+        <v>76.33</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>IF(G29&gt;=90, "A+", IF(G29&gt;=86, "A", IF(G29&gt;=80, "A-", IF(G29&gt;=77, "B+", IF(G29&gt;=73, "B", IF(G29&gt;=70, "B-", IF(G29&gt;=67, "C+", IF(G29&gt;=63, "C", IF(G29&gt;=60, "C-", "F")))))))))</f>
-        <v>B+</v>
+        <v>B</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
     <sortCondition descending="1" ref="D2:D28"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/politics/grade/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/ccp/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A342AC3-D5FC-1E49-BAFE-80830664D941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2067229C-58B2-BF45-8F3E-E426FC4FA108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="600" windowWidth="23020" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,27 +62,11 @@
     <t>423__05</t>
   </si>
   <si>
-    <t>Grade_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grade_II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grade_III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grade_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -546,9 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
@@ -568,58 +550,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C28" si="0" xml:space="preserve"> ROUND((B2 * 1), 2)</f>
-        <v>88</v>
+        <f xml:space="preserve"> ROUND((B2 * 1), 2)</f>
+        <v>95</v>
       </c>
       <c r="D2" s="1">
-        <f>C2 + (IF($C$29 &lt; 76, 76, $C$29) - $C$29)</f>
-        <v>109.89</v>
+        <f>C2 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>111</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E28" si="1">IF(MAX($D$2:$D$25) &lt; 99.49, D2 + (99.49 - MAX($D$2:$D$25)), D2)</f>
-        <v>109.89</v>
+        <f>IF(AND(OR(B2=100), D2&gt;99.49), 100, IF(AND(B2&lt;100, D2&gt;99.49), 99,  IF(OR(AND(D2&gt;49.9, D2&lt;=59.49), D2&gt;=59.5), IF(D2&gt;=59.5, IF(D2+1&gt;99.49, 99, D2+1), 60), IF(OR(B2=0), 0, D2))))</f>
+        <v>99</v>
       </c>
       <c r="F2" s="1">
-        <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;54.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
+        <f>ROUND(E2,0)</f>
         <v>99</v>
       </c>
-      <c r="G2" s="1">
-        <f t="shared" ref="G2:G28" si="2">ROUND(F2,0)</f>
-        <v>99</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f>IF(G2&gt;=90, "A+", IF(G2&gt;=85, "A", IF(G2&gt;=80, "A-", IF(G2&gt;=77, "B+", IF(G2&gt;=73, "B", IF(G2&gt;=70, "B-", IF(G2&gt;=67, "C+", IF(G2&gt;=63, "C", IF(G2&gt;=60, "C-", "F")))))))))</f>
+      <c r="G2" s="1" t="str">
+        <f>IF(F2&gt;=92, "A+", IF(F2&gt;=86, "A", IF(F2&gt;=80, "A-", IF(F2&gt;=76, "B+", IF(F2&gt;=72, "B", IF(F2&gt;=68, "B-", IF(F2&gt;=64, "C+", IF(F2&gt;=61, "C", IF(F2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="I2" s="4"/>
@@ -630,30 +596,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" si="0"/>
-        <v>87</v>
+        <f xml:space="preserve"> ROUND((B3 * 1), 2)</f>
+        <v>93</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D28" si="3">C3 + (IF($C$29 &lt; 76, 76, $C$29) - $C$29)</f>
-        <v>108.89</v>
+        <f>C3 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>109</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="1"/>
-        <v>108.89</v>
+        <f>IF(AND(OR(B3=100), D3&gt;99.49), 100, IF(AND(B3&lt;100, D3&gt;99.49), 99,  IF(OR(AND(D3&gt;49.9, D3&lt;=59.49), D3&gt;=59.5), IF(D3&gt;=59.5, IF(D3+1&gt;99.49, 99, D3+1), 60), IF(OR(B3=0), 0, D3))))</f>
+        <v>99</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F28" si="4">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;54.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
+        <f>ROUND(E3,0)</f>
         <v>99</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H28" si="5">IF(G3&gt;=90, "A+", IF(G3&gt;=85, "A", IF(G3&gt;=80, "A-", IF(G3&gt;=77, "B+", IF(G3&gt;=73, "B", IF(G3&gt;=70, "B-", IF(G3&gt;=67, "C+", IF(G3&gt;=63, "C", IF(G3&gt;=60, "C-", "F")))))))))</f>
+      <c r="G3" s="1" t="str">
+        <f>IF(F3&gt;=92, "A+", IF(F3&gt;=86, "A", IF(F3&gt;=80, "A-", IF(F3&gt;=76, "B+", IF(F3&gt;=72, "B", IF(F3&gt;=68, "B-", IF(F3&gt;=64, "C+", IF(F3&gt;=61, "C", IF(F3&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O3" s="3"/>
@@ -666,61 +628,53 @@
         <v>86</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> ROUND((B4 * 1), 2)</f>
         <v>86</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="3"/>
-        <v>107.89</v>
+        <f>C4 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>102</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>107.89</v>
+        <f>IF(AND(OR(B4=100), D4&gt;99.49), 100, IF(AND(B4&lt;100, D4&gt;99.49), 99,  IF(OR(AND(D4&gt;49.9, D4&lt;=59.49), D4&gt;=59.5), IF(D4&gt;=59.5, IF(D4+1&gt;99.49, 99, D4+1), 60), IF(OR(B4=0), 0, D4))))</f>
+        <v>99</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND(E4,0)</f>
         <v>99</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="G4" s="1" t="str">
+        <f>IF(F4&gt;=92, "A+", IF(F4&gt;=86, "A", IF(F4&gt;=80, "A-", IF(F4&gt;=76, "B+", IF(F4&gt;=72, "B", IF(F4&gt;=68, "B-", IF(F4&gt;=64, "C+", IF(F4&gt;=61, "C", IF(F4&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>72</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> ROUND((B5 * 1), 2)</f>
         <v>72</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="3"/>
-        <v>93.89</v>
+        <f>C5 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>88</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>93.89</v>
+        <f>IF(AND(OR(B5=100), D5&gt;99.49), 100, IF(AND(B5&lt;100, D5&gt;99.49), 99,  IF(OR(AND(D5&gt;49.9, D5&lt;=59.49), D5&gt;=59.5), IF(D5&gt;=59.5, IF(D5+1&gt;99.49, 99, D5+1), 60), IF(OR(B5=0), 0, D5))))</f>
+        <v>89</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="4"/>
-        <v>94.89</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>A+</v>
+        <f>ROUND(E5,0)</f>
+        <v>89</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>IF(F5&gt;=92, "A+", IF(F5&gt;=86, "A", IF(F5&gt;=80, "A-", IF(F5&gt;=76, "B+", IF(F5&gt;=72, "B", IF(F5&gt;=68, "B-", IF(F5&gt;=64, "C+", IF(F5&gt;=61, "C", IF(F5&gt;=60, "C-", "F")))))))))</f>
+        <v>A</v>
       </c>
       <c r="O5" s="3"/>
     </row>
@@ -732,28 +686,24 @@
         <v>72</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> ROUND((B6 * 1), 2)</f>
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="3"/>
-        <v>93.89</v>
+        <f>C6 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>88</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>93.89</v>
+        <f>IF(AND(OR(B6=100), D6&gt;99.49), 100, IF(AND(B6&lt;100, D6&gt;99.49), 99,  IF(OR(AND(D6&gt;49.9, D6&lt;=59.49), D6&gt;=59.5), IF(D6&gt;=59.5, IF(D6+1&gt;99.49, 99, D6+1), 60), IF(OR(B6=0), 0, D6))))</f>
+        <v>89</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="4"/>
-        <v>94.89</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>A+</v>
+        <f>ROUND(E6,0)</f>
+        <v>89</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>IF(F6&gt;=92, "A+", IF(F6&gt;=86, "A", IF(F6&gt;=80, "A-", IF(F6&gt;=76, "B+", IF(F6&gt;=72, "B", IF(F6&gt;=68, "B-", IF(F6&gt;=64, "C+", IF(F6&gt;=61, "C", IF(F6&gt;=60, "C-", "F")))))))))</f>
+        <v>A</v>
       </c>
       <c r="O6" s="3"/>
     </row>
@@ -765,28 +715,24 @@
         <v>69</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> ROUND((B7 * 1), 2)</f>
         <v>69</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="3"/>
-        <v>90.89</v>
+        <f>C7 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>85</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>90.89</v>
+        <f>IF(AND(OR(B7=100), D7&gt;99.49), 100, IF(AND(B7&lt;100, D7&gt;99.49), 99,  IF(OR(AND(D7&gt;49.9, D7&lt;=59.49), D7&gt;=59.5), IF(D7&gt;=59.5, IF(D7+1&gt;99.49, 99, D7+1), 60), IF(OR(B7=0), 0, D7))))</f>
+        <v>86</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="4"/>
-        <v>91.89</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>A+</v>
+        <f>ROUND(E7,0)</f>
+        <v>86</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>IF(F7&gt;=92, "A+", IF(F7&gt;=86, "A", IF(F7&gt;=80, "A-", IF(F7&gt;=76, "B+", IF(F7&gt;=72, "B", IF(F7&gt;=68, "B-", IF(F7&gt;=64, "C+", IF(F7&gt;=61, "C", IF(F7&gt;=60, "C-", "F")))))))))</f>
+        <v>A</v>
       </c>
       <c r="O7" s="3"/>
     </row>
@@ -795,726 +741,638 @@
         <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <f xml:space="preserve"> ROUND((B8 * 1), 2)</f>
+        <v>68</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="3"/>
-        <v>88.89</v>
+        <f>C8 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>84</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>88.89</v>
+        <f>IF(AND(OR(B8=100), D8&gt;99.49), 100, IF(AND(B8&lt;100, D8&gt;99.49), 99,  IF(OR(AND(D8&gt;49.9, D8&lt;=59.49), D8&gt;=59.5), IF(D8&gt;=59.5, IF(D8+1&gt;99.49, 99, D8+1), 60), IF(OR(B8=0), 0, D8))))</f>
+        <v>85</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="4"/>
-        <v>89.89</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>A+</v>
+        <f>ROUND(E8,0)</f>
+        <v>85</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>IF(F8&gt;=92, "A+", IF(F8&gt;=86, "A", IF(F8&gt;=80, "A-", IF(F8&gt;=76, "B+", IF(F8&gt;=72, "B", IF(F8&gt;=68, "B-", IF(F8&gt;=64, "C+", IF(F8&gt;=61, "C", IF(F8&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f xml:space="preserve"> ROUND((B9 * 1), 2)</f>
+        <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="3"/>
-        <v>83.89</v>
+        <f>C9 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>83</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>83.89</v>
+        <f>IF(AND(OR(B9=100), D9&gt;99.49), 100, IF(AND(B9&lt;100, D9&gt;99.49), 99,  IF(OR(AND(D9&gt;49.9, D9&lt;=59.49), D9&gt;=59.5), IF(D9&gt;=59.5, IF(D9+1&gt;99.49, 99, D9+1), 60), IF(OR(B9=0), 0, D9))))</f>
+        <v>84</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="4"/>
-        <v>84.89</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
+        <f>ROUND(E9,0)</f>
+        <v>84</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>IF(F9&gt;=92, "A+", IF(F9&gt;=86, "A", IF(F9&gt;=80, "A-", IF(F9&gt;=76, "B+", IF(F9&gt;=72, "B", IF(F9&gt;=68, "B-", IF(F9&gt;=64, "C+", IF(F9&gt;=61, "C", IF(F9&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f xml:space="preserve"> ROUND((B10 * 1), 2)</f>
+        <v>66</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="3"/>
-        <v>78.89</v>
+        <f>C10 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>82</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>78.89</v>
+        <f>IF(AND(OR(B10=100), D10&gt;99.49), 100, IF(AND(B10&lt;100, D10&gt;99.49), 99,  IF(OR(AND(D10&gt;49.9, D10&lt;=59.49), D10&gt;=59.5), IF(D10&gt;=59.5, IF(D10+1&gt;99.49, 99, D10+1), 60), IF(OR(B10=0), 0, D10))))</f>
+        <v>83</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="4"/>
-        <v>79.89</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>ROUND(E10,0)</f>
+        <v>83</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>IF(F10&gt;=92, "A+", IF(F10&gt;=86, "A", IF(F10&gt;=80, "A-", IF(F10&gt;=76, "B+", IF(F10&gt;=72, "B", IF(F10&gt;=68, "B-", IF(F10&gt;=64, "C+", IF(F10&gt;=61, "C", IF(F10&gt;=60, "C-", "F")))))))))</f>
         <v>A-</v>
       </c>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f xml:space="preserve"> ROUND((B11 * 1), 2)</f>
+        <v>65</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="3"/>
-        <v>77.89</v>
+        <f>C11 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>81</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>77.89</v>
+        <f>IF(AND(OR(B11=100), D11&gt;99.49), 100, IF(AND(B11&lt;100, D11&gt;99.49), 99,  IF(OR(AND(D11&gt;49.9, D11&lt;=59.49), D11&gt;=59.5), IF(D11&gt;=59.5, IF(D11+1&gt;99.49, 99, D11+1), 60), IF(OR(B11=0), 0, D11))))</f>
+        <v>82</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="4"/>
-        <v>78.89</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B+</v>
+        <f>ROUND(E11,0)</f>
+        <v>82</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>IF(F11&gt;=92, "A+", IF(F11&gt;=86, "A", IF(F11&gt;=80, "A-", IF(F11&gt;=76, "B+", IF(F11&gt;=72, "B", IF(F11&gt;=68, "B-", IF(F11&gt;=64, "C+", IF(F11&gt;=61, "C", IF(F11&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
       </c>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f xml:space="preserve"> ROUND((B12 * 1), 2)</f>
+        <v>62</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="3"/>
-        <v>77.89</v>
+        <f>C12 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>78</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>77.89</v>
+        <f>IF(AND(OR(B12=100), D12&gt;99.49), 100, IF(AND(B12&lt;100, D12&gt;99.49), 99,  IF(OR(AND(D12&gt;49.9, D12&lt;=59.49), D12&gt;=59.5), IF(D12&gt;=59.5, IF(D12+1&gt;99.49, 99, D12+1), 60), IF(OR(B12=0), 0, D12))))</f>
+        <v>79</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="4"/>
-        <v>78.89</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(E12,0)</f>
         <v>79</v>
       </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="G12" s="1" t="str">
+        <f>IF(F12&gt;=92, "A+", IF(F12&gt;=86, "A", IF(F12&gt;=80, "A-", IF(F12&gt;=76, "B+", IF(F12&gt;=72, "B", IF(F12&gt;=68, "B-", IF(F12&gt;=64, "C+", IF(F12&gt;=61, "C", IF(F12&gt;=60, "C-", "F")))))))))</f>
         <v>B+</v>
       </c>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <f xml:space="preserve"> ROUND((B13 * 1), 2)</f>
+        <v>61</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="3"/>
-        <v>74.89</v>
+        <f>C13 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>77</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>74.89</v>
+        <f>IF(AND(OR(B13=100), D13&gt;99.49), 100, IF(AND(B13&lt;100, D13&gt;99.49), 99,  IF(OR(AND(D13&gt;49.9, D13&lt;=59.49), D13&gt;=59.5), IF(D13&gt;=59.5, IF(D13+1&gt;99.49, 99, D13+1), 60), IF(OR(B13=0), 0, D13))))</f>
+        <v>78</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="4"/>
-        <v>75.89</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
+        <f>ROUND(E13,0)</f>
+        <v>78</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>IF(F13&gt;=92, "A+", IF(F13&gt;=86, "A", IF(F13&gt;=80, "A-", IF(F13&gt;=76, "B+", IF(F13&gt;=72, "B", IF(F13&gt;=68, "B-", IF(F13&gt;=64, "C+", IF(F13&gt;=61, "C", IF(F13&gt;=60, "C-", "F")))))))))</f>
+        <v>B+</v>
       </c>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <f xml:space="preserve"> ROUND((B14 * 1), 2)</f>
+        <v>57</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="3"/>
-        <v>74.89</v>
+        <f>C14 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>73</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>74.89</v>
+        <f>IF(AND(OR(B14=100), D14&gt;99.49), 100, IF(AND(B14&lt;100, D14&gt;99.49), 99,  IF(OR(AND(D14&gt;49.9, D14&lt;=59.49), D14&gt;=59.5), IF(D14&gt;=59.5, IF(D14+1&gt;99.49, 99, D14+1), 60), IF(OR(B14=0), 0, D14))))</f>
+        <v>74</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="4"/>
-        <v>75.89</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>ROUND(E14,0)</f>
+        <v>74</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>IF(F14&gt;=92, "A+", IF(F14&gt;=86, "A", IF(F14&gt;=80, "A-", IF(F14&gt;=76, "B+", IF(F14&gt;=72, "B", IF(F14&gt;=68, "B-", IF(F14&gt;=64, "C+", IF(F14&gt;=61, "C", IF(F14&gt;=60, "C-", "F")))))))))</f>
         <v>B</v>
       </c>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f xml:space="preserve"> ROUND((B15 * 1), 2)</f>
+        <v>56</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
-        <v>73.89</v>
+        <f>C15 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>72</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>73.89</v>
+        <f>IF(AND(OR(B15=100), D15&gt;99.49), 100, IF(AND(B15&lt;100, D15&gt;99.49), 99,  IF(OR(AND(D15&gt;49.9, D15&lt;=59.49), D15&gt;=59.5), IF(D15&gt;=59.5, IF(D15+1&gt;99.49, 99, D15+1), 60), IF(OR(B15=0), 0, D15))))</f>
+        <v>73</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="4"/>
-        <v>74.89</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>ROUND(E15,0)</f>
+        <v>73</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>IF(F15&gt;=92, "A+", IF(F15&gt;=86, "A", IF(F15&gt;=80, "A-", IF(F15&gt;=76, "B+", IF(F15&gt;=72, "B", IF(F15&gt;=68, "B-", IF(F15&gt;=64, "C+", IF(F15&gt;=61, "C", IF(F15&gt;=60, "C-", "F")))))))))</f>
         <v>B</v>
       </c>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f xml:space="preserve"> ROUND((B16 * 1), 2)</f>
+        <v>56</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="3"/>
-        <v>71.89</v>
+        <f>C16 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>72</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>71.89</v>
+        <f>IF(AND(OR(B16=100), D16&gt;99.49), 100, IF(AND(B16&lt;100, D16&gt;99.49), 99,  IF(OR(AND(D16&gt;49.9, D16&lt;=59.49), D16&gt;=59.5), IF(D16&gt;=59.5, IF(D16+1&gt;99.49, 99, D16+1), 60), IF(OR(B16=0), 0, D16))))</f>
+        <v>73</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="4"/>
-        <v>72.89</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(E16,0)</f>
         <v>73</v>
       </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="G16" s="1" t="str">
+        <f>IF(F16&gt;=92, "A+", IF(F16&gt;=86, "A", IF(F16&gt;=80, "A-", IF(F16&gt;=76, "B+", IF(F16&gt;=72, "B", IF(F16&gt;=68, "B-", IF(F16&gt;=64, "C+", IF(F16&gt;=61, "C", IF(F16&gt;=60, "C-", "F")))))))))</f>
         <v>B</v>
       </c>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f xml:space="preserve"> ROUND((B17 * 1), 2)</f>
+        <v>53</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="3"/>
-        <v>69.89</v>
+        <f>C17 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>69</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>69.89</v>
+        <f>IF(AND(OR(B17=100), D17&gt;99.49), 100, IF(AND(B17&lt;100, D17&gt;99.49), 99,  IF(OR(AND(D17&gt;49.9, D17&lt;=59.49), D17&gt;=59.5), IF(D17&gt;=59.5, IF(D17+1&gt;99.49, 99, D17+1), 60), IF(OR(B17=0), 0, D17))))</f>
+        <v>70</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="4"/>
-        <v>70.89</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="H17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>ROUND(E17,0)</f>
+        <v>70</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>IF(F17&gt;=92, "A+", IF(F17&gt;=86, "A", IF(F17&gt;=80, "A-", IF(F17&gt;=76, "B+", IF(F17&gt;=72, "B", IF(F17&gt;=68, "B-", IF(F17&gt;=64, "C+", IF(F17&gt;=61, "C", IF(F17&gt;=60, "C-", "F")))))))))</f>
         <v>B-</v>
       </c>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <f xml:space="preserve"> ROUND((B18 * 1), 2)</f>
+        <v>53</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="3"/>
-        <v>68.89</v>
+        <f>C18 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>69</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>68.89</v>
+        <f>IF(AND(OR(B18=100), D18&gt;99.49), 100, IF(AND(B18&lt;100, D18&gt;99.49), 99,  IF(OR(AND(D18&gt;49.9, D18&lt;=59.49), D18&gt;=59.5), IF(D18&gt;=59.5, IF(D18+1&gt;99.49, 99, D18+1), 60), IF(OR(B18=0), 0, D18))))</f>
+        <v>70</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="4"/>
-        <v>69.89</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(E18,0)</f>
         <v>70</v>
       </c>
-      <c r="H18" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="G18" s="1" t="str">
+        <f>IF(F18&gt;=92, "A+", IF(F18&gt;=86, "A", IF(F18&gt;=80, "A-", IF(F18&gt;=76, "B+", IF(F18&gt;=72, "B", IF(F18&gt;=68, "B-", IF(F18&gt;=64, "C+", IF(F18&gt;=61, "C", IF(F18&gt;=60, "C-", "F")))))))))</f>
         <v>B-</v>
       </c>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f xml:space="preserve"> ROUND((B19 * 1), 2)</f>
+        <v>52</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="3"/>
-        <v>67.89</v>
+        <f>C19 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>68</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>67.89</v>
+        <f>IF(AND(OR(B19=100), D19&gt;99.49), 100, IF(AND(B19&lt;100, D19&gt;99.49), 99,  IF(OR(AND(D19&gt;49.9, D19&lt;=59.49), D19&gt;=59.5), IF(D19&gt;=59.5, IF(D19+1&gt;99.49, 99, D19+1), 60), IF(OR(B19=0), 0, D19))))</f>
+        <v>69</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="4"/>
-        <v>68.89</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f>ROUND(E19,0)</f>
         <v>69</v>
       </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C+</v>
+      <c r="G19" s="1" t="str">
+        <f>IF(F19&gt;=92, "A+", IF(F19&gt;=86, "A", IF(F19&gt;=80, "A-", IF(F19&gt;=76, "B+", IF(F19&gt;=72, "B", IF(F19&gt;=68, "B-", IF(F19&gt;=64, "C+", IF(F19&gt;=61, "C", IF(F19&gt;=60, "C-", "F")))))))))</f>
+        <v>B-</v>
       </c>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f xml:space="preserve"> ROUND((B20 * 1), 2)</f>
+        <v>50</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="3"/>
-        <v>66.89</v>
+        <f>C20 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>66</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>66.89</v>
+        <f>IF(AND(OR(B20=100), D20&gt;99.49), 100, IF(AND(B20&lt;100, D20&gt;99.49), 99,  IF(OR(AND(D20&gt;49.9, D20&lt;=59.49), D20&gt;=59.5), IF(D20&gt;=59.5, IF(D20+1&gt;99.49, 99, D20+1), 60), IF(OR(B20=0), 0, D20))))</f>
+        <v>67</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="4"/>
-        <v>67.89</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>ROUND(E20,0)</f>
+        <v>67</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>IF(F20&gt;=92, "A+", IF(F20&gt;=86, "A", IF(F20&gt;=80, "A-", IF(F20&gt;=76, "B+", IF(F20&gt;=72, "B", IF(F20&gt;=68, "B-", IF(F20&gt;=64, "C+", IF(F20&gt;=61, "C", IF(F20&gt;=60, "C-", "F")))))))))</f>
         <v>C+</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f xml:space="preserve"> ROUND((B21 * 1), 2)</f>
+        <v>48</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="3"/>
-        <v>66.89</v>
+        <f>C21 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>64</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>66.89</v>
+        <f>IF(AND(OR(B21=100), D21&gt;99.49), 100, IF(AND(B21&lt;100, D21&gt;99.49), 99,  IF(OR(AND(D21&gt;49.9, D21&lt;=59.49), D21&gt;=59.5), IF(D21&gt;=59.5, IF(D21+1&gt;99.49, 99, D21+1), 60), IF(OR(B21=0), 0, D21))))</f>
+        <v>65</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="4"/>
-        <v>67.89</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>ROUND(E21,0)</f>
+        <v>65</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>IF(F21&gt;=92, "A+", IF(F21&gt;=86, "A", IF(F21&gt;=80, "A-", IF(F21&gt;=76, "B+", IF(F21&gt;=72, "B", IF(F21&gt;=68, "B-", IF(F21&gt;=64, "C+", IF(F21&gt;=61, "C", IF(F21&gt;=60, "C-", "F")))))))))</f>
         <v>C+</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f xml:space="preserve"> ROUND((B22 * 1), 2)</f>
+        <v>47</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="3"/>
-        <v>61.89</v>
+        <f>C22 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>63</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>61.89</v>
+        <f>IF(AND(OR(B22=100), D22&gt;99.49), 100, IF(AND(B22&lt;100, D22&gt;99.49), 99,  IF(OR(AND(D22&gt;49.9, D22&lt;=59.49), D22&gt;=59.5), IF(D22&gt;=59.5, IF(D22+1&gt;99.49, 99, D22+1), 60), IF(OR(B22=0), 0, D22))))</f>
+        <v>64</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="4"/>
-        <v>62.89</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C</v>
+        <f>ROUND(E22,0)</f>
+        <v>64</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>IF(F22&gt;=92, "A+", IF(F22&gt;=86, "A", IF(F22&gt;=80, "A-", IF(F22&gt;=76, "B+", IF(F22&gt;=72, "B", IF(F22&gt;=68, "B-", IF(F22&gt;=64, "C+", IF(F22&gt;=61, "C", IF(F22&gt;=60, "C-", "F")))))))))</f>
+        <v>C+</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f xml:space="preserve"> ROUND((B23 * 1), 2)</f>
+        <v>46</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="3"/>
-        <v>58.89</v>
+        <f>C23 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>62</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>58.89</v>
+        <f>IF(AND(OR(B23=100), D23&gt;99.49), 100, IF(AND(B23&lt;100, D23&gt;99.49), 99,  IF(OR(AND(D23&gt;49.9, D23&lt;=59.49), D23&gt;=59.5), IF(D23&gt;=59.5, IF(D23+1&gt;99.49, 99, D23+1), 60), IF(OR(B23=0), 0, D23))))</f>
+        <v>63</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C-</v>
+        <f>ROUND(E23,0)</f>
+        <v>63</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>IF(F23&gt;=92, "A+", IF(F23&gt;=86, "A", IF(F23&gt;=80, "A-", IF(F23&gt;=76, "B+", IF(F23&gt;=72, "B", IF(F23&gt;=68, "B-", IF(F23&gt;=64, "C+", IF(F23&gt;=61, "C", IF(F23&gt;=60, "C-", "F")))))))))</f>
+        <v>C</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f xml:space="preserve"> ROUND((B24 * 1), 2)</f>
+        <v>45</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="3"/>
-        <v>57.89</v>
+        <f>C24 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>61</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>57.89</v>
+        <f>IF(AND(OR(B24=100), D24&gt;99.49), 100, IF(AND(B24&lt;100, D24&gt;99.49), 99,  IF(OR(AND(D24&gt;49.9, D24&lt;=59.49), D24&gt;=59.5), IF(D24&gt;=59.5, IF(D24+1&gt;99.49, 99, D24+1), 60), IF(OR(B24=0), 0, D24))))</f>
+        <v>62</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C-</v>
+        <f>ROUND(E24,0)</f>
+        <v>62</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>IF(F24&gt;=92, "A+", IF(F24&gt;=86, "A", IF(F24&gt;=80, "A-", IF(F24&gt;=76, "B+", IF(F24&gt;=72, "B", IF(F24&gt;=68, "B-", IF(F24&gt;=64, "C+", IF(F24&gt;=61, "C", IF(F24&gt;=60, "C-", "F")))))))))</f>
+        <v>C</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f xml:space="preserve"> ROUND((B25 * 1), 2)</f>
+        <v>45</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="3"/>
-        <v>56.89</v>
+        <f>C25 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>61</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>56.89</v>
+        <f>IF(AND(OR(B25=100), D25&gt;99.49), 100, IF(AND(B25&lt;100, D25&gt;99.49), 99,  IF(OR(AND(D25&gt;49.9, D25&lt;=59.49), D25&gt;=59.5), IF(D25&gt;=59.5, IF(D25+1&gt;99.49, 99, D25+1), 60), IF(OR(B25=0), 0, D25))))</f>
+        <v>62</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H25" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C-</v>
+        <f>ROUND(E25,0)</f>
+        <v>62</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>IF(F25&gt;=92, "A+", IF(F25&gt;=86, "A", IF(F25&gt;=80, "A-", IF(F25&gt;=76, "B+", IF(F25&gt;=72, "B", IF(F25&gt;=68, "B-", IF(F25&gt;=64, "C+", IF(F25&gt;=61, "C", IF(F25&gt;=60, "C-", "F")))))))))</f>
+        <v>C</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f xml:space="preserve"> ROUND((B26 * 1), 2)</f>
+        <v>40</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="3"/>
-        <v>56.89</v>
+        <f>C26 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>56</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>56.89</v>
+        <f>IF(AND(OR(B26=100), D26&gt;99.49), 100, IF(AND(B26&lt;100, D26&gt;99.49), 99,  IF(OR(AND(D26&gt;49.9, D26&lt;=59.49), D26&gt;=59.5), IF(D26&gt;=59.5, IF(D26+1&gt;99.49, 99, D26+1), 60), IF(OR(B26=0), 0, D26))))</f>
+        <v>60</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND(E26,0)</f>
         <v>60</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="G26" s="1" t="str">
+        <f>IF(F26&gt;=92, "A+", IF(F26&gt;=86, "A", IF(F26&gt;=80, "A-", IF(F26&gt;=76, "B+", IF(F26&gt;=72, "B", IF(F26&gt;=68, "B-", IF(F26&gt;=64, "C+", IF(F26&gt;=61, "C", IF(F26&gt;=60, "C-", "F")))))))))</f>
         <v>C-</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f xml:space="preserve"> ROUND((B27 * 1), 2)</f>
+        <v>38</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="3"/>
-        <v>55.89</v>
+        <f>C27 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>54</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>55.89</v>
+        <f>IF(AND(OR(B27=100), D27&gt;99.49), 100, IF(AND(B27&lt;100, D27&gt;99.49), 99,  IF(OR(AND(D27&gt;49.9, D27&lt;=59.49), D27&gt;=59.5), IF(D27&gt;=59.5, IF(D27+1&gt;99.49, 99, D27+1), 60), IF(OR(B27=0), 0, D27))))</f>
+        <v>60</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND(E27,0)</f>
         <v>60</v>
       </c>
-      <c r="G27" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="G27" s="1" t="str">
+        <f>IF(F27&gt;=92, "A+", IF(F27&gt;=86, "A", IF(F27&gt;=80, "A-", IF(F27&gt;=76, "B+", IF(F27&gt;=72, "B", IF(F27&gt;=68, "B-", IF(F27&gt;=64, "C+", IF(F27&gt;=61, "C", IF(F27&gt;=60, "C-", "F")))))))))</f>
         <v>C-</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f xml:space="preserve"> ROUND((B28 * 1), 2)</f>
+        <v>36</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="3"/>
-        <v>54.89</v>
+        <f>C28 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
+        <v>52</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>54.89</v>
+        <f>IF(AND(OR(B28=100), D28&gt;99.49), 100, IF(AND(B28&lt;100, D28&gt;99.49), 99,  IF(OR(AND(D28&gt;49.9, D28&lt;=59.49), D28&gt;=59.5), IF(D28&gt;=59.5, IF(D28+1&gt;99.49, 99, D28+1), 60), IF(OR(B28=0), 0, D28))))</f>
+        <v>60</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="4"/>
+        <f>ROUND(E28,0)</f>
         <v>60</v>
       </c>
-      <c r="G28" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H28" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="G28" s="1" t="str">
+        <f>IF(F28&gt;=92, "A+", IF(F28&gt;=86, "A", IF(F28&gt;=80, "A-", IF(F28&gt;=76, "B+", IF(F28&gt;=72, "B", IF(F28&gt;=68, "B-", IF(F28&gt;=64, "C+", IF(F28&gt;=61, "C", IF(F28&gt;=60, "C-", "F")))))))))</f>
         <v>C-</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" ref="B29:G29" si="6">ROUND(AVERAGE(B2:B28),2)</f>
-        <v>54.11</v>
+        <f t="shared" ref="B29:D29" si="0">ROUND(AVERAGE(B2:B28),2)</f>
+        <v>59.19</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
-        <v>54.11</v>
+        <f t="shared" si="0"/>
+        <v>59.19</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
-        <v>76</v>
+        <f t="shared" si="0"/>
+        <v>75.19</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="6"/>
-        <v>76</v>
+        <f>ROUND(AVERAGE(E2:E28),2)</f>
+        <v>75.7</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="6"/>
-        <v>76.260000000000005</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="6"/>
-        <v>76.33</v>
-      </c>
-      <c r="H29" s="1" t="str">
-        <f>IF(G29&gt;=90, "A+", IF(G29&gt;=86, "A", IF(G29&gt;=80, "A-", IF(G29&gt;=77, "B+", IF(G29&gt;=73, "B", IF(G29&gt;=70, "B-", IF(G29&gt;=67, "C+", IF(G29&gt;=63, "C", IF(G29&gt;=60, "C-", "F")))))))))</f>
+        <f>ROUND(AVERAGE(F2:F28),2)</f>
+        <v>75.7</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>IF(F29&gt;=90, "A+", IF(F29&gt;=86, "A", IF(F29&gt;=80, "A-", IF(F29&gt;=77, "B+", IF(F29&gt;=73, "B", IF(F29&gt;=70, "B-", IF(F29&gt;=67, "C+", IF(F29&gt;=63, "C", IF(F29&gt;=60, "C-", "F")))))))))</f>
         <v>B</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
     <sortCondition descending="1" ref="D2:D28"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:H28">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>OR($G2&lt;60, TRIM($H2)="F")</formula>
+  <conditionalFormatting sqref="F2:G28">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>OR($F2&lt;60, TRIM($G2)="F")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
